--- a/Resources/PartBalance.xlsx
+++ b/Resources/PartBalance.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BaseStats" sheetId="1" r:id="rId1"/>
     <sheet name="ScaledStats" sheetId="2" r:id="rId2"/>
     <sheet name="Graph" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -227,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -844,6 +844,25 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,25 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2252,6 +2252,338 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>InPower</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Graph!$K$7:$K$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24762500000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.24525000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24287500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.238125</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23575000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.233375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.22862500000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22625000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.22387500000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22150000000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21912500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.21675</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.21437500000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20962500000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.20725000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.204875</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.200125</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19775000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19537500000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.19062499999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.18825000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.18587500000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18350000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18112500000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.17875000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.176375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.17400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.17162500000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16925000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.166875</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.16212500000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.15975</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.15737500000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.15500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.15262500000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.15024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.14787500000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.14550000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.143125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.14075000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.13837500000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.13362500000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.13125000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.12887500000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.1265</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.12412500000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.12175</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.11937500000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.11700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.114625</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.11225000000000002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.109875</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.10749999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.105125</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.10275000000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.10037500000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.5624999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.325E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.0875000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.8500000000000023E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.6125000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.3749999999999991E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.1375000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.9000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.6624999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.425000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.1874999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.9499999999999978E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.7125000000000018E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.4750000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.2375000000000014E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.7624999999999982E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.5250000000000021E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.2875000000000005E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.0499999999999989E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.8125000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.5749999999999985E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3375000000000025E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.1000000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.8624999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.6250000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.3874999999999988E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.1500000000000028E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.9125000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.6749999999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.4375000000000008E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.200000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9625000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7250000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4874999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.2500000000000011E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2260,11 +2592,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="220476928"/>
-        <c:axId val="220478464"/>
+        <c:axId val="132838592"/>
+        <c:axId val="132831928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="220476928"/>
+        <c:axId val="132838592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2321,12 +2653,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220478464"/>
+        <c:crossAx val="132831928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220478464"/>
+        <c:axId val="132831928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2383,7 +2715,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220476928"/>
+        <c:crossAx val="132838592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2995,13 +3327,13 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>276227</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>33336</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>385765</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50357</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3068,7 +3400,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3103,7 +3435,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3314,7 +3646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -3349,39 +3681,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="53" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-      <c r="R1" s="54"/>
-      <c r="S1" s="54"/>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="48" t="s">
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="61"/>
+      <c r="U1" s="61"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="50"/>
+      <c r="X1" s="57"/>
       <c r="Y1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="51" t="s">
+      <c r="Z1" s="58" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3422,7 +3754,7 @@
       <c r="M2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="58" t="s">
+      <c r="N2" s="50" t="s">
         <v>67</v>
       </c>
       <c r="O2" s="42" t="s">
@@ -3458,7 +3790,7 @@
       <c r="Y2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="52"/>
+      <c r="Z2" s="59"/>
       <c r="AA2" t="s">
         <v>48</v>
       </c>
@@ -3502,7 +3834,7 @@
       <c r="M3" s="4">
         <v>0</v>
       </c>
-      <c r="N3" s="59"/>
+      <c r="N3" s="51"/>
       <c r="O3" s="5">
         <v>0.15</v>
       </c>
@@ -3581,7 +3913,7 @@
       <c r="M4" s="11">
         <v>0</v>
       </c>
-      <c r="N4" s="60"/>
+      <c r="N4" s="52"/>
       <c r="O4" s="12">
         <v>0.15</v>
       </c>
@@ -3660,7 +3992,7 @@
       <c r="M5" s="11">
         <v>0</v>
       </c>
-      <c r="N5" s="60"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="12">
         <v>0.15</v>
       </c>
@@ -3734,14 +4066,14 @@
       <c r="K6" s="38">
         <v>600</v>
       </c>
-      <c r="L6" s="56">
+      <c r="L6" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M6" s="15">
         <f t="shared" ref="M6:M16" si="5">(N6*I6)/R6*D6</f>
         <v>46.875</v>
       </c>
-      <c r="N6" s="61">
+      <c r="N6" s="53">
         <v>5</v>
       </c>
       <c r="O6" s="43">
@@ -3818,14 +4150,14 @@
       <c r="K7" s="38">
         <v>2500</v>
       </c>
-      <c r="L7" s="56">
+      <c r="L7" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N7" s="60"/>
+      <c r="N7" s="52"/>
       <c r="O7" s="12">
         <v>0.15</v>
       </c>
@@ -3900,14 +4232,14 @@
       <c r="K8" s="38">
         <v>900</v>
       </c>
-      <c r="L8" s="56">
+      <c r="L8" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M8" s="15">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="N8" s="61">
+      <c r="N8" s="53">
         <v>5</v>
       </c>
       <c r="O8" s="43">
@@ -3984,14 +4316,14 @@
       <c r="K9" s="38">
         <v>900</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
-      <c r="N9" s="61">
+      <c r="N9" s="53">
         <v>5</v>
       </c>
       <c r="O9" s="43">
@@ -4068,14 +4400,14 @@
       <c r="K10" s="38">
         <v>750</v>
       </c>
-      <c r="L10" s="56">
+      <c r="L10" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M10" s="15">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="N10" s="61">
+      <c r="N10" s="53">
         <v>5</v>
       </c>
       <c r="O10" s="43">
@@ -4152,14 +4484,14 @@
       <c r="K11" s="38">
         <v>175</v>
       </c>
-      <c r="L11" s="56">
+      <c r="L11" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M11" s="15">
         <f t="shared" si="5"/>
         <v>520</v>
       </c>
-      <c r="N11" s="61">
+      <c r="N11" s="53">
         <v>5</v>
       </c>
       <c r="O11" s="43">
@@ -4236,14 +4568,14 @@
       <c r="K12" s="38">
         <v>1750</v>
       </c>
-      <c r="L12" s="56">
+      <c r="L12" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M12" s="15">
         <f t="shared" si="5"/>
         <v>2.34</v>
       </c>
-      <c r="N12" s="61">
+      <c r="N12" s="53">
         <v>6</v>
       </c>
       <c r="O12" s="43">
@@ -4320,14 +4652,14 @@
       <c r="K13" s="38">
         <v>1600</v>
       </c>
-      <c r="L13" s="56">
+      <c r="L13" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M13" s="15">
         <f t="shared" si="5"/>
         <v>1.2600000000000002</v>
       </c>
-      <c r="N13" s="61">
+      <c r="N13" s="53">
         <v>3</v>
       </c>
       <c r="O13" s="43">
@@ -4404,14 +4736,14 @@
       <c r="K14" s="38">
         <v>1400</v>
       </c>
-      <c r="L14" s="56">
+      <c r="L14" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M14" s="15">
         <f t="shared" si="5"/>
         <v>0.72</v>
       </c>
-      <c r="N14" s="61">
+      <c r="N14" s="53">
         <v>3</v>
       </c>
       <c r="O14" s="43">
@@ -4488,14 +4820,14 @@
       <c r="K15" s="38">
         <v>500</v>
       </c>
-      <c r="L15" s="56">
+      <c r="L15" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M15" s="15">
         <f t="shared" si="5"/>
         <v>1.98</v>
       </c>
-      <c r="N15" s="61">
+      <c r="N15" s="53">
         <v>3</v>
       </c>
       <c r="O15" s="43">
@@ -4572,14 +4904,14 @@
       <c r="K16" s="38">
         <v>300</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M16" s="15">
         <f t="shared" si="5"/>
         <v>172.5</v>
       </c>
-      <c r="N16" s="61">
+      <c r="N16" s="53">
         <v>5</v>
       </c>
       <c r="O16" s="43">
@@ -4656,14 +4988,14 @@
       <c r="K17" s="38">
         <v>800</v>
       </c>
-      <c r="L17" s="56">
+      <c r="L17" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M17" s="15">
         <f>(N17*I17)/R17*D17</f>
         <v>16.64</v>
       </c>
-      <c r="N17" s="61">
+      <c r="N17" s="53">
         <v>8</v>
       </c>
       <c r="O17" s="43">
@@ -4740,14 +5072,14 @@
       <c r="K18" s="38">
         <v>1800</v>
       </c>
-      <c r="L18" s="56">
+      <c r="L18" s="48">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M18" s="15">
         <f t="shared" ref="M18:M19" si="8">(N18*I18)/R18*D18</f>
         <v>13.759999999999998</v>
       </c>
-      <c r="N18" s="61">
+      <c r="N18" s="53">
         <v>10</v>
       </c>
       <c r="O18" s="43">
@@ -4824,14 +5156,14 @@
       <c r="K19" s="21">
         <v>500</v>
       </c>
-      <c r="L19" s="57">
+      <c r="L19" s="49">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="M19" s="23">
         <f t="shared" si="8"/>
         <v>0.63</v>
       </c>
-      <c r="N19" s="62">
+      <c r="N19" s="54">
         <v>3</v>
       </c>
       <c r="O19" s="44">
@@ -4902,8 +5234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5080,6 +5412,10 @@
         <f>F7/I7</f>
         <v>0</v>
       </c>
+      <c r="K7">
+        <f>H7*0.25</f>
+        <v>0.25</v>
+      </c>
       <c r="L7">
         <f>A7</f>
         <v>0</v>
@@ -5125,8 +5461,12 @@
         <f t="shared" ref="J8:J71" si="8">F8/I8</f>
         <v>1.2760120612690322E-2</v>
       </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K71" si="9">H8*0.25</f>
+        <v>0.24762500000000001</v>
+      </c>
       <c r="L8">
-        <f t="shared" ref="L8:L71" si="9">A8</f>
+        <f t="shared" ref="L8:L71" si="10">A8</f>
         <v>1</v>
       </c>
     </row>
@@ -5170,8 +5510,12 @@
         <f t="shared" si="8"/>
         <v>2.5507102580406241E-2</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="9"/>
+        <v>0.24525000000000002</v>
+      </c>
       <c r="L9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
@@ -5215,8 +5559,12 @@
         <f t="shared" si="8"/>
         <v>3.8240560466830963E-2</v>
       </c>
+      <c r="K10">
+        <f t="shared" si="9"/>
+        <v>0.24287500000000001</v>
+      </c>
       <c r="L10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -5260,8 +5608,12 @@
         <f t="shared" si="8"/>
         <v>5.09600936105125E-2</v>
       </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>0.24050000000000002</v>
+      </c>
       <c r="L11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
     </row>
@@ -5305,8 +5657,12 @@
         <f t="shared" si="8"/>
         <v>6.3665285365605007E-2</v>
       </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>0.238125</v>
+      </c>
       <c r="L12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
     </row>
@@ -5350,8 +5706,12 @@
         <f t="shared" si="8"/>
         <v>7.635570229671633E-2</v>
       </c>
+      <c r="K13">
+        <f t="shared" si="9"/>
+        <v>0.23575000000000002</v>
+      </c>
       <c r="L13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -5395,8 +5755,12 @@
         <f t="shared" si="8"/>
         <v>8.9030893324592658E-2</v>
       </c>
+      <c r="K14">
+        <f t="shared" si="9"/>
+        <v>0.233375</v>
+      </c>
       <c r="L14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
     </row>
@@ -5440,8 +5804,12 @@
         <f t="shared" si="8"/>
         <v>0.10169038881910168</v>
       </c>
+      <c r="K15">
+        <f t="shared" si="9"/>
+        <v>0.23100000000000001</v>
+      </c>
       <c r="L15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
     </row>
@@ -5485,8 +5853,12 @@
         <f t="shared" si="8"/>
         <v>0.11433369963568256</v>
       </c>
+      <c r="K16">
+        <f t="shared" si="9"/>
+        <v>0.22862500000000002</v>
+      </c>
       <c r="L16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
     </row>
@@ -5530,8 +5902,12 @@
         <f t="shared" si="8"/>
         <v>0.12696031609110764</v>
       </c>
+      <c r="K17">
+        <f t="shared" si="9"/>
+        <v>0.22625000000000001</v>
+      </c>
       <c r="L17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
     </row>
@@ -5575,8 +5951,12 @@
         <f t="shared" si="8"/>
         <v>0.13956970687405035</v>
       </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>0.22387500000000002</v>
+      </c>
       <c r="L18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
     </row>
@@ -5620,8 +6000,12 @@
         <f t="shared" si="8"/>
         <v>0.15216131788556525</v>
       </c>
+      <c r="K19">
+        <f t="shared" si="9"/>
+        <v>0.22150000000000003</v>
+      </c>
       <c r="L19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
     </row>
@@ -5665,8 +6049,12 @@
         <f t="shared" si="8"/>
         <v>0.16473457100416261</v>
       </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>0.21912500000000001</v>
+      </c>
       <c r="L20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
     </row>
@@ -5710,8 +6098,12 @@
         <f t="shared" si="8"/>
         <v>0.17728886276969463</v>
       </c>
+      <c r="K21">
+        <f t="shared" si="9"/>
+        <v>0.21675</v>
+      </c>
       <c r="L21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
     </row>
@@ -5755,8 +6147,12 @@
         <f t="shared" si="8"/>
         <v>0.18982356297975614</v>
       </c>
+      <c r="K22">
+        <f t="shared" si="9"/>
+        <v>0.21437500000000001</v>
+      </c>
       <c r="L22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
     </row>
@@ -5800,8 +6196,12 @@
         <f t="shared" si="8"/>
         <v>0.20233801319174005</v>
       </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
+        <v>0.21200000000000002</v>
+      </c>
       <c r="L23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
     </row>
@@ -5845,8 +6245,12 @@
         <f t="shared" si="8"/>
         <v>0.21483152512306414</v>
       </c>
+      <c r="K24">
+        <f t="shared" si="9"/>
+        <v>0.20962500000000001</v>
+      </c>
       <c r="L24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
     </row>
@@ -5890,8 +6294,12 @@
         <f t="shared" si="8"/>
         <v>0.22730337894140162</v>
       </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>0.20725000000000002</v>
+      </c>
       <c r="L25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
     </row>
@@ -5935,8 +6343,12 @@
         <f t="shared" si="8"/>
         <v>0.2397528214359898</v>
       </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>0.204875</v>
+      </c>
       <c r="L26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19</v>
       </c>
     </row>
@@ -5980,8 +6392,12 @@
         <f t="shared" si="8"/>
         <v>0.25217906406025214</v>
       </c>
+      <c r="K27">
+        <f t="shared" si="9"/>
+        <v>0.20250000000000001</v>
+      </c>
       <c r="L27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
     </row>
@@ -6025,8 +6441,12 @@
         <f t="shared" si="8"/>
         <v>0.26458128083504551</v>
       </c>
+      <c r="K28">
+        <f t="shared" si="9"/>
+        <v>0.200125</v>
+      </c>
       <c r="L28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
     </row>
@@ -6070,8 +6490,12 @@
         <f t="shared" si="8"/>
         <v>0.27695860610081235</v>
       </c>
+      <c r="K29">
+        <f t="shared" si="9"/>
+        <v>0.19775000000000001</v>
+      </c>
       <c r="L29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
     </row>
@@ -6115,8 +6539,12 @@
         <f t="shared" si="8"/>
         <v>0.2893101321057841</v>
       </c>
+      <c r="K30">
+        <f t="shared" si="9"/>
+        <v>0.19537500000000002</v>
+      </c>
       <c r="L30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
     </row>
@@ -6160,8 +6588,12 @@
         <f t="shared" si="8"/>
         <v>0.30163490641610996</v>
       </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>0.193</v>
+      </c>
       <c r="L31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
     </row>
@@ -6205,8 +6637,12 @@
         <f t="shared" si="8"/>
         <v>0.3139319291323836</v>
       </c>
+      <c r="K32">
+        <f t="shared" si="9"/>
+        <v>0.19062499999999999</v>
+      </c>
       <c r="L32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
     </row>
@@ -6250,8 +6686,12 @@
         <f t="shared" si="8"/>
         <v>0.32620014989546758</v>
       </c>
+      <c r="K33">
+        <f t="shared" si="9"/>
+        <v>0.18825000000000003</v>
+      </c>
       <c r="L33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26</v>
       </c>
     </row>
@@ -6295,8 +6735,12 @@
         <f t="shared" si="8"/>
         <v>0.33843846466277172</v>
       </c>
+      <c r="K34">
+        <f t="shared" si="9"/>
+        <v>0.18587500000000001</v>
+      </c>
       <c r="L34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27</v>
       </c>
     </row>
@@ -6340,8 +6784,12 @@
         <f t="shared" si="8"/>
         <v>0.35064571223418717</v>
       </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>0.18350000000000002</v>
+      </c>
       <c r="L35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
     </row>
@@ -6385,8 +6833,12 @@
         <f t="shared" si="8"/>
         <v>0.36282067050469968</v>
       </c>
+      <c r="K36">
+        <f t="shared" si="9"/>
+        <v>0.18112500000000004</v>
+      </c>
       <c r="L36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
     </row>
@@ -6430,8 +6882,12 @@
         <f t="shared" si="8"/>
         <v>0.37496205241825953</v>
       </c>
+      <c r="K37">
+        <f t="shared" si="9"/>
+        <v>0.17875000000000002</v>
+      </c>
       <c r="L37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>30</v>
       </c>
     </row>
@@ -6475,8 +6931,12 @@
         <f t="shared" si="8"/>
         <v>0.38706850159474865</v>
       </c>
+      <c r="K38">
+        <f t="shared" si="9"/>
+        <v>0.176375</v>
+      </c>
       <c r="L38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
     </row>
@@ -6520,8 +6980,12 @@
         <f t="shared" si="8"/>
         <v>0.39913858759881293</v>
       </c>
+      <c r="K39">
+        <f t="shared" si="9"/>
+        <v>0.17400000000000002</v>
+      </c>
       <c r="L39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32</v>
       </c>
     </row>
@@ -6565,8 +7029,12 @@
         <f t="shared" si="8"/>
         <v>0.4111708008158651</v>
       </c>
+      <c r="K40">
+        <f t="shared" si="9"/>
+        <v>0.17162500000000003</v>
+      </c>
       <c r="L40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
     </row>
@@ -6610,8 +7078,12 @@
         <f t="shared" si="8"/>
         <v>0.42316354689667351</v>
       </c>
+      <c r="K41">
+        <f t="shared" si="9"/>
+        <v>0.16925000000000001</v>
+      </c>
       <c r="L41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
     </row>
@@ -6655,8 +7127,12 @@
         <f t="shared" si="8"/>
         <v>0.43511514072755603</v>
       </c>
+      <c r="K42">
+        <f t="shared" si="9"/>
+        <v>0.166875</v>
+      </c>
       <c r="L42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
     </row>
@@ -6700,8 +7176,12 @@
         <f t="shared" si="8"/>
         <v>0.44702379987823421</v>
       </c>
+      <c r="K43">
+        <f t="shared" si="9"/>
+        <v>0.16450000000000004</v>
+      </c>
       <c r="L43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36</v>
       </c>
     </row>
@@ -6745,8 +7225,12 @@
         <f t="shared" si="8"/>
         <v>0.4588876374737883</v>
       </c>
+      <c r="K44">
+        <f t="shared" si="9"/>
+        <v>0.16212500000000002</v>
+      </c>
       <c r="L44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>37</v>
       </c>
     </row>
@@ -6790,8 +7274,12 @@
         <f t="shared" si="8"/>
         <v>0.47070465443077353</v>
       </c>
+      <c r="K45">
+        <f t="shared" si="9"/>
+        <v>0.15975</v>
+      </c>
       <c r="L45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>38</v>
       </c>
     </row>
@@ -6835,8 +7323,12 @@
         <f t="shared" si="8"/>
         <v>0.48247273099033494</v>
       </c>
+      <c r="K46">
+        <f t="shared" si="9"/>
+        <v>0.15737500000000001</v>
+      </c>
       <c r="L46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
     </row>
@@ -6880,8 +7372,12 @@
         <f t="shared" si="8"/>
         <v>0.4941896174729134</v>
       </c>
+      <c r="K47">
+        <f t="shared" si="9"/>
+        <v>0.15500000000000003</v>
+      </c>
       <c r="L47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
     </row>
@@ -6925,8 +7421,12 @@
         <f t="shared" si="8"/>
         <v>0.5058529241697558</v>
       </c>
+      <c r="K48">
+        <f t="shared" si="9"/>
+        <v>0.15262500000000001</v>
+      </c>
       <c r="L48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>41</v>
       </c>
     </row>
@@ -6970,8 +7470,12 @@
         <f t="shared" si="8"/>
         <v>0.5174601102757147</v>
       </c>
+      <c r="K49">
+        <f t="shared" si="9"/>
+        <v>0.15024999999999999</v>
+      </c>
       <c r="L49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>42</v>
       </c>
     </row>
@@ -7015,8 +7519,12 @@
         <f t="shared" si="8"/>
         <v>0.5290084717555571</v>
       </c>
+      <c r="K50">
+        <f t="shared" si="9"/>
+        <v>0.14787500000000001</v>
+      </c>
       <c r="L50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
     </row>
@@ -7060,8 +7568,12 @@
         <f t="shared" si="8"/>
         <v>0.5404951280219219</v>
       </c>
+      <c r="K51">
+        <f t="shared" si="9"/>
+        <v>0.14550000000000002</v>
+      </c>
       <c r="L51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
     </row>
@@ -7105,8 +7617,12 @@
         <f t="shared" si="8"/>
         <v>0.55191700728688919</v>
       </c>
+      <c r="K52">
+        <f t="shared" si="9"/>
+        <v>0.143125</v>
+      </c>
       <c r="L52">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
     </row>
@@ -7150,8 +7666,12 @@
         <f t="shared" si="8"/>
         <v>0.56327083043049464</v>
       </c>
+      <c r="K53">
+        <f t="shared" si="9"/>
+        <v>0.14075000000000004</v>
+      </c>
       <c r="L53">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46</v>
       </c>
     </row>
@@ -7195,8 +7715,12 @@
         <f t="shared" si="8"/>
         <v>0.57455309320800729</v>
       </c>
+      <c r="K54">
+        <f t="shared" si="9"/>
+        <v>0.13837500000000003</v>
+      </c>
       <c r="L54">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
     </row>
@@ -7240,8 +7764,12 @@
         <f t="shared" si="8"/>
         <v>0.58576004659289449</v>
       </c>
+      <c r="K55">
+        <f t="shared" si="9"/>
+        <v>0.13600000000000001</v>
+      </c>
       <c r="L55">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
     </row>
@@ -7285,8 +7813,12 @@
         <f t="shared" si="8"/>
         <v>0.59688767502352869</v>
       </c>
+      <c r="K56">
+        <f t="shared" si="9"/>
+        <v>0.13362500000000002</v>
+      </c>
       <c r="L56">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49</v>
       </c>
     </row>
@@ -7330,8 +7862,12 @@
         <f t="shared" si="8"/>
         <v>0.60793167228810785</v>
       </c>
+      <c r="K57">
+        <f t="shared" si="9"/>
+        <v>0.13125000000000001</v>
+      </c>
       <c r="L57">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
     </row>
@@ -7375,8 +7911,12 @@
         <f t="shared" si="8"/>
         <v>0.6188874147431157</v>
       </c>
+      <c r="K58">
+        <f t="shared" si="9"/>
+        <v>0.12887500000000002</v>
+      </c>
       <c r="L58">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>51</v>
       </c>
     </row>
@@ -7420,8 +7960,12 @@
         <f t="shared" si="8"/>
         <v>0.62974993151489056</v>
       </c>
+      <c r="K59">
+        <f t="shared" si="9"/>
+        <v>0.1265</v>
+      </c>
       <c r="L59">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
     </row>
@@ -7465,8 +8009,12 @@
         <f t="shared" si="8"/>
         <v>0.64051387128022574</v>
       </c>
+      <c r="K60">
+        <f t="shared" si="9"/>
+        <v>0.12412500000000001</v>
+      </c>
       <c r="L60">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>53</v>
       </c>
     </row>
@@ -7510,8 +8058,12 @@
         <f t="shared" si="8"/>
         <v>0.65117346515886798</v>
       </c>
+      <c r="K61">
+        <f t="shared" si="9"/>
+        <v>0.12175</v>
+      </c>
       <c r="L61">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
     </row>
@@ -7555,8 +8107,12 @@
         <f t="shared" si="8"/>
         <v>0.66172248517642751</v>
       </c>
+      <c r="K62">
+        <f t="shared" si="9"/>
+        <v>0.11937500000000001</v>
+      </c>
       <c r="L62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>55</v>
       </c>
     </row>
@@ -7600,8 +8156,12 @@
         <f t="shared" si="8"/>
         <v>0.67215419766828743</v>
       </c>
+      <c r="K63">
+        <f t="shared" si="9"/>
+        <v>0.11700000000000002</v>
+      </c>
       <c r="L63">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
     </row>
@@ -7645,8 +8205,12 @@
         <f t="shared" si="8"/>
         <v>0.68246131089075668</v>
       </c>
+      <c r="K64">
+        <f t="shared" si="9"/>
+        <v>0.114625</v>
+      </c>
       <c r="L64">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>57</v>
       </c>
     </row>
@@ -7690,8 +8254,12 @@
         <f t="shared" si="8"/>
         <v>0.69263591598152441</v>
       </c>
+      <c r="K65">
+        <f t="shared" si="9"/>
+        <v>0.11225000000000002</v>
+      </c>
       <c r="L65">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
     </row>
@@ -7735,8 +8303,12 @@
         <f t="shared" si="8"/>
         <v>0.70266942026310797</v>
       </c>
+      <c r="K66">
+        <f t="shared" si="9"/>
+        <v>0.109875</v>
+      </c>
       <c r="L66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>59</v>
       </c>
     </row>
@@ -7780,8 +8352,12 @@
         <f t="shared" si="8"/>
         <v>0.71255247170513114</v>
       </c>
+      <c r="K67">
+        <f t="shared" si="9"/>
+        <v>0.10749999999999998</v>
+      </c>
       <c r="L67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>60</v>
       </c>
     </row>
@@ -7825,8 +8401,12 @@
         <f t="shared" si="8"/>
         <v>0.72227487314724348</v>
       </c>
+      <c r="K68">
+        <f t="shared" si="9"/>
+        <v>0.105125</v>
+      </c>
       <c r="L68">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>61</v>
       </c>
     </row>
@@ -7870,8 +8450,12 @@
         <f t="shared" si="8"/>
         <v>0.7318254846259471</v>
       </c>
+      <c r="K69">
+        <f t="shared" si="9"/>
+        <v>0.10275000000000001</v>
+      </c>
       <c r="L69">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>62</v>
       </c>
     </row>
@@ -7915,8 +8499,12 @@
         <f t="shared" si="8"/>
         <v>0.74119211183499778</v>
       </c>
+      <c r="K70">
+        <f t="shared" si="9"/>
+        <v>0.10037500000000002</v>
+      </c>
       <c r="L70">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
     </row>
@@ -7960,8 +8548,12 @@
         <f t="shared" si="8"/>
         <v>0.75036137836703609</v>
       </c>
+      <c r="K71">
+        <f t="shared" si="9"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="L71">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
     </row>
@@ -7970,43 +8562,47 @@
         <v>65</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:B107" si="10">A72*0.01*$B$5</f>
+        <f t="shared" ref="B72:B107" si="11">A72*0.01*$B$5</f>
         <v>585</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C107" si="11">B72/$B$5</f>
+        <f t="shared" ref="C72:C107" si="12">B72/$B$5</f>
         <v>0.65</v>
       </c>
       <c r="D72" s="47">
-        <f t="shared" ref="D72:D107" si="12">(100-A72)*$B$3*0.01</f>
+        <f t="shared" ref="D72:D107" si="13">(100-A72)*$B$3*0.01</f>
         <v>5.25</v>
       </c>
       <c r="E72" s="47">
-        <f t="shared" ref="E72:E107" si="13">D72/$B$3</f>
+        <f t="shared" ref="E72:E107" si="14">D72/$B$3</f>
         <v>0.35</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F107" si="14">D72*B72/5252*0.745</f>
+        <f t="shared" ref="F72:F107" si="15">D72*B72/5252*0.745</f>
         <v>0.43565903465346534</v>
       </c>
       <c r="G72">
-        <f t="shared" ref="G72:G108" si="15">F72/$F$108</f>
+        <f t="shared" ref="G72:G108" si="16">F72/$F$108</f>
         <v>0.91</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72:H107" si="16" xml:space="preserve"> $B$4 + 1 - (A72 * (1-$B$4)*0.01 + $B$4)</f>
+        <f t="shared" ref="H72:H107" si="17" xml:space="preserve"> $B$4 + 1 - (A72 * (1-$B$4)*0.01 + $B$4)</f>
         <v>0.38249999999999995</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I72:I107" si="17">H72*$B$2</f>
+        <f t="shared" ref="I72:I107" si="18">H72*$B$2</f>
         <v>0.57374999999999998</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J107" si="18">F72/I72</f>
+        <f t="shared" ref="J72:J107" si="19">F72/I72</f>
         <v>0.75931857891671517</v>
       </c>
+      <c r="K72">
+        <f t="shared" ref="K72:K108" si="20">H72*0.25</f>
+        <v>9.5624999999999988E-2</v>
+      </c>
       <c r="L72">
-        <f t="shared" ref="L72:L107" si="19">A72</f>
+        <f t="shared" ref="L72:L107" si="21">A72</f>
         <v>65</v>
       </c>
     </row>
@@ -8015,43 +8611,47 @@
         <v>66</v>
       </c>
       <c r="B73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>594</v>
       </c>
       <c r="C73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.66</v>
       </c>
       <c r="D73" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.1000000000000005</v>
       </c>
       <c r="E73" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.34</v>
       </c>
       <c r="F73">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.42972258187357198</v>
       </c>
       <c r="G73">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89760000000000018</v>
       </c>
       <c r="H73">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.373</v>
       </c>
       <c r="I73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.5595</v>
       </c>
       <c r="J73">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.76804751005106697</v>
       </c>
+      <c r="K73">
+        <f t="shared" si="20"/>
+        <v>9.325E-2</v>
+      </c>
       <c r="L73">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>66</v>
       </c>
     </row>
@@ -8060,43 +8660,47 @@
         <v>67</v>
       </c>
       <c r="B74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>603</v>
       </c>
       <c r="C74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.67</v>
       </c>
       <c r="D74" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.95</v>
       </c>
       <c r="E74" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.33</v>
       </c>
       <c r="F74">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.42340313214013708</v>
       </c>
       <c r="G74">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.88440000000000007</v>
       </c>
       <c r="H74">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.36350000000000005</v>
       </c>
       <c r="I74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.54525000000000001</v>
       </c>
       <c r="J74">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.77653027444316747</v>
       </c>
+      <c r="K74">
+        <f t="shared" si="20"/>
+        <v>9.0875000000000011E-2</v>
+      </c>
       <c r="L74">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>67</v>
       </c>
     </row>
@@ -8105,43 +8709,47 @@
         <v>68</v>
       </c>
       <c r="B75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>612</v>
       </c>
       <c r="C75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.68</v>
       </c>
       <c r="D75" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8</v>
       </c>
       <c r="E75" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.32</v>
       </c>
       <c r="F75">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.41670068545316069</v>
       </c>
       <c r="G75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.87040000000000006</v>
       </c>
       <c r="H75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.35400000000000009</v>
       </c>
       <c r="I75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.53100000000000014</v>
       </c>
       <c r="J75">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.78474705358410657</v>
       </c>
+      <c r="K75">
+        <f t="shared" si="20"/>
+        <v>8.8500000000000023E-2</v>
+      </c>
       <c r="L75">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>68</v>
       </c>
     </row>
@@ -8150,43 +8758,47 @@
         <v>69</v>
       </c>
       <c r="B76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>621</v>
       </c>
       <c r="C76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.69</v>
       </c>
       <c r="D76" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.6500000000000004</v>
       </c>
       <c r="E76" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.31</v>
       </c>
       <c r="F76">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.40961524181264281</v>
       </c>
       <c r="G76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.85560000000000014</v>
       </c>
       <c r="H76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.34450000000000003</v>
       </c>
       <c r="I76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.51675000000000004</v>
       </c>
       <c r="J76">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.79267584288852011</v>
       </c>
+      <c r="K76">
+        <f t="shared" si="20"/>
+        <v>8.6125000000000007E-2</v>
+      </c>
       <c r="L76">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>69</v>
       </c>
     </row>
@@ -8195,43 +8807,47 @@
         <v>70</v>
       </c>
       <c r="B77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>630.00000000000011</v>
       </c>
       <c r="C77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="D77" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.5</v>
       </c>
       <c r="E77" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.3</v>
       </c>
       <c r="F77">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.40214680121858348</v>
       </c>
       <c r="G77">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.8400000000000003</v>
       </c>
       <c r="H77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.33499999999999996</v>
       </c>
       <c r="I77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.50249999999999995</v>
       </c>
       <c r="J77">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.80029214172852448</v>
       </c>
+      <c r="K77">
+        <f t="shared" si="20"/>
+        <v>8.3749999999999991E-2</v>
+      </c>
       <c r="L77">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>70</v>
       </c>
     </row>
@@ -8240,43 +8856,47 @@
         <v>71</v>
       </c>
       <c r="B78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>639</v>
       </c>
       <c r="C78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.71</v>
       </c>
       <c r="D78" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3500000000000005</v>
       </c>
       <c r="E78" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="F78">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.39429536367098256</v>
       </c>
       <c r="G78">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.82360000000000022</v>
       </c>
       <c r="H78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.32550000000000001</v>
       </c>
       <c r="I78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.48825000000000002</v>
       </c>
       <c r="J78">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.80756858918788033</v>
       </c>
+      <c r="K78">
+        <f t="shared" si="20"/>
+        <v>8.1375000000000003E-2</v>
+      </c>
       <c r="L78">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>71</v>
       </c>
     </row>
@@ -8285,43 +8905,47 @@
         <v>72</v>
       </c>
       <c r="B79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>648</v>
       </c>
       <c r="C79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.72</v>
       </c>
       <c r="D79" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.2</v>
       </c>
       <c r="E79" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="F79">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.38606092916984008</v>
       </c>
       <c r="G79">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.80640000000000012</v>
       </c>
       <c r="H79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.31600000000000006</v>
       </c>
       <c r="I79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.47400000000000009</v>
       </c>
       <c r="J79">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.8144745341135865</v>
       </c>
+      <c r="K79">
+        <f t="shared" si="20"/>
+        <v>7.9000000000000015E-2</v>
+      </c>
       <c r="L79">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>72</v>
       </c>
     </row>
@@ -8330,43 +8954,47 @@
         <v>73</v>
       </c>
       <c r="B80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>657</v>
       </c>
       <c r="C80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.73</v>
       </c>
       <c r="D80" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.05</v>
       </c>
       <c r="E80" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.26999999999999996</v>
       </c>
       <c r="F80">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.37744349771515617</v>
       </c>
       <c r="G80">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.78840000000000021</v>
       </c>
       <c r="H80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.30649999999999999</v>
       </c>
       <c r="I80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.45974999999999999</v>
       </c>
       <c r="J80">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.82097552520969264</v>
       </c>
+      <c r="K80">
+        <f t="shared" si="20"/>
+        <v>7.6624999999999999E-2</v>
+      </c>
       <c r="L80">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>73</v>
       </c>
     </row>
@@ -8375,43 +9003,47 @@
         <v>74</v>
       </c>
       <c r="B81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>666</v>
       </c>
       <c r="C81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.74</v>
       </c>
       <c r="D81" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.9</v>
       </c>
       <c r="E81" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.26</v>
       </c>
       <c r="F81">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.36844306930693072</v>
       </c>
       <c r="G81">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.76960000000000017</v>
       </c>
       <c r="H81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.29700000000000004</v>
       </c>
       <c r="I81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.44550000000000006</v>
       </c>
       <c r="J81">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.82703270327032696</v>
       </c>
+      <c r="K81">
+        <f t="shared" si="20"/>
+        <v>7.425000000000001E-2</v>
+      </c>
       <c r="L81">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>74</v>
       </c>
     </row>
@@ -8420,43 +9052,47 @@
         <v>75</v>
       </c>
       <c r="B82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>675</v>
       </c>
       <c r="C82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.75</v>
       </c>
       <c r="D82" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.75</v>
       </c>
       <c r="E82" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.25</v>
       </c>
       <c r="F82">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.35905964394516371</v>
       </c>
       <c r="G82">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
       <c r="H82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.28749999999999998</v>
       </c>
       <c r="I82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.43124999999999997</v>
       </c>
       <c r="J82">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.83260207291632171</v>
       </c>
+      <c r="K82">
+        <f t="shared" si="20"/>
+        <v>7.1874999999999994E-2</v>
+      </c>
       <c r="L82">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>75</v>
       </c>
     </row>
@@ -8465,43 +9101,47 @@
         <v>76</v>
       </c>
       <c r="B83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>684</v>
       </c>
       <c r="C83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.76</v>
       </c>
       <c r="D83" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.6</v>
       </c>
       <c r="E83" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.24000000000000002</v>
       </c>
       <c r="F83">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.34929322162985532</v>
       </c>
       <c r="G83">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.72960000000000014</v>
       </c>
       <c r="H83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.27799999999999991</v>
       </c>
       <c r="I83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.41699999999999987</v>
       </c>
       <c r="J83">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.83763362501164373</v>
       </c>
+      <c r="K83">
+        <f t="shared" si="20"/>
+        <v>6.9499999999999978E-2</v>
+      </c>
       <c r="L83">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>76</v>
       </c>
     </row>
@@ -8510,43 +9150,47 @@
         <v>77</v>
       </c>
       <c r="B84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>693</v>
       </c>
       <c r="C84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.77</v>
       </c>
       <c r="D84" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.45</v>
       </c>
       <c r="E84" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.23</v>
       </c>
       <c r="F84">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.33914380236100528</v>
       </c>
       <c r="G84">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.70839999999999992</v>
       </c>
       <c r="H84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.26850000000000007</v>
       </c>
       <c r="I84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.40275000000000011</v>
       </c>
       <c r="J84">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.84207027277716995</v>
       </c>
+      <c r="K84">
+        <f t="shared" si="20"/>
+        <v>6.7125000000000018E-2</v>
+      </c>
       <c r="L84">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>77</v>
       </c>
     </row>
@@ -8555,43 +9199,47 @@
         <v>78</v>
       </c>
       <c r="B85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>702</v>
       </c>
       <c r="C85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.78</v>
       </c>
       <c r="D85" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.3000000000000003</v>
       </c>
       <c r="E85" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.22000000000000003</v>
       </c>
       <c r="F85">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3286113861386139</v>
       </c>
       <c r="G85">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.68640000000000012</v>
       </c>
       <c r="H85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.25900000000000001</v>
       </c>
       <c r="I85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.38850000000000001</v>
       </c>
       <c r="J85">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.84584655376734597</v>
       </c>
+      <c r="K85">
+        <f t="shared" si="20"/>
+        <v>6.4750000000000002E-2</v>
+      </c>
       <c r="L85">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>78</v>
       </c>
     </row>
@@ -8600,43 +9248,47 @@
         <v>79</v>
       </c>
       <c r="B86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>711</v>
       </c>
       <c r="C86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.79</v>
       </c>
       <c r="D86" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.15</v>
       </c>
       <c r="E86" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.21</v>
       </c>
       <c r="F86">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.31769597296268087</v>
       </c>
       <c r="G86">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.66360000000000008</v>
       </c>
       <c r="H86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.24950000000000006</v>
       </c>
       <c r="I86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.37425000000000008</v>
       </c>
       <c r="J86">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.84888703530442433</v>
       </c>
+      <c r="K86">
+        <f t="shared" si="20"/>
+        <v>6.2375000000000014E-2</v>
+      </c>
       <c r="L86">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>79</v>
       </c>
     </row>
@@ -8645,43 +9297,47 @@
         <v>80</v>
       </c>
       <c r="B87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>720</v>
       </c>
       <c r="C87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.8</v>
       </c>
       <c r="D87" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="E87" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
       <c r="F87">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3063975628332064</v>
       </c>
       <c r="G87">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="H87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.24</v>
       </c>
       <c r="I87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.36</v>
       </c>
       <c r="J87">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.85110434120335121</v>
       </c>
+      <c r="K87">
+        <f t="shared" si="20"/>
+        <v>0.06</v>
+      </c>
       <c r="L87">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>80</v>
       </c>
     </row>
@@ -8690,43 +9346,47 @@
         <v>81</v>
       </c>
       <c r="B88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>729</v>
       </c>
       <c r="C88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.81</v>
       </c>
       <c r="D88" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.85</v>
       </c>
       <c r="E88" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.19</v>
       </c>
       <c r="F88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.29471615575019044</v>
       </c>
       <c r="G88">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.61560000000000015</v>
       </c>
       <c r="H88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.23049999999999993</v>
       </c>
       <c r="I88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.34574999999999989</v>
       </c>
       <c r="J88">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.85239669052838907</v>
       </c>
+      <c r="K88">
+        <f t="shared" si="20"/>
+        <v>5.7624999999999982E-2</v>
+      </c>
       <c r="L88">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>81</v>
       </c>
     </row>
@@ -8735,43 +9395,47 @@
         <v>82</v>
       </c>
       <c r="B89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>738</v>
       </c>
       <c r="C89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.82</v>
       </c>
       <c r="D89" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.7</v>
       </c>
       <c r="E89" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.18000000000000002</v>
       </c>
       <c r="F89">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.28265175171363294</v>
       </c>
       <c r="G89">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.59040000000000015</v>
       </c>
       <c r="H89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.22100000000000009</v>
       </c>
       <c r="I89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.33150000000000013</v>
       </c>
       <c r="J89">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.85264480154942035</v>
       </c>
+      <c r="K89">
+        <f t="shared" si="20"/>
+        <v>5.5250000000000021E-2</v>
+      </c>
       <c r="L89">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>82</v>
       </c>
     </row>
@@ -8780,43 +9444,47 @@
         <v>83</v>
       </c>
       <c r="B90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>747.00000000000011</v>
       </c>
       <c r="C90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="D90" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.5500000000000003</v>
       </c>
       <c r="E90" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.17</v>
       </c>
       <c r="F90">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.27020435072353394</v>
       </c>
       <c r="G90">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.56440000000000012</v>
       </c>
       <c r="H90">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.21150000000000002</v>
       </c>
       <c r="I90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.31725000000000003</v>
       </c>
       <c r="J90">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.85170796130349535</v>
       </c>
+      <c r="K90">
+        <f t="shared" si="20"/>
+        <v>5.2875000000000005E-2</v>
+      </c>
       <c r="L90">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>83</v>
       </c>
     </row>
@@ -8825,43 +9493,47 @@
         <v>84</v>
       </c>
       <c r="B91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>756</v>
       </c>
       <c r="C91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.84</v>
       </c>
       <c r="D91" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.4</v>
       </c>
       <c r="E91" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.16</v>
       </c>
       <c r="F91">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.25737395277989339</v>
       </c>
       <c r="G91">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.53760000000000008</v>
       </c>
       <c r="H91">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.20199999999999996</v>
       </c>
       <c r="I91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.30299999999999994</v>
       </c>
       <c r="J91">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.84941898607225563</v>
       </c>
+      <c r="K91">
+        <f t="shared" si="20"/>
+        <v>5.0499999999999989E-2</v>
+      </c>
       <c r="L91">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>84</v>
       </c>
     </row>
@@ -8870,43 +9542,47 @@
         <v>85</v>
       </c>
       <c r="B92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>765</v>
       </c>
       <c r="C92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.85</v>
       </c>
       <c r="D92" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.25</v>
       </c>
       <c r="E92" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.15</v>
       </c>
       <c r="F92">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.24416055788271135</v>
       </c>
       <c r="G92">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.51</v>
       </c>
       <c r="H92">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1925</v>
       </c>
       <c r="I92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.28875000000000001</v>
       </c>
       <c r="J92">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.84557768963709556</v>
       </c>
+      <c r="K92">
+        <f t="shared" si="20"/>
+        <v>4.8125000000000001E-2</v>
+      </c>
       <c r="L92">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>85</v>
       </c>
     </row>
@@ -8915,43 +9591,47 @@
         <v>86</v>
       </c>
       <c r="B93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>774</v>
       </c>
       <c r="C93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.86</v>
       </c>
       <c r="D93" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.1</v>
       </c>
       <c r="E93" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.14000000000000001</v>
       </c>
       <c r="F93">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.23056416603198784</v>
       </c>
       <c r="G93">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.48160000000000014</v>
       </c>
       <c r="H93">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.18299999999999994</v>
       </c>
       <c r="I93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.27449999999999991</v>
       </c>
       <c r="J93">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.83994231705642231</v>
       </c>
+      <c r="K93">
+        <f t="shared" si="20"/>
+        <v>4.5749999999999985E-2</v>
+      </c>
       <c r="L93">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>86</v>
       </c>
     </row>
@@ -8960,43 +9640,47 @@
         <v>87</v>
       </c>
       <c r="B94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>783</v>
       </c>
       <c r="C94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.87</v>
       </c>
       <c r="D94" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.95</v>
       </c>
       <c r="E94" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.13</v>
       </c>
       <c r="F94">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.21658477722772276</v>
       </c>
       <c r="G94">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.45240000000000002</v>
       </c>
       <c r="H94">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.1735000000000001</v>
       </c>
       <c r="I94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.26025000000000015</v>
       </c>
       <c r="J94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.83221816417952987</v>
       </c>
+      <c r="K94">
+        <f t="shared" si="20"/>
+        <v>4.3375000000000025E-2</v>
+      </c>
       <c r="L94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>87</v>
       </c>
     </row>
@@ -9005,43 +9689,47 @@
         <v>88</v>
       </c>
       <c r="B95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>792</v>
       </c>
       <c r="C95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.88</v>
       </c>
       <c r="D95" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8</v>
       </c>
       <c r="E95" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.12000000000000001</v>
       </c>
       <c r="F95">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.20222239146991625</v>
       </c>
       <c r="G95">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.42240000000000011</v>
       </c>
       <c r="H95">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.16400000000000003</v>
       </c>
       <c r="I95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.24600000000000005</v>
       </c>
       <c r="J95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.82204224174762686</v>
       </c>
+      <c r="K95">
+        <f t="shared" si="20"/>
+        <v>4.1000000000000009E-2</v>
+      </c>
       <c r="L95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>88</v>
       </c>
     </row>
@@ -9050,43 +9738,47 @@
         <v>89</v>
       </c>
       <c r="B96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>801</v>
       </c>
       <c r="C96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.89</v>
       </c>
       <c r="D96" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6500000000000001</v>
       </c>
       <c r="E96" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11000000000000001</v>
       </c>
       <c r="F96">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.18747700875856821</v>
       </c>
       <c r="G96">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.39160000000000011</v>
       </c>
       <c r="H96">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.15449999999999997</v>
       </c>
       <c r="I96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.23174999999999996</v>
       </c>
       <c r="J96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.80896228159036998</v>
       </c>
+      <c r="K96">
+        <f t="shared" si="20"/>
+        <v>3.8624999999999993E-2</v>
+      </c>
       <c r="L96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>89</v>
       </c>
     </row>
@@ -9095,43 +9787,47 @@
         <v>90</v>
       </c>
       <c r="B97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>810</v>
       </c>
       <c r="C97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9</v>
       </c>
       <c r="D97" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.5</v>
       </c>
       <c r="E97" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
       <c r="F97">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.1723486290936786</v>
       </c>
       <c r="G97">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="H97">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.14500000000000002</v>
       </c>
       <c r="I97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.21750000000000003</v>
       </c>
       <c r="J97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.79240749008587852</v>
       </c>
+      <c r="K97">
+        <f t="shared" si="20"/>
+        <v>3.6250000000000004E-2</v>
+      </c>
       <c r="L97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>90</v>
       </c>
     </row>
@@ -9140,43 +9836,47 @@
         <v>91</v>
       </c>
       <c r="B98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>819</v>
       </c>
       <c r="C98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.91</v>
       </c>
       <c r="D98" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.35</v>
       </c>
       <c r="E98" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>9.0000000000000011E-2</v>
       </c>
       <c r="F98">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.15683725247524755</v>
       </c>
       <c r="G98">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.32760000000000006</v>
       </c>
       <c r="H98">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.13549999999999995</v>
       </c>
       <c r="I98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.20324999999999993</v>
       </c>
       <c r="J98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.77164699864820463</v>
       </c>
+      <c r="K98">
+        <f t="shared" si="20"/>
+        <v>3.3874999999999988E-2</v>
+      </c>
       <c r="L98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>91</v>
       </c>
     </row>
@@ -9185,43 +9885,47 @@
         <v>92</v>
       </c>
       <c r="B99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>828</v>
       </c>
       <c r="C99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.92</v>
       </c>
       <c r="D99" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.2</v>
       </c>
       <c r="E99" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.08</v>
       </c>
       <c r="F99">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.14094287890327492</v>
       </c>
       <c r="G99">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.2944</v>
       </c>
       <c r="H99">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.12600000000000011</v>
       </c>
       <c r="I99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.18900000000000017</v>
       </c>
       <c r="J99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.74572951800674492</v>
       </c>
+      <c r="K99">
+        <f t="shared" si="20"/>
+        <v>3.1500000000000028E-2</v>
+      </c>
       <c r="L99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>92</v>
       </c>
     </row>
@@ -9230,43 +9934,47 @@
         <v>93</v>
       </c>
       <c r="B100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>837</v>
       </c>
       <c r="C100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.93</v>
       </c>
       <c r="D100" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.05</v>
       </c>
       <c r="E100" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F100">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.12466550837776084</v>
       </c>
       <c r="G100">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.26040000000000002</v>
       </c>
       <c r="H100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.11650000000000005</v>
       </c>
       <c r="I100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.17475000000000007</v>
       </c>
       <c r="J100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.71339346711164975</v>
       </c>
+      <c r="K100">
+        <f t="shared" si="20"/>
+        <v>2.9125000000000012E-2</v>
+      </c>
       <c r="L100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>93</v>
       </c>
     </row>
@@ -9275,43 +9983,47 @@
         <v>94</v>
       </c>
       <c r="B101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>846</v>
       </c>
       <c r="C101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.94</v>
       </c>
       <c r="D101" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.9</v>
       </c>
       <c r="E101" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="F101">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.10800514089870525</v>
       </c>
       <c r="G101">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.22560000000000002</v>
       </c>
       <c r="H101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.10699999999999998</v>
       </c>
       <c r="I101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.16049999999999998</v>
       </c>
       <c r="J101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.67292922678321032</v>
       </c>
+      <c r="K101">
+        <f t="shared" si="20"/>
+        <v>2.6749999999999996E-2</v>
+      </c>
       <c r="L101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>94</v>
       </c>
     </row>
@@ -9320,43 +10032,47 @@
         <v>95</v>
       </c>
       <c r="B102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>855.00000000000011</v>
       </c>
       <c r="C102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.95000000000000018</v>
       </c>
       <c r="D102" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
       <c r="E102" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.05</v>
       </c>
       <c r="F102">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.096177646610816E-2</v>
       </c>
       <c r="G102">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.19000000000000003</v>
       </c>
       <c r="H102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9.7500000000000031E-2</v>
       </c>
       <c r="I102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.14625000000000005</v>
       </c>
       <c r="J102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.6219608647255257</v>
       </c>
+      <c r="K102">
+        <f t="shared" si="20"/>
+        <v>2.4375000000000008E-2</v>
+      </c>
       <c r="L102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>95</v>
       </c>
     </row>
@@ -9365,43 +10081,47 @@
         <v>96</v>
       </c>
       <c r="B103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>864</v>
       </c>
       <c r="C103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.96</v>
       </c>
       <c r="D103" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.6</v>
       </c>
       <c r="E103" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.04</v>
       </c>
       <c r="F103">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>7.3535415079969538E-2</v>
       </c>
       <c r="G103">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15360000000000001</v>
       </c>
       <c r="H103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.8000000000000078E-2</v>
       </c>
       <c r="I103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.13200000000000012</v>
       </c>
       <c r="J103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.55708647787855659</v>
       </c>
+      <c r="K103">
+        <f t="shared" si="20"/>
+        <v>2.200000000000002E-2</v>
+      </c>
       <c r="L103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>96</v>
       </c>
     </row>
@@ -9410,43 +10130,47 @@
         <v>97</v>
       </c>
       <c r="B104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>873</v>
       </c>
       <c r="C104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.97</v>
       </c>
       <c r="D104" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.45</v>
       </c>
       <c r="E104" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.0000000000000002E-2</v>
       </c>
       <c r="F104">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.5726056740289423E-2</v>
       </c>
       <c r="G104">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.11640000000000003</v>
       </c>
       <c r="H104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.8500000000000014E-2</v>
       </c>
       <c r="I104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.11775000000000002</v>
       </c>
       <c r="J104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.47325738208313728</v>
       </c>
+      <c r="K104">
+        <f t="shared" si="20"/>
+        <v>1.9625000000000004E-2</v>
+      </c>
       <c r="L104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>97</v>
       </c>
     </row>
@@ -9455,43 +10179,47 @@
         <v>98</v>
       </c>
       <c r="B105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>882</v>
       </c>
       <c r="C105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.98</v>
       </c>
       <c r="D105" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.3</v>
       </c>
       <c r="E105" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.02</v>
       </c>
       <c r="F105">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.7533701447067781E-2</v>
       </c>
       <c r="G105">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.8399999999999997E-2</v>
       </c>
       <c r="H105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6.9000000000000061E-2</v>
       </c>
       <c r="I105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.10350000000000009</v>
       </c>
       <c r="J105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.36264445842577536</v>
       </c>
+      <c r="K105">
+        <f t="shared" si="20"/>
+        <v>1.7250000000000015E-2</v>
+      </c>
       <c r="L105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>98</v>
       </c>
     </row>
@@ -9500,43 +10228,47 @@
         <v>99</v>
       </c>
       <c r="B106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>891</v>
       </c>
       <c r="C106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.99</v>
       </c>
       <c r="D106" s="47">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.15</v>
       </c>
       <c r="E106" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.01</v>
       </c>
       <c r="F106">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1.8958349200304647E-2</v>
       </c>
       <c r="G106">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.960000000000001E-2</v>
       </c>
       <c r="H106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="I106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>8.9249999999999996E-2</v>
       </c>
       <c r="J106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.21241847843478598</v>
       </c>
+      <c r="K106">
+        <f t="shared" si="20"/>
+        <v>1.4874999999999999E-2</v>
+      </c>
       <c r="L106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99</v>
       </c>
     </row>
@@ -9545,43 +10277,47 @@
         <v>100</v>
       </c>
       <c r="B107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>900</v>
       </c>
       <c r="C107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="D107" s="47">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E107" s="47">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F107">
+      <c r="E107" s="47">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G107">
+      <c r="F107">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
+      <c r="G107">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
       <c r="H107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="I107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.5000000000000067E-2</v>
       </c>
       <c r="J107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
+      <c r="K107">
+        <f t="shared" si="20"/>
+        <v>1.2500000000000011E-2</v>
+      </c>
       <c r="L107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
     </row>
@@ -9591,8 +10327,12 @@
         <v>0.47874619192688495</v>
       </c>
       <c r="G108">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Resources/PartBalance.xlsx
+++ b/Resources/PartBalance.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BaseStats" sheetId="1" r:id="rId1"/>
     <sheet name="ScaledStats" sheetId="2" r:id="rId2"/>
     <sheet name="Graph" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
   <si>
     <t>Repulsor</t>
   </si>
@@ -221,6 +222,39 @@
   <si>
     <t>m/s acc</t>
   </si>
+  <si>
+    <t>mid pwr out</t>
+  </si>
+  <si>
+    <t>mid pwr in</t>
+  </si>
+  <si>
+    <t>max rpm pwr in</t>
+  </si>
+  <si>
+    <t>lowr pwr in</t>
+  </si>
+  <si>
+    <t>pwr delta</t>
+  </si>
+  <si>
+    <t>power out kw</t>
+  </si>
+  <si>
+    <t>pwr in kw</t>
+  </si>
+  <si>
+    <t>peak eff</t>
+  </si>
+  <si>
+    <t>peak pwr in</t>
+  </si>
+  <si>
+    <t>slp</t>
+  </si>
+  <si>
+    <t>midEff</t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +273,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -726,10 +767,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -887,9 +929,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2592,11 +2638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="132838592"/>
-        <c:axId val="132831928"/>
+        <c:axId val="102013520"/>
+        <c:axId val="102011560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="132838592"/>
+        <c:axId val="102013520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2653,12 +2699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132831928"/>
+        <c:crossAx val="102011560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="132831928"/>
+        <c:axId val="102011560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2715,7 +2761,2774 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132838592"/>
+        <c:crossAx val="102013520"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$107</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98999999999999988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.87000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.80999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.73000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.72000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.62000000000000011</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.58000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.57000000000000006</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.55999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.51999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.49000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.47000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.41000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.31000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.29000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.25999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.13999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.12999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.9999999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$7:$G$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26040000000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3276</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3916</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.4224</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.45240000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.48160000000000008</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53760000000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.56440000000000012</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.59040000000000015</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.61560000000000015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.66360000000000008</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.70840000000000014</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.72960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76960000000000017</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.7884000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.80640000000000034</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.8236</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.84000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85560000000000025</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.87040000000000028</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.8844000000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.89760000000000006</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.91000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92159999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.93240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.94240000000000013</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.9516</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.9600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.97440000000000015</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.98040000000000016</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.99360000000000015</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.99640000000000017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99839999999999984</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.99960000000000016</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.99840000000000018</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99640000000000017</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.99360000000000015</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.9900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.98560000000000025</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.98039999999999994</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.96760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.96000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.9516</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.94240000000000013</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.93240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.9216000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.91000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.89760000000000029</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.88440000000000019</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.87040000000000028</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.85560000000000025</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84000000000000041</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.82360000000000011</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.80640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.7884000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.76960000000000006</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.72960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.70840000000000014</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.68640000000000023</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.66360000000000008</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.61560000000000015</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.59040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.56440000000000012</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.53760000000000008</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.48160000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.45239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.4224</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.3916</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.32760000000000011</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.29440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.26040000000000008</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.22560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.19000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.15360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1164</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.8399999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.9600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$7:$J$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4206278026905831E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8380090497737563E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2520547945205489E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.66267281105991E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0697674418604681E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.47323943661972E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8729857819905259E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11268899521531103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12660869565217392</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14048780487804879</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15432512315270935</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.16811940298507463</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.18186934673366839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19557360406091376</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20923076923076928</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.22283937823834199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.23639790575916242</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.24990476190476196</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.26335828877005357</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27675675675675682</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29009836065573774</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.30338121546961327</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.31660335195530737</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.32976271186440687</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.34285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.35588439306358399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.36884210526315803</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38172781065088779</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.39453892215568864</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.40727272727272745</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.41992638036809837</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4324968944099381</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.44498113207547191</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.45737579617834412</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.46967741935483898</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.48188235294117659</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.49398675496688749</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5059865771812081</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.51787755102040811</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.52965517241379334</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5413146853146853</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.55285106382978744</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.56425899280575553</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.57553284671532845</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.58666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.59765413533834599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.60848854961832077</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61916279069767433</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.62966929133858263</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.64000000000000012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.65014634146341477</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.66009917355371917</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66984873949579848</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.67938461538461559</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.68869565217391326</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.69776991150442502</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.70659459459459451</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.71515596330275222</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.72343925233644868</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.73142857142857165</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.73910679611650487</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.74645544554455445</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75345454545454571</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.76008247422680442</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.76631578947368439</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.77212903225806495</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.77749450549450583</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.78238202247191058</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.78675862068965541</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.79058823529411848</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.79383132530120493</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.79644444444444451</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.79837974683544322</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.79958441558441573</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.79956164383561656</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.79819718309859178</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.79582608695652213</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79235820895522413</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.78769230769230791</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.78171428571428614</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.77429508196721308</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.76528813559322084</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.75452631578947371</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.74181818181818193</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.72694339622641513</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.70964705882352952</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.68963265306122457</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.66655319148936176</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.64000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.60948837209302364</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.5744390243902443</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.53415384615384653</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.48778378378378379</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.43428571428571489</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.3723636363636364</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.30038709677419356</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.21627586206896551</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.11733333333333335</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>a</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$7:$C$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.35000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.95000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$107</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99111111111111116</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98222222222222211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97333333333333327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.96444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.94666666666666677</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.93777777777777771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.92888888888888899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90222222222222226</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89333333333333342</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88444444444444437</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.87555555555555553</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.85777777777777786</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.8488888888888888</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.84000000000000019</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.83111111111111113</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.8222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.81333333333333346</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.80444444444444463</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.78666666666666674</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.7777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.76888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.75111111111111117</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.74222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.73333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.72444444444444445</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.7155555555555555</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.70666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.69777777777777772</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.68888888888888877</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.67999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.6711111111111111</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.66222222222222227</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65333333333333343</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.64444444444444438</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.63555555555555576</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.62666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.61777777777777787</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.60888888888888903</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.6000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.59111111111111114</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.58222222222222231</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.57333333333333347</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.56444444444444453</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.55555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.54666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.5377777777777778</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.52888888888888885</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.51999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.51111111111111107</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.50222222222222224</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.4933333333333334</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.48444444444444457</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.47555555555555562</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.46666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.45777777777777784</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.448888888888889</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.43999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43111111111111111</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.42222222222222228</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.41333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.40444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.39555555555555549</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.38666666666666671</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.37777777777777766</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.36888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.36000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.35111111111111115</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.34222222222222226</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.33333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.32444444444444448</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.31555555555555553</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.30666666666666664</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.29777777777777775</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.28888888888888886</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.27999999999999992</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.27111111111111119</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.26222222222222213</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.25333333333333341</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.24444444444444444</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.2355555555555556</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.22666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.21777777777777782</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.2088888888888889</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.19111111111111106</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.18222222222222217</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.17333333333333328</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.16444444444444448</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.15555555555555539</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.1466666666666667</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.1377777777777778</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.12888888888888891</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.12000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.11111111111111112</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225565344"/>
+        <c:axId val="225564560"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225565344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225564560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="225564560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225565344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2765,6 +5578,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3320,7 +6173,560 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276227</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50357</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5234,8 +8640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10339,4 +13745,5133 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L108"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1">
+        <f>F57</f>
+        <v>13.613568165555769</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="63">
+        <f>J108</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="64">
+        <v>0.8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2">
+        <f>1 / B2*E1</f>
+        <v>17.016960206944709</v>
+      </c>
+      <c r="G2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2">
+        <f>I108</f>
+        <v>38.288160465625594</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <f>VLOOKUP(B1, BaseStats!$A$3:$Y$19, 13,FALSE)</f>
+        <v>520</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3">
+        <f>E2*B4*0.5</f>
+        <v>4.2542400517361774</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>17.16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <f>E2 * 2 + E3</f>
+        <v>38.288160465625594</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>900</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5">
+        <f>E4-E3</f>
+        <v>34.033920413889419</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>A7*0.01*$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>B7/$B$5</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="47">
+        <f>(100-A7)*$B$3*0.01</f>
+        <v>520</v>
+      </c>
+      <c r="E7" s="47">
+        <f>D7/$B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>C7*D7*PI()*2/60</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>F7/$F$108</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>1-C7</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f>$E$5*H7 + $E$3</f>
+        <v>38.288160465625594</v>
+      </c>
+      <c r="J7">
+        <f>F7/I7</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>I7/$E$4</f>
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <f>A7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B71" si="0">A8*0.01*$B$5</f>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:C71" si="1">B8/$B$5</f>
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="47">
+        <f t="shared" ref="D8:D71" si="2">(100-A8)*$B$3*0.01</f>
+        <v>514.79999999999995</v>
+      </c>
+      <c r="E8" s="47">
+        <f t="shared" ref="E8:E71" si="3">D8/$B$3</f>
+        <v>0.98999999999999988</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:F71" si="4">C8*D8*PI()*2/60</f>
+        <v>0.53909729935600847</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:G71" si="5">F8/$F$108</f>
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H71" si="6">1-C8</f>
+        <v>0.99</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I71" si="7">$E$5*H8 + $E$3</f>
+        <v>37.947821261486702</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J71" si="8">F8/I8</f>
+        <v>1.4206278026905831E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K71" si="9">I8/$E$4</f>
+        <v>0.99111111111111116</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8:L71" si="10">A8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="47">
+        <f t="shared" si="2"/>
+        <v>509.6</v>
+      </c>
+      <c r="E9" s="47">
+        <f t="shared" si="3"/>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="4"/>
+        <v>1.0673037441795723</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="7"/>
+        <v>37.607482057347802</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>2.8380090497737563E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="9"/>
+        <v>0.98222222222222211</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="D10" s="47">
+        <f t="shared" si="2"/>
+        <v>504.40000000000003</v>
+      </c>
+      <c r="E10" s="47">
+        <f t="shared" si="3"/>
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>1.5846193344706916</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>0.1164</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>0.97</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="7"/>
+        <v>37.26714285320891</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="8"/>
+        <v>4.2520547945205489E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="9"/>
+        <v>0.97333333333333327</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="D11" s="47">
+        <f t="shared" si="2"/>
+        <v>499.2</v>
+      </c>
+      <c r="E11" s="47">
+        <f t="shared" si="3"/>
+        <v>0.96</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="4"/>
+        <v>2.0910440702293664</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>0.15360000000000001</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="7"/>
+        <v>36.926803649070017</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="8"/>
+        <v>5.66267281105991E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="9"/>
+        <v>0.96444444444444444</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="47">
+        <f t="shared" si="2"/>
+        <v>494</v>
+      </c>
+      <c r="E12" s="47">
+        <f t="shared" si="3"/>
+        <v>0.95</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>2.5865779514555967</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="7"/>
+        <v>36.586464444931124</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="8"/>
+        <v>7.0697674418604681E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.06</v>
+      </c>
+      <c r="D13" s="47">
+        <f t="shared" si="2"/>
+        <v>488.8</v>
+      </c>
+      <c r="E13" s="47">
+        <f t="shared" si="3"/>
+        <v>0.94000000000000006</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="4"/>
+        <v>3.0712209781493818</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>0.22560000000000002</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="6"/>
+        <v>0.94</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="7"/>
+        <v>36.246125240792232</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="8"/>
+        <v>8.47323943661972E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="9"/>
+        <v>0.94666666666666677</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14" s="47">
+        <f t="shared" si="2"/>
+        <v>483.6</v>
+      </c>
+      <c r="E14" s="47">
+        <f t="shared" si="3"/>
+        <v>0.93</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="4"/>
+        <v>3.5449731503107231</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="6"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="7"/>
+        <v>35.905786036653332</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="8"/>
+        <v>9.8729857819905259E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="9"/>
+        <v>0.93777777777777771</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="D15" s="47">
+        <f t="shared" si="2"/>
+        <v>478.40000000000003</v>
+      </c>
+      <c r="E15" s="47">
+        <f t="shared" si="3"/>
+        <v>0.92</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="4"/>
+        <v>4.0078344679396194</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>0.29440000000000005</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>0.92</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="7"/>
+        <v>35.565446832514446</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="8"/>
+        <v>0.11268899521531103</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="9"/>
+        <v>0.92888888888888899</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="D16" s="47">
+        <f t="shared" si="2"/>
+        <v>473.2</v>
+      </c>
+      <c r="E16" s="47">
+        <f t="shared" si="3"/>
+        <v>0.91</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="4"/>
+        <v>4.4598049310360697</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>0.3276</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>0.91</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="7"/>
+        <v>35.225107628375547</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="8"/>
+        <v>0.12660869565217392</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="9"/>
+        <v>0.92</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="47">
+        <f t="shared" si="2"/>
+        <v>468</v>
+      </c>
+      <c r="E17" s="47">
+        <f t="shared" si="3"/>
+        <v>0.9</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="4"/>
+        <v>4.9008845396000771</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="7"/>
+        <v>34.884768424236654</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="8"/>
+        <v>0.14048780487804879</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="9"/>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.11</v>
+      </c>
+      <c r="D18" s="47">
+        <f t="shared" si="2"/>
+        <v>462.8</v>
+      </c>
+      <c r="E18" s="47">
+        <f t="shared" si="3"/>
+        <v>0.89</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="4"/>
+        <v>5.331073293631639</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>0.3916</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="6"/>
+        <v>0.89</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="7"/>
+        <v>34.544429220097761</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="8"/>
+        <v>0.15432512315270935</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="9"/>
+        <v>0.90222222222222226</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+      <c r="D19" s="47">
+        <f t="shared" si="2"/>
+        <v>457.6</v>
+      </c>
+      <c r="E19" s="47">
+        <f t="shared" si="3"/>
+        <v>0.88</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="4"/>
+        <v>5.7503711931307571</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>0.4224</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="6"/>
+        <v>0.88</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="7"/>
+        <v>34.204090015958869</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="8"/>
+        <v>0.16811940298507463</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="9"/>
+        <v>0.89333333333333342</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.13</v>
+      </c>
+      <c r="D20" s="47">
+        <f t="shared" si="2"/>
+        <v>452.40000000000003</v>
+      </c>
+      <c r="E20" s="47">
+        <f t="shared" si="3"/>
+        <v>0.87000000000000011</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>6.1587782380974305</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="6"/>
+        <v>0.87</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="7"/>
+        <v>33.863750811819969</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="8"/>
+        <v>0.18186934673366839</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="9"/>
+        <v>0.88444444444444437</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>126.00000000000001</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D21" s="47">
+        <f t="shared" si="2"/>
+        <v>447.2</v>
+      </c>
+      <c r="E21" s="47">
+        <f t="shared" si="3"/>
+        <v>0.86</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="4"/>
+        <v>6.5562944285316593</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>0.48160000000000008</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="6"/>
+        <v>0.86</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="7"/>
+        <v>33.523411607681076</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="8"/>
+        <v>0.19557360406091376</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="9"/>
+        <v>0.87555555555555553</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
+      <c r="D22" s="47">
+        <f t="shared" si="2"/>
+        <v>442</v>
+      </c>
+      <c r="E22" s="47">
+        <f t="shared" si="3"/>
+        <v>0.85</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="4"/>
+        <v>6.9429197644334426</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>0.51</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="6"/>
+        <v>0.85</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="7"/>
+        <v>33.183072403542184</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="8"/>
+        <v>0.20923076923076928</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="9"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>0.16</v>
+      </c>
+      <c r="D23" s="47">
+        <f t="shared" si="2"/>
+        <v>436.8</v>
+      </c>
+      <c r="E23" s="47">
+        <f t="shared" si="3"/>
+        <v>0.84</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="4"/>
+        <v>7.3186542458027821</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>0.53760000000000008</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="6"/>
+        <v>0.84</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="7"/>
+        <v>32.842733199403291</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="8"/>
+        <v>0.22283937823834199</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="9"/>
+        <v>0.85777777777777786</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>153</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>0.17</v>
+      </c>
+      <c r="D24" s="47">
+        <f t="shared" si="2"/>
+        <v>431.6</v>
+      </c>
+      <c r="E24" s="47">
+        <f t="shared" si="3"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>7.6834978726396779</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>0.56440000000000012</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="6"/>
+        <v>0.83</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="7"/>
+        <v>32.502393995264391</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="8"/>
+        <v>0.23639790575916242</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="9"/>
+        <v>0.8488888888888888</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>162</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
+      <c r="D25" s="47">
+        <f t="shared" si="2"/>
+        <v>426.40000000000003</v>
+      </c>
+      <c r="E25" s="47">
+        <f t="shared" si="3"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="4"/>
+        <v>8.0374506449441281</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>0.59040000000000015</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="6"/>
+        <v>0.82000000000000006</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="7"/>
+        <v>32.162054791125506</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="8"/>
+        <v>0.24990476190476196</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="9"/>
+        <v>0.84000000000000019</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>19</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>171</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>0.19</v>
+      </c>
+      <c r="D26" s="47">
+        <f t="shared" si="2"/>
+        <v>421.2</v>
+      </c>
+      <c r="E26" s="47">
+        <f t="shared" si="3"/>
+        <v>0.80999999999999994</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="4"/>
+        <v>8.3805125627161328</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>0.61560000000000015</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>0.81</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>31.821715586986606</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="8"/>
+        <v>0.26335828877005357</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="9"/>
+        <v>0.83111111111111113</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="D27" s="47">
+        <f t="shared" si="2"/>
+        <v>416</v>
+      </c>
+      <c r="E27" s="47">
+        <f t="shared" si="3"/>
+        <v>0.8</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="4"/>
+        <v>8.7126836259556928</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>0.64</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="7"/>
+        <v>31.481376382847714</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="8"/>
+        <v>0.27675675675675682</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="9"/>
+        <v>0.8222222222222223</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>0.21</v>
+      </c>
+      <c r="D28" s="47">
+        <f t="shared" si="2"/>
+        <v>410.8</v>
+      </c>
+      <c r="E28" s="47">
+        <f t="shared" si="3"/>
+        <v>0.79</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="4"/>
+        <v>9.0339638346628099</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>0.66360000000000008</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="7"/>
+        <v>31.141037178708821</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="8"/>
+        <v>0.29009836065573774</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="9"/>
+        <v>0.81333333333333346</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="D29" s="47">
+        <f t="shared" si="2"/>
+        <v>405.6</v>
+      </c>
+      <c r="E29" s="47">
+        <f t="shared" si="3"/>
+        <v>0.78</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>9.3443531888374807</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>0.68640000000000001</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="6"/>
+        <v>0.78</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="7"/>
+        <v>30.800697974569928</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="8"/>
+        <v>0.30338121546961327</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="9"/>
+        <v>0.80444444444444463</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>23</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>0.23</v>
+      </c>
+      <c r="D30" s="47">
+        <f t="shared" si="2"/>
+        <v>400.40000000000003</v>
+      </c>
+      <c r="E30" s="47">
+        <f t="shared" si="3"/>
+        <v>0.77</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="4"/>
+        <v>9.6438516884797085</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>0.70840000000000014</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="7"/>
+        <v>30.460358770431029</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="8"/>
+        <v>0.31660335195530737</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="9"/>
+        <v>0.79555555555555557</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>24</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="D31" s="47">
+        <f t="shared" si="2"/>
+        <v>395.2</v>
+      </c>
+      <c r="E31" s="47">
+        <f t="shared" si="3"/>
+        <v>0.76</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="4"/>
+        <v>9.93245933358949</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="6"/>
+        <v>0.76</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="7"/>
+        <v>30.120019566292136</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="8"/>
+        <v>0.32976271186440687</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="9"/>
+        <v>0.78666666666666674</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="47">
+        <f t="shared" si="2"/>
+        <v>390</v>
+      </c>
+      <c r="E32" s="47">
+        <f t="shared" si="3"/>
+        <v>0.75</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="4"/>
+        <v>10.210176124166827</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>0.75</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="7"/>
+        <v>29.779680362153243</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="8"/>
+        <v>0.34285714285714286</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="9"/>
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>26</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="D33" s="47">
+        <f t="shared" si="2"/>
+        <v>384.8</v>
+      </c>
+      <c r="E33" s="47">
+        <f t="shared" si="3"/>
+        <v>0.74</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="4"/>
+        <v>10.477002060211722</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>0.76960000000000017</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="6"/>
+        <v>0.74</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="7"/>
+        <v>29.439341158014344</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="8"/>
+        <v>0.35588439306358399</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="9"/>
+        <v>0.76888888888888884</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>243.00000000000003</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>0.27</v>
+      </c>
+      <c r="D34" s="47">
+        <f t="shared" si="2"/>
+        <v>379.6</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" si="3"/>
+        <v>0.73000000000000009</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>10.73293714172417</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>0.7884000000000001</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="6"/>
+        <v>0.73</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="7"/>
+        <v>29.099001953875451</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="8"/>
+        <v>0.36884210526315803</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="9"/>
+        <v>0.76</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>28</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>252.00000000000003</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D35" s="47">
+        <f t="shared" si="2"/>
+        <v>374.40000000000003</v>
+      </c>
+      <c r="E35" s="47">
+        <f t="shared" si="3"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>10.977981368704176</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>0.80640000000000034</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>0.72</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="7"/>
+        <v>28.758662749736558</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="8"/>
+        <v>0.38172781065088779</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="9"/>
+        <v>0.75111111111111117</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>29</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D36" s="47">
+        <f t="shared" si="2"/>
+        <v>369.2</v>
+      </c>
+      <c r="E36" s="47">
+        <f t="shared" si="3"/>
+        <v>0.71</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>11.212134741151731</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>0.8236</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>28.418323545597666</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="8"/>
+        <v>0.39453892215568864</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="9"/>
+        <v>0.74222222222222223</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="D37" s="47">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="E37" s="47">
+        <f t="shared" si="3"/>
+        <v>0.7</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="4"/>
+        <v>11.435397259066848</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>0.84000000000000019</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="7"/>
+        <v>28.077984341458766</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="8"/>
+        <v>0.40727272727272745</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="9"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>0.31</v>
+      </c>
+      <c r="D38" s="47">
+        <f t="shared" si="2"/>
+        <v>358.8</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="3"/>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="4"/>
+        <v>11.647768922449519</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>0.85560000000000025</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="6"/>
+        <v>0.69</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="7"/>
+        <v>27.737645137319873</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="8"/>
+        <v>0.41992638036809837</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="9"/>
+        <v>0.72444444444444445</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="10"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>32</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>0.32</v>
+      </c>
+      <c r="D39" s="47">
+        <f t="shared" si="2"/>
+        <v>353.6</v>
+      </c>
+      <c r="E39" s="47">
+        <f t="shared" si="3"/>
+        <v>0.68</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="4"/>
+        <v>11.849249731299745</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>0.87040000000000028</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="6"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="7"/>
+        <v>27.397305933180981</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="8"/>
+        <v>0.4324968944099381</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="9"/>
+        <v>0.7155555555555555</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="10"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>33</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>0.33</v>
+      </c>
+      <c r="D40" s="47">
+        <f t="shared" si="2"/>
+        <v>348.40000000000003</v>
+      </c>
+      <c r="E40" s="47">
+        <f t="shared" si="3"/>
+        <v>0.67</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="4"/>
+        <v>12.039839685617526</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>0.8844000000000003</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="6"/>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="7"/>
+        <v>27.056966729042088</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="8"/>
+        <v>0.44498113207547191</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="9"/>
+        <v>0.70666666666666667</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.34</v>
+      </c>
+      <c r="D41" s="47">
+        <f t="shared" si="2"/>
+        <v>343.2</v>
+      </c>
+      <c r="E41" s="47">
+        <f t="shared" si="3"/>
+        <v>0.66</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="4"/>
+        <v>12.219538785402859</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>0.89760000000000006</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="6"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="7"/>
+        <v>26.716627524903188</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="8"/>
+        <v>0.45737579617834412</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="9"/>
+        <v>0.69777777777777772</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="10"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>35</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>315.00000000000006</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>0.35000000000000009</v>
+      </c>
+      <c r="D42" s="47">
+        <f t="shared" si="2"/>
+        <v>338</v>
+      </c>
+      <c r="E42" s="47">
+        <f t="shared" si="3"/>
+        <v>0.65</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>12.388347030655753</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>0.91000000000000025</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="6"/>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="7"/>
+        <v>26.376288320764296</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="8"/>
+        <v>0.46967741935483898</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="9"/>
+        <v>0.68888888888888877</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.36</v>
+      </c>
+      <c r="D43" s="47">
+        <f t="shared" si="2"/>
+        <v>332.8</v>
+      </c>
+      <c r="E43" s="47">
+        <f t="shared" si="3"/>
+        <v>0.64</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="4"/>
+        <v>12.546264421376197</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="6"/>
+        <v>0.64</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="7"/>
+        <v>26.035949116625403</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="8"/>
+        <v>0.48188235294117659</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="9"/>
+        <v>0.67999999999999994</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="10"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>37</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.37</v>
+      </c>
+      <c r="D44" s="47">
+        <f t="shared" si="2"/>
+        <v>327.60000000000002</v>
+      </c>
+      <c r="E44" s="47">
+        <f t="shared" si="3"/>
+        <v>0.63</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="4"/>
+        <v>12.6932909575642</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="6"/>
+        <v>0.63</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="7"/>
+        <v>25.69560991248651</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="8"/>
+        <v>0.49398675496688749</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="9"/>
+        <v>0.6711111111111111</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="10"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>38</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>0.38</v>
+      </c>
+      <c r="D45" s="47">
+        <f t="shared" si="2"/>
+        <v>322.40000000000003</v>
+      </c>
+      <c r="E45" s="47">
+        <f t="shared" si="3"/>
+        <v>0.62000000000000011</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="4"/>
+        <v>12.829426639219758</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>0.94240000000000013</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="6"/>
+        <v>0.62</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="7"/>
+        <v>25.355270708347618</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="8"/>
+        <v>0.5059865771812081</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="9"/>
+        <v>0.66222222222222227</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="10"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>39</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>351</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.39</v>
+      </c>
+      <c r="D46" s="47">
+        <f t="shared" si="2"/>
+        <v>317.2</v>
+      </c>
+      <c r="E46" s="47">
+        <f t="shared" si="3"/>
+        <v>0.61</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="4"/>
+        <v>12.954671466342869</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>0.9516</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>0.61</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="7"/>
+        <v>25.014931504208725</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="8"/>
+        <v>0.51787755102040811</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="9"/>
+        <v>0.65333333333333343</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="10"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="D47" s="47">
+        <f t="shared" si="2"/>
+        <v>312</v>
+      </c>
+      <c r="E47" s="47">
+        <f t="shared" si="3"/>
+        <v>0.6</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="4"/>
+        <v>13.069025438933542</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>0.9600000000000003</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>24.674592300069826</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="8"/>
+        <v>0.52965517241379334</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="9"/>
+        <v>0.64444444444444438</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>369</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>0.41</v>
+      </c>
+      <c r="D48" s="47">
+        <f t="shared" si="2"/>
+        <v>306.8</v>
+      </c>
+      <c r="E48" s="47">
+        <f t="shared" si="3"/>
+        <v>0.59</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="4"/>
+        <v>13.172488556991762</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="6"/>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="7"/>
+        <v>24.33425309593094</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="8"/>
+        <v>0.5413146853146853</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="9"/>
+        <v>0.63555555555555576</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="10"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>0.42</v>
+      </c>
+      <c r="D49" s="47">
+        <f t="shared" si="2"/>
+        <v>301.60000000000002</v>
+      </c>
+      <c r="E49" s="47">
+        <f t="shared" si="3"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="4"/>
+        <v>13.265060820517544</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="5"/>
+        <v>0.97440000000000015</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="6"/>
+        <v>0.58000000000000007</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="7"/>
+        <v>23.99391389179204</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="8"/>
+        <v>0.55285106382978744</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="9"/>
+        <v>0.62666666666666671</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>0.43</v>
+      </c>
+      <c r="D50" s="47">
+        <f t="shared" si="2"/>
+        <v>296.40000000000003</v>
+      </c>
+      <c r="E50" s="47">
+        <f t="shared" si="3"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="4"/>
+        <v>13.346742229510879</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="5"/>
+        <v>0.98040000000000016</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="6"/>
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="7"/>
+        <v>23.653574687653148</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="8"/>
+        <v>0.56425899280575553</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="9"/>
+        <v>0.61777777777777787</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="10"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>44</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>0.44</v>
+      </c>
+      <c r="D51" s="47">
+        <f t="shared" si="2"/>
+        <v>291.2</v>
+      </c>
+      <c r="E51" s="47">
+        <f t="shared" si="3"/>
+        <v>0.55999999999999994</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="4"/>
+        <v>13.417532783971767</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="5"/>
+        <v>0.98560000000000003</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="6"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="7"/>
+        <v>23.313235483514255</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="8"/>
+        <v>0.57553284671532845</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="9"/>
+        <v>0.60888888888888903</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>45</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>0.45</v>
+      </c>
+      <c r="D52" s="47">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="E52" s="47">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="4"/>
+        <v>13.477432483900213</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="5"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="7"/>
+        <v>22.972896279375362</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="8"/>
+        <v>0.58666666666666667</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="9"/>
+        <v>0.6000000000000002</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>0.46</v>
+      </c>
+      <c r="D53" s="47">
+        <f t="shared" si="2"/>
+        <v>280.8</v>
+      </c>
+      <c r="E53" s="47">
+        <f t="shared" si="3"/>
+        <v>0.54</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>13.526441329296214</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="5"/>
+        <v>0.99360000000000015</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="6"/>
+        <v>0.54</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="7"/>
+        <v>22.632557075236463</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="8"/>
+        <v>0.59765413533834599</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="9"/>
+        <v>0.59111111111111114</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>47</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>0.47</v>
+      </c>
+      <c r="D54" s="47">
+        <f t="shared" si="2"/>
+        <v>275.60000000000002</v>
+      </c>
+      <c r="E54" s="47">
+        <f t="shared" si="3"/>
+        <v>0.53</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="4"/>
+        <v>13.56455932015977</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>0.99640000000000017</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="6"/>
+        <v>0.53</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="7"/>
+        <v>22.29221787109757</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="8"/>
+        <v>0.60848854961832077</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="9"/>
+        <v>0.58222222222222231</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>48</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>0.48</v>
+      </c>
+      <c r="D55" s="47">
+        <f t="shared" si="2"/>
+        <v>270.39999999999998</v>
+      </c>
+      <c r="E55" s="47">
+        <f t="shared" si="3"/>
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="4"/>
+        <v>13.591786456490878</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>0.99839999999999984</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="6"/>
+        <v>0.52</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="7"/>
+        <v>21.951878666958677</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="8"/>
+        <v>0.61916279069767433</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="9"/>
+        <v>0.57333333333333347</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>49</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>0.49</v>
+      </c>
+      <c r="D56" s="47">
+        <f t="shared" si="2"/>
+        <v>265.2</v>
+      </c>
+      <c r="E56" s="47">
+        <f t="shared" si="3"/>
+        <v>0.51</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="4"/>
+        <v>13.608122738289547</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="6"/>
+        <v>0.51</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="7"/>
+        <v>21.611539462819785</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="8"/>
+        <v>0.62966929133858263</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="9"/>
+        <v>0.56444444444444453</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>50</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D57" s="47">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="E57" s="47">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>13.613568165555769</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="7"/>
+        <v>21.271200258680885</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="8"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="9"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>51</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>459</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>0.51</v>
+      </c>
+      <c r="D58" s="47">
+        <f t="shared" si="2"/>
+        <v>254.8</v>
+      </c>
+      <c r="E58" s="47">
+        <f t="shared" si="3"/>
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>13.608122738289548</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>0.99960000000000016</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="6"/>
+        <v>0.49</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="7"/>
+        <v>20.930861054541992</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="8"/>
+        <v>0.65014634146341477</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="9"/>
+        <v>0.54666666666666663</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="10"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>52</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>468</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>0.52</v>
+      </c>
+      <c r="D59" s="47">
+        <f t="shared" si="2"/>
+        <v>249.6</v>
+      </c>
+      <c r="E59" s="47">
+        <f t="shared" si="3"/>
+        <v>0.48</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="4"/>
+        <v>13.591786456490881</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="5"/>
+        <v>0.99840000000000018</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="6"/>
+        <v>0.48</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="7"/>
+        <v>20.5905218504031</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="8"/>
+        <v>0.66009917355371917</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="9"/>
+        <v>0.5377777777777778</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>53</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>477</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>0.53</v>
+      </c>
+      <c r="D60" s="47">
+        <f t="shared" si="2"/>
+        <v>244.4</v>
+      </c>
+      <c r="E60" s="47">
+        <f t="shared" si="3"/>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="4"/>
+        <v>13.56455932015977</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="5"/>
+        <v>0.99640000000000017</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="6"/>
+        <v>0.47</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="7"/>
+        <v>20.250182646264204</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="8"/>
+        <v>0.66984873949579848</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="9"/>
+        <v>0.52888888888888885</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="10"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>54</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>486.00000000000006</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>0.54</v>
+      </c>
+      <c r="D61" s="47">
+        <f t="shared" si="2"/>
+        <v>239.20000000000002</v>
+      </c>
+      <c r="E61" s="47">
+        <f t="shared" si="3"/>
+        <v>0.46</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="4"/>
+        <v>13.526441329296214</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="5"/>
+        <v>0.99360000000000015</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="6"/>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="7"/>
+        <v>19.909843442125307</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="8"/>
+        <v>0.67938461538461559</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="9"/>
+        <v>0.51999999999999991</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>55</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>495.00000000000006</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D62" s="47">
+        <f t="shared" si="2"/>
+        <v>234</v>
+      </c>
+      <c r="E62" s="47">
+        <f t="shared" si="3"/>
+        <v>0.45</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="4"/>
+        <v>13.477432483900213</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="5"/>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="6"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="7"/>
+        <v>19.569504237986415</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="8"/>
+        <v>0.68869565217391326</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="9"/>
+        <v>0.51111111111111107</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>56</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>504.00000000000006</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D63" s="47">
+        <f t="shared" si="2"/>
+        <v>228.8</v>
+      </c>
+      <c r="E63" s="47">
+        <f t="shared" si="3"/>
+        <v>0.44</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="4"/>
+        <v>13.417532783971769</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="5"/>
+        <v>0.98560000000000025</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="6"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="7"/>
+        <v>19.229165033847522</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="8"/>
+        <v>0.69776991150442502</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="9"/>
+        <v>0.50222222222222224</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>57</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>513</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D64" s="47">
+        <f t="shared" si="2"/>
+        <v>223.6</v>
+      </c>
+      <c r="E64" s="47">
+        <f t="shared" si="3"/>
+        <v>0.43</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="4"/>
+        <v>13.346742229510875</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="5"/>
+        <v>0.98039999999999994</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="6"/>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="7"/>
+        <v>18.88882582970863</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="8"/>
+        <v>0.70659459459459451</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="9"/>
+        <v>0.4933333333333334</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>58</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D65" s="47">
+        <f t="shared" si="2"/>
+        <v>218.4</v>
+      </c>
+      <c r="E65" s="47">
+        <f t="shared" si="3"/>
+        <v>0.42</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="4"/>
+        <v>13.265060820517542</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="5"/>
+        <v>0.97440000000000004</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="6"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="7"/>
+        <v>18.548486625569737</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="8"/>
+        <v>0.71515596330275222</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="9"/>
+        <v>0.48444444444444457</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="10"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>59</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>531</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>0.59</v>
+      </c>
+      <c r="D66" s="47">
+        <f t="shared" si="2"/>
+        <v>213.20000000000002</v>
+      </c>
+      <c r="E66" s="47">
+        <f t="shared" si="3"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="4"/>
+        <v>13.172488556991762</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="5"/>
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="6"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="7"/>
+        <v>18.208147421430841</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="8"/>
+        <v>0.72343925233644868</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="9"/>
+        <v>0.47555555555555562</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="10"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>60</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="D67" s="47">
+        <f t="shared" si="2"/>
+        <v>208</v>
+      </c>
+      <c r="E67" s="47">
+        <f t="shared" si="3"/>
+        <v>0.4</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="4"/>
+        <v>13.06902543893354</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="5"/>
+        <v>0.96000000000000019</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="7"/>
+        <v>17.867808217291945</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="8"/>
+        <v>0.73142857142857165</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="9"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>61</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>549</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0.61</v>
+      </c>
+      <c r="D68" s="47">
+        <f t="shared" si="2"/>
+        <v>202.8</v>
+      </c>
+      <c r="E68" s="47">
+        <f t="shared" si="3"/>
+        <v>0.39</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
+        <v>12.954671466342869</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="5"/>
+        <v>0.9516</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="6"/>
+        <v>0.39</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="7"/>
+        <v>17.527469013153052</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="8"/>
+        <v>0.73910679611650487</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="9"/>
+        <v>0.45777777777777784</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="10"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>62</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>558</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0.62</v>
+      </c>
+      <c r="D69" s="47">
+        <f t="shared" si="2"/>
+        <v>197.6</v>
+      </c>
+      <c r="E69" s="47">
+        <f t="shared" si="3"/>
+        <v>0.38</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
+        <v>12.829426639219758</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="5"/>
+        <v>0.94240000000000013</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="6"/>
+        <v>0.38</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="7"/>
+        <v>17.187129809014159</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="8"/>
+        <v>0.74645544554455445</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="9"/>
+        <v>0.448888888888889</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="10"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>63</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>567</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0.63</v>
+      </c>
+      <c r="D70" s="47">
+        <f t="shared" si="2"/>
+        <v>192.4</v>
+      </c>
+      <c r="E70" s="47">
+        <f t="shared" si="3"/>
+        <v>0.37</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
+        <v>12.6932909575642</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="5"/>
+        <v>0.93240000000000001</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="6"/>
+        <v>0.37</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="7"/>
+        <v>16.84679060487526</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="8"/>
+        <v>0.75345454545454571</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="9"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="10"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>576</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0.64</v>
+      </c>
+      <c r="D71" s="47">
+        <f t="shared" si="2"/>
+        <v>187.20000000000002</v>
+      </c>
+      <c r="E71" s="47">
+        <f t="shared" si="3"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
+        <v>12.546264421376199</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="5"/>
+        <v>0.9216000000000002</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="6"/>
+        <v>0.36</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="7"/>
+        <v>16.506451400736367</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="8"/>
+        <v>0.76008247422680442</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="9"/>
+        <v>0.43111111111111111</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="10"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>65</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ref="B72:B107" si="11">A72*0.01*$B$5</f>
+        <v>585</v>
+      </c>
+      <c r="C72">
+        <f t="shared" ref="C72:C107" si="12">B72/$B$5</f>
+        <v>0.65</v>
+      </c>
+      <c r="D72" s="47">
+        <f t="shared" ref="D72:D107" si="13">(100-A72)*$B$3*0.01</f>
+        <v>182</v>
+      </c>
+      <c r="E72" s="47">
+        <f t="shared" ref="E72:E107" si="14">D72/$B$3</f>
+        <v>0.35</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F107" si="15">C72*D72*PI()*2/60</f>
+        <v>12.388347030655751</v>
+      </c>
+      <c r="G72">
+        <f t="shared" ref="G72:G108" si="16">F72/$F$108</f>
+        <v>0.91000000000000014</v>
+      </c>
+      <c r="H72">
+        <f t="shared" ref="H72:H107" si="17">1-C72</f>
+        <v>0.35</v>
+      </c>
+      <c r="I72">
+        <f t="shared" ref="I72:I107" si="18">$E$5*H72 + $E$3</f>
+        <v>16.166112196597474</v>
+      </c>
+      <c r="J72">
+        <f t="shared" ref="J72:J107" si="19">F72/I72</f>
+        <v>0.76631578947368439</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ref="K72:K107" si="20">I72/$E$4</f>
+        <v>0.42222222222222228</v>
+      </c>
+      <c r="L72">
+        <f t="shared" ref="L72:L107" si="21">A72</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>66</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="11"/>
+        <v>594</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="12"/>
+        <v>0.66</v>
+      </c>
+      <c r="D73" s="47">
+        <f t="shared" si="13"/>
+        <v>176.8</v>
+      </c>
+      <c r="E73" s="47">
+        <f t="shared" si="14"/>
+        <v>0.34</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="15"/>
+        <v>12.219538785402863</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="16"/>
+        <v>0.89760000000000029</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="17"/>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="18"/>
+        <v>15.825772992458578</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="19"/>
+        <v>0.77212903225806495</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="20"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>67</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="11"/>
+        <v>603</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="12"/>
+        <v>0.67</v>
+      </c>
+      <c r="D74" s="47">
+        <f t="shared" si="13"/>
+        <v>171.6</v>
+      </c>
+      <c r="E74" s="47">
+        <f t="shared" si="14"/>
+        <v>0.33</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="15"/>
+        <v>12.039839685617524</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="16"/>
+        <v>0.88440000000000019</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="17"/>
+        <v>0.32999999999999996</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="18"/>
+        <v>15.485433788319684</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="19"/>
+        <v>0.77749450549450583</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="20"/>
+        <v>0.40444444444444444</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>68</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="11"/>
+        <v>612</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="12"/>
+        <v>0.68</v>
+      </c>
+      <c r="D75" s="47">
+        <f t="shared" si="13"/>
+        <v>166.4</v>
+      </c>
+      <c r="E75" s="47">
+        <f t="shared" si="14"/>
+        <v>0.32</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="15"/>
+        <v>11.849249731299745</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="16"/>
+        <v>0.87040000000000028</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="17"/>
+        <v>0.31999999999999995</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="18"/>
+        <v>15.145094584180789</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="19"/>
+        <v>0.78238202247191058</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="20"/>
+        <v>0.39555555555555549</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="21"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>69</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="11"/>
+        <v>621</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="12"/>
+        <v>0.69</v>
+      </c>
+      <c r="D76" s="47">
+        <f t="shared" si="13"/>
+        <v>161.20000000000002</v>
+      </c>
+      <c r="E76" s="47">
+        <f t="shared" si="14"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="15"/>
+        <v>11.647768922449519</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="16"/>
+        <v>0.85560000000000025</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="17"/>
+        <v>0.31000000000000005</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="18"/>
+        <v>14.804755380041899</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="19"/>
+        <v>0.78675862068965541</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="20"/>
+        <v>0.38666666666666671</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="21"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>70</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="11"/>
+        <v>630.00000000000011</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="12"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="D77" s="47">
+        <f t="shared" si="13"/>
+        <v>156</v>
+      </c>
+      <c r="E77" s="47">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="15"/>
+        <v>11.435397259066852</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="16"/>
+        <v>0.84000000000000041</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="17"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="18"/>
+        <v>14.464416175902997</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="19"/>
+        <v>0.79058823529411848</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="20"/>
+        <v>0.37777777777777766</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>71</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="11"/>
+        <v>639</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="12"/>
+        <v>0.71</v>
+      </c>
+      <c r="D78" s="47">
+        <f t="shared" si="13"/>
+        <v>150.80000000000001</v>
+      </c>
+      <c r="E78" s="47">
+        <f t="shared" si="14"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="15"/>
+        <v>11.212134741151733</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="16"/>
+        <v>0.82360000000000011</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="17"/>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="18"/>
+        <v>14.12407697176411</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="19"/>
+        <v>0.79383132530120493</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="20"/>
+        <v>0.36888888888888893</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>72</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="11"/>
+        <v>648</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="12"/>
+        <v>0.72</v>
+      </c>
+      <c r="D79" s="47">
+        <f t="shared" si="13"/>
+        <v>145.6</v>
+      </c>
+      <c r="E79" s="47">
+        <f t="shared" si="14"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="15"/>
+        <v>10.977981368704173</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="16"/>
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="17"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="18"/>
+        <v>13.783737767625215</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="19"/>
+        <v>0.79644444444444451</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="20"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="21"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>73</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="11"/>
+        <v>657</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="12"/>
+        <v>0.73</v>
+      </c>
+      <c r="D80" s="47">
+        <f t="shared" si="13"/>
+        <v>140.4</v>
+      </c>
+      <c r="E80" s="47">
+        <f t="shared" si="14"/>
+        <v>0.27</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="15"/>
+        <v>10.73293714172417</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="16"/>
+        <v>0.7884000000000001</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="17"/>
+        <v>0.27</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="18"/>
+        <v>13.443398563486321</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="19"/>
+        <v>0.79837974683544322</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="20"/>
+        <v>0.35111111111111115</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="21"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="11"/>
+        <v>666</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="12"/>
+        <v>0.74</v>
+      </c>
+      <c r="D81" s="47">
+        <f t="shared" si="13"/>
+        <v>135.19999999999999</v>
+      </c>
+      <c r="E81" s="47">
+        <f t="shared" si="14"/>
+        <v>0.25999999999999995</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="15"/>
+        <v>10.477002060211721</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="16"/>
+        <v>0.76960000000000006</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="17"/>
+        <v>0.26</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="18"/>
+        <v>13.103059359347426</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="19"/>
+        <v>0.79958441558441573</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="20"/>
+        <v>0.34222222222222226</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="21"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="11"/>
+        <v>675</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="D82" s="47">
+        <f t="shared" si="13"/>
+        <v>130</v>
+      </c>
+      <c r="E82" s="47">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="15"/>
+        <v>10.210176124166827</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="18"/>
+        <v>12.762720155208532</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="19"/>
+        <v>0.8</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>76</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="11"/>
+        <v>684</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="12"/>
+        <v>0.76</v>
+      </c>
+      <c r="D83" s="47">
+        <f t="shared" si="13"/>
+        <v>124.8</v>
+      </c>
+      <c r="E83" s="47">
+        <f t="shared" si="14"/>
+        <v>0.24</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="15"/>
+        <v>9.93245933358949</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="16"/>
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="17"/>
+        <v>0.24</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="18"/>
+        <v>12.422380951069638</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="19"/>
+        <v>0.79956164383561656</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="20"/>
+        <v>0.32444444444444448</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="11"/>
+        <v>693</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="12"/>
+        <v>0.77</v>
+      </c>
+      <c r="D84" s="47">
+        <f t="shared" si="13"/>
+        <v>119.60000000000001</v>
+      </c>
+      <c r="E84" s="47">
+        <f t="shared" si="14"/>
+        <v>0.23</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="15"/>
+        <v>9.6438516884797085</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="16"/>
+        <v>0.70840000000000014</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="17"/>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="18"/>
+        <v>12.082041746930743</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="19"/>
+        <v>0.79819718309859178</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="20"/>
+        <v>0.31555555555555553</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="21"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="11"/>
+        <v>702</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="12"/>
+        <v>0.78</v>
+      </c>
+      <c r="D85" s="47">
+        <f t="shared" si="13"/>
+        <v>114.4</v>
+      </c>
+      <c r="E85" s="47">
+        <f t="shared" si="14"/>
+        <v>0.22</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="15"/>
+        <v>9.3443531888374824</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="16"/>
+        <v>0.68640000000000023</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="17"/>
+        <v>0.21999999999999997</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="18"/>
+        <v>11.741702542791849</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="19"/>
+        <v>0.79582608695652213</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="20"/>
+        <v>0.30666666666666664</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>79</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="11"/>
+        <v>711</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="12"/>
+        <v>0.79</v>
+      </c>
+      <c r="D86" s="47">
+        <f t="shared" si="13"/>
+        <v>109.2</v>
+      </c>
+      <c r="E86" s="47">
+        <f t="shared" si="14"/>
+        <v>0.21</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="15"/>
+        <v>9.0339638346628099</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="16"/>
+        <v>0.66360000000000008</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="17"/>
+        <v>0.20999999999999996</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="18"/>
+        <v>11.401363338652954</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="19"/>
+        <v>0.79235820895522413</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="20"/>
+        <v>0.29777777777777775</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="21"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="11"/>
+        <v>720</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="D87" s="47">
+        <f t="shared" si="13"/>
+        <v>104</v>
+      </c>
+      <c r="E87" s="47">
+        <f t="shared" si="14"/>
+        <v>0.2</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="15"/>
+        <v>8.7126836259556928</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="16"/>
+        <v>0.64</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="17"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="18"/>
+        <v>11.06102413451406</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="19"/>
+        <v>0.78769230769230791</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="20"/>
+        <v>0.28888888888888886</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="21"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>81</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="11"/>
+        <v>729</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="12"/>
+        <v>0.81</v>
+      </c>
+      <c r="D88" s="47">
+        <f t="shared" si="13"/>
+        <v>98.8</v>
+      </c>
+      <c r="E88" s="47">
+        <f t="shared" si="14"/>
+        <v>0.19</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="15"/>
+        <v>8.3805125627161328</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="16"/>
+        <v>0.61560000000000015</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="17"/>
+        <v>0.18999999999999995</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="18"/>
+        <v>10.720684930375164</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="19"/>
+        <v>0.78171428571428614</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="20"/>
+        <v>0.27999999999999992</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="21"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>82</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="11"/>
+        <v>738</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="12"/>
+        <v>0.82</v>
+      </c>
+      <c r="D89" s="47">
+        <f t="shared" si="13"/>
+        <v>93.600000000000009</v>
+      </c>
+      <c r="E89" s="47">
+        <f t="shared" si="14"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="15"/>
+        <v>8.0374506449441263</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="16"/>
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="17"/>
+        <v>0.18000000000000005</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="18"/>
+        <v>10.380345726236275</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="19"/>
+        <v>0.77429508196721308</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="20"/>
+        <v>0.27111111111111119</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="21"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>83</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="11"/>
+        <v>747.00000000000011</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="12"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="D90" s="47">
+        <f t="shared" si="13"/>
+        <v>88.4</v>
+      </c>
+      <c r="E90" s="47">
+        <f t="shared" si="14"/>
+        <v>0.17</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="15"/>
+        <v>7.6834978726396779</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="16"/>
+        <v>0.56440000000000012</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="17"/>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="18"/>
+        <v>10.040006522097375</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="19"/>
+        <v>0.76528813559322084</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="20"/>
+        <v>0.26222222222222213</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="21"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>84</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="11"/>
+        <v>756</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="12"/>
+        <v>0.84</v>
+      </c>
+      <c r="D91" s="47">
+        <f t="shared" si="13"/>
+        <v>83.2</v>
+      </c>
+      <c r="E91" s="47">
+        <f t="shared" si="14"/>
+        <v>0.16</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="15"/>
+        <v>7.3186542458027821</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="16"/>
+        <v>0.53760000000000008</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="17"/>
+        <v>0.16000000000000003</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="18"/>
+        <v>9.699667317958486</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="19"/>
+        <v>0.75452631578947371</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="20"/>
+        <v>0.25333333333333341</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="21"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>85</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="11"/>
+        <v>765</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="12"/>
+        <v>0.85</v>
+      </c>
+      <c r="D92" s="47">
+        <f t="shared" si="13"/>
+        <v>78</v>
+      </c>
+      <c r="E92" s="47">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="15"/>
+        <v>6.9429197644334426</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="16"/>
+        <v>0.51</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="17"/>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="18"/>
+        <v>9.3593281138195898</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="19"/>
+        <v>0.74181818181818193</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="20"/>
+        <v>0.24444444444444444</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="21"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>86</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="11"/>
+        <v>774</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="12"/>
+        <v>0.86</v>
+      </c>
+      <c r="D93" s="47">
+        <f t="shared" si="13"/>
+        <v>72.8</v>
+      </c>
+      <c r="E93" s="47">
+        <f t="shared" si="14"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="15"/>
+        <v>6.5562944285316584</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="16"/>
+        <v>0.48160000000000003</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="17"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="18"/>
+        <v>9.0189889096806972</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="19"/>
+        <v>0.72694339622641513</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="20"/>
+        <v>0.2355555555555556</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="21"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>87</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="11"/>
+        <v>783</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="12"/>
+        <v>0.87</v>
+      </c>
+      <c r="D94" s="47">
+        <f t="shared" si="13"/>
+        <v>67.599999999999994</v>
+      </c>
+      <c r="E94" s="47">
+        <f t="shared" si="14"/>
+        <v>0.12999999999999998</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="15"/>
+        <v>6.1587782380974296</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="16"/>
+        <v>0.45239999999999997</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="17"/>
+        <v>0.13</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="18"/>
+        <v>8.678649705541801</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="19"/>
+        <v>0.70964705882352952</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="20"/>
+        <v>0.22666666666666666</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="21"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>88</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="11"/>
+        <v>792</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="12"/>
+        <v>0.88</v>
+      </c>
+      <c r="D95" s="47">
+        <f t="shared" si="13"/>
+        <v>62.4</v>
+      </c>
+      <c r="E95" s="47">
+        <f t="shared" si="14"/>
+        <v>0.12</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="15"/>
+        <v>5.7503711931307571</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="16"/>
+        <v>0.4224</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="17"/>
+        <v>0.12</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="18"/>
+        <v>8.3383105014029084</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="19"/>
+        <v>0.68963265306122457</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="20"/>
+        <v>0.21777777777777782</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="21"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>89</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="11"/>
+        <v>801</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="12"/>
+        <v>0.89</v>
+      </c>
+      <c r="D96" s="47">
+        <f t="shared" si="13"/>
+        <v>57.2</v>
+      </c>
+      <c r="E96" s="47">
+        <f t="shared" si="14"/>
+        <v>0.11</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="15"/>
+        <v>5.331073293631639</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="16"/>
+        <v>0.3916</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="17"/>
+        <v>0.10999999999999999</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="18"/>
+        <v>7.9979712972640131</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="19"/>
+        <v>0.66655319148936176</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="20"/>
+        <v>0.2088888888888889</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="21"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>90</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="11"/>
+        <v>810</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="D97" s="47">
+        <f t="shared" si="13"/>
+        <v>52</v>
+      </c>
+      <c r="E97" s="47">
+        <f t="shared" si="14"/>
+        <v>0.1</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="15"/>
+        <v>4.9008845396000771</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="16"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="17"/>
+        <v>9.9999999999999978E-2</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="18"/>
+        <v>7.6576320931251178</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="19"/>
+        <v>0.64000000000000024</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="20"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>91</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="11"/>
+        <v>819</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="12"/>
+        <v>0.91</v>
+      </c>
+      <c r="D98" s="47">
+        <f t="shared" si="13"/>
+        <v>46.800000000000004</v>
+      </c>
+      <c r="E98" s="47">
+        <f t="shared" si="14"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="15"/>
+        <v>4.4598049310360715</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="16"/>
+        <v>0.32760000000000011</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="17"/>
+        <v>8.9999999999999969E-2</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="18"/>
+        <v>7.3172928889862234</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="19"/>
+        <v>0.60948837209302364</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="20"/>
+        <v>0.19111111111111106</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="21"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>92</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="11"/>
+        <v>828</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="12"/>
+        <v>0.92</v>
+      </c>
+      <c r="D99" s="47">
+        <f t="shared" si="13"/>
+        <v>41.6</v>
+      </c>
+      <c r="E99" s="47">
+        <f t="shared" si="14"/>
+        <v>0.08</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="15"/>
+        <v>4.0078344679396194</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="16"/>
+        <v>0.29440000000000005</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="17"/>
+        <v>7.999999999999996E-2</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="18"/>
+        <v>6.976953684847329</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="19"/>
+        <v>0.5744390243902443</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="20"/>
+        <v>0.18222222222222217</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="21"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>93</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="11"/>
+        <v>837</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="12"/>
+        <v>0.93</v>
+      </c>
+      <c r="D100" s="47">
+        <f t="shared" si="13"/>
+        <v>36.4</v>
+      </c>
+      <c r="E100" s="47">
+        <f t="shared" si="14"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="15"/>
+        <v>3.5449731503107231</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="16"/>
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="17"/>
+        <v>6.9999999999999951E-2</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="18"/>
+        <v>6.6366144807084346</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="19"/>
+        <v>0.53415384615384653</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="20"/>
+        <v>0.17333333333333328</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="21"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>94</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="11"/>
+        <v>846</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="12"/>
+        <v>0.94</v>
+      </c>
+      <c r="D101" s="47">
+        <f t="shared" si="13"/>
+        <v>31.2</v>
+      </c>
+      <c r="E101" s="47">
+        <f t="shared" si="14"/>
+        <v>0.06</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="15"/>
+        <v>3.0712209781493818</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="16"/>
+        <v>0.22560000000000002</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="17"/>
+        <v>6.0000000000000053E-2</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="18"/>
+        <v>6.2962752765695438</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="19"/>
+        <v>0.48778378378378379</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="20"/>
+        <v>0.16444444444444448</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="21"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>95</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="11"/>
+        <v>855.00000000000011</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="12"/>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="D102" s="47">
+        <f t="shared" si="13"/>
+        <v>26</v>
+      </c>
+      <c r="E102" s="47">
+        <f t="shared" si="14"/>
+        <v>0.05</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="15"/>
+        <v>2.5865779514555967</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="16"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="17"/>
+        <v>4.9999999999999822E-2</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="18"/>
+        <v>5.9559360724306423</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="19"/>
+        <v>0.43428571428571489</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="20"/>
+        <v>0.15555555555555539</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="21"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>96</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="11"/>
+        <v>864</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="12"/>
+        <v>0.96</v>
+      </c>
+      <c r="D103" s="47">
+        <f t="shared" si="13"/>
+        <v>20.8</v>
+      </c>
+      <c r="E103" s="47">
+        <f t="shared" si="14"/>
+        <v>0.04</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="15"/>
+        <v>2.0910440702293664</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="16"/>
+        <v>0.15360000000000001</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="17"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="18"/>
+        <v>5.615596868291755</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="19"/>
+        <v>0.3723636363636364</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="20"/>
+        <v>0.1466666666666667</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="21"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>97</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="11"/>
+        <v>873</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="12"/>
+        <v>0.97</v>
+      </c>
+      <c r="D104" s="47">
+        <f t="shared" si="13"/>
+        <v>15.6</v>
+      </c>
+      <c r="E104" s="47">
+        <f t="shared" si="14"/>
+        <v>0.03</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="15"/>
+        <v>1.5846193344706916</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="16"/>
+        <v>0.1164</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="17"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="18"/>
+        <v>5.2752576641528606</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="19"/>
+        <v>0.30038709677419356</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="20"/>
+        <v>0.1377777777777778</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="21"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>98</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="11"/>
+        <v>882</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="12"/>
+        <v>0.98</v>
+      </c>
+      <c r="D105" s="47">
+        <f t="shared" si="13"/>
+        <v>10.4</v>
+      </c>
+      <c r="E105" s="47">
+        <f t="shared" si="14"/>
+        <v>0.02</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="15"/>
+        <v>1.0673037441795723</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="16"/>
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="17"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="18"/>
+        <v>4.9349184600139662</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="19"/>
+        <v>0.21627586206896551</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="20"/>
+        <v>0.12888888888888891</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="21"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>99</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="11"/>
+        <v>891</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="12"/>
+        <v>0.99</v>
+      </c>
+      <c r="D106" s="47">
+        <f t="shared" si="13"/>
+        <v>5.2</v>
+      </c>
+      <c r="E106" s="47">
+        <f t="shared" si="14"/>
+        <v>0.01</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="15"/>
+        <v>0.53909729935600847</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="16"/>
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="17"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="18"/>
+        <v>4.5945792558750718</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="19"/>
+        <v>0.11733333333333335</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="20"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="21"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>100</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="11"/>
+        <v>900</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="D107" s="47">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="47">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="18"/>
+        <v>4.2542400517361774</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="20"/>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <f>LARGE(F7:F107,1)</f>
+        <v>13.613568165555769</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <f>LARGE(I7:I107,1)</f>
+        <v>38.288160465625594</v>
+      </c>
+      <c r="J108">
+        <f>LARGE(J7:J107,1)</f>
+        <v>0.8</v>
+      </c>
+      <c r="K108">
+        <f t="shared" ref="K72:K108" si="22">H108*0.25</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/PartBalance.xlsx
+++ b/Resources/PartBalance.xlsx
@@ -1,23 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="BaseStats" sheetId="1" r:id="rId1"/>
     <sheet name="ScaledStats" sheetId="2" r:id="rId2"/>
     <sheet name="Graph" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">Sheet2!$C$21:$C$22</definedName>
+    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Sheet2!$F$21:$F$31</definedName>
+    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">Sheet2!$C$21</definedName>
+    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Sheet2!$D$21:$D$31</definedName>
+    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
   <si>
     <t>Repulsor</t>
   </si>
@@ -285,14 +318,45 @@
   <si>
     <t>what are the relationships between these values?</t>
   </si>
+  <si>
+    <t>&lt;---wtf is up with this?</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>yhat</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>mgc from solver</t>
+  </si>
+  <si>
+    <t>{{0.001,3.7585},{0.05,2.6715},{0.1,2.309},{0.15,2.0784},{0.2,1.9098},{0.25,1.7776},{0.3,1.6697},{0.35,1.579},{0.4,1.501},{0.45,1.4328},{0.5,1.3725}}</t>
+  </si>
+  <si>
+    <t>mgc from wolfram</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -857,7 +921,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -994,6 +1058,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1018,18 +1097,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2736,11 +2803,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130212544"/>
-        <c:axId val="130209800"/>
+        <c:axId val="152999808"/>
+        <c:axId val="153001344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130212544"/>
+        <c:axId val="152999808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,12 +2864,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130209800"/>
+        <c:crossAx val="153001344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130209800"/>
+        <c:axId val="153001344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2926,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130212544"/>
+        <c:crossAx val="152999808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4547,301 +4614,301 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.6530179148062315E-3</c:v>
+                  <c:v>2.0582353974546733E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.728823456253269E-2</c:v>
+                  <c:v>4.1080194711126207E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.5905155971739344E-2</c:v>
+                  <c:v>6.1491444015362169E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4503269723919948E-2</c:v>
+                  <c:v>8.1813954992237869E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3082044084268474E-2</c:v>
+                  <c:v>0.10204550918356921</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1640927082827852E-2</c:v>
+                  <c:v>0.12218381356114935</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.0179345542684122E-2</c:v>
+                  <c:v>0.14222649736700138</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8696704051612129E-2</c:v>
+                  <c:v>0.16217110879159394</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7192383873295148E-2</c:v>
+                  <c:v>0.1820151114802393</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.566574179393581E-2</c:v>
+                  <c:v>0.20175588085721691</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.4116108899740383E-2</c:v>
+                  <c:v>0.22139070025643051</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.10254278928039431</c:v>
+                  <c:v>0.24091675684661182</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11094505865324863</c:v>
+                  <c:v>0.26033113733823338</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11932216290250172</c:v>
+                  <c:v>0.27963082345836099</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.12767331652718567</c:v>
+                  <c:v>0.2988126871786812</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.13599770099124517</c:v>
+                  <c:v>0.31787348568085072</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14429446296842649</c:v>
+                  <c:v>0.33680985604214309</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.152562712474069</c:v>
+                  <c:v>0.35561830962309454</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.16080152087520327</c:v>
+                  <c:v>0.37429522613746891</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1690099187696078</c:v>
+                  <c:v>0.39283684738336427</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.17718689372364294</c:v>
+                  <c:v>0.41123927061265109</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.18533138785777004</c:v>
+                  <c:v>0.42949844151416616</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.19344229526765433</c:v>
+                  <c:v>0.4476101467841514</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2015184592676395</c:v>
+                  <c:v>0.46557000625533373</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20955866944215484</c:v>
+                  <c:v>0.48337346455374897</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.21756165848925815</c:v>
+                  <c:v>0.50101578224991949</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.22552609883901545</c:v>
+                  <c:v>0.51849202646826642</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.23345059902775236</c:v>
+                  <c:v>0.53579706091566071</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.24133369980736674</c:v>
+                  <c:v>0.55292553528676069</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.24917386996683616</c:v>
+                  <c:v>0.56987187400020933</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.25696950184077377</c:v>
+                  <c:v>0.58663026421586906</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.2647189064773407</c:v>
+                  <c:v>0.60319464307897219</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.27242030843498788</c:v>
+                  <c:v>0.61955868413237059</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.28007184017433345</c:v>
+                  <c:v>0.63571578283288666</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.28767153600794104</c:v>
+                  <c:v>0.65165904110209139</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2952173255667942</c:v>
+                  <c:v>0.66738125083555822</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.30270702673782207</c:v>
+                  <c:v>0.68287487628775101</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.31013833802182816</c:v>
+                  <c:v>0.69813203524207368</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.31750883025556198</c:v>
+                  <c:v>0.71314447886720567</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.32481593763533995</c:v>
+                  <c:v>0.72790357015152796</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3320569479724827</c:v>
+                  <c:v>0.74240026079715471</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.33922899210276025</c:v>
+                  <c:v>0.75662506644365157</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.3463290323629008</c:v>
+                  <c:v>0.77056804007885449</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.35335385003685549</c:v>
+                  <c:v>0.78421874348012355</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.36030003166273</c:v>
+                  <c:v>0.79756621651368564</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.36716395407789959</c:v>
+                  <c:v>0.81059894410228672</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.37394176806453233</c:v>
+                  <c:v>0.82330482065188981</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.38062938044028566</c:v>
+                  <c:v>0.83567111170642927</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.38722243441894549</c:v>
+                  <c:v>0.84768441257531135</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.39371628804283632</c:v>
+                  <c:v>0.85933060365110925</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.40010599046245948</c:v>
+                  <c:v>0.87059480210437379</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.4063862558084253</c:v>
+                  <c:v>0.8814613096081515</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.41255143436565045</c:v>
+                  <c:v>0.891913555706214</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.41859548071916186</c:v>
+                  <c:v>0.9019340363955024</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.42451191849371173</c:v>
+                  <c:v>0.91150424744421243</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.43029380125455796</c:v>
+                  <c:v>0.92060461191144938</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.43593366907280945</c:v>
+                  <c:v>0.92921440127155985</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.44142350018392651</c:v>
+                  <c:v>0.93731164947497114</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.4467546570802487</c:v>
+                  <c:v>0.94487305919637898</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.45191782627525551</c:v>
+                  <c:v>0.9518738994289212</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.45690295085556465</c:v>
+                  <c:v>0.95828789347780752</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.46169915479267631</c:v>
+                  <c:v>0.96408709628667322</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.46629465781553647</c:v>
+                  <c:v>0.96924175989229144</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.47067667944139824</c:v>
+                  <c:v>0.9737201856453227</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.47483133051913146</c:v>
+                  <c:v>0.97748856165313691</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.4787434903472596</c:v>
+                  <c:v>0.98051078369140132</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.48239666707757284</c:v>
+                  <c:v>0.9827482575892772</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.4857728386903778</c:v>
+                  <c:v>0.98415968081305982</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.48885227131186781</c:v>
+                  <c:v>0.98470080064806564</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.49161331101564981</c:v>
+                  <c:v>0.98432414600036189</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.49403214448100846</c:v>
+                  <c:v>0.9829787293986858</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.49608252293397359</c:v>
+                  <c:v>0.98060971526073737</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.49773544262721481</c:v>
+                  <c:v>0.97715804988250177</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.49895877366099323</c:v>
+                  <c:v>0.97256004789690242</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.49971682713129228</c:v>
+                  <c:v>0.96674692910749793</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.49996984830958663</c:v>
+                  <c:v>0.95964429860793277</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.49967342067508097</c:v>
+                  <c:v>0.95117156191632157</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.49877776195279039</c:v>
+                  <c:v>0.94124126544593856</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.49722688861548242</c:v>
+                  <c:v>0.92975835095034176</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.49495761925385129</c:v>
+                  <c:v>0.91661931056118318</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.49189837935624914</c:v>
+                  <c:v>0.90171122660390257</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.4879677597453046</c:v>
+                  <c:v>0.88491067743421226</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.48307276732908011</c:v>
+                  <c:v>0.86608248696551104</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.47710668872338463</c:v>
+                  <c:v>0.84507829120031042</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.46994646296176845</c:v>
+                  <c:v>0.82173488974137321</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.46144942644595788</c:v>
+                  <c:v>0.79587234368918136</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.45144924788395635</c:v>
+                  <c:v>0.7672917732074247</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.43975080787553716</c:v>
+                  <c:v>0.73577279793694983</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.42612368903852299</c:v>
+                  <c:v>0.70107055081202985</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.41029381596042941</c:v>
+                  <c:v>0.66291217995942708</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.39193260099203459</c:v>
+                  <c:v>0.62099273328552229</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.3706426823249771</c:v>
+                  <c:v>0.57497029480656048</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.34593893726070557</c:v>
+                  <c:v>0.52446020904081769</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.31722283779451393</c:v>
+                  <c:v>0.46902818754118625</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.28374725586535449</c:v>
+                  <c:v>0.408182036734277</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.24456729421955006</c:v>
+                  <c:v>0.34136167427795788</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.19847021071261714</c:v>
+                  <c:v>0.26792700606693509</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.14387327407124664</c:v>
+                  <c:v>0.18714310923957489</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>7.8671016087825452E-2</c:v>
+                  <c:v>9.816199587860748E-2</c:v>
                 </c:pt>
                 <c:pt idx="100">
                   <c:v>0</c:v>
@@ -4859,11 +4926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="130213328"/>
-        <c:axId val="130206272"/>
+        <c:axId val="152744704"/>
+        <c:axId val="152746240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="130213328"/>
+        <c:axId val="152744704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4920,12 +4987,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130206272"/>
+        <c:crossAx val="152746240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="130206272"/>
+        <c:axId val="152746240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4982,7 +5049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="130213328"/>
+        <c:crossAx val="152744704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5292,11 +5359,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="405946304"/>
-        <c:axId val="405944736"/>
+        <c:axId val="152688896"/>
+        <c:axId val="152690688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="405946304"/>
+        <c:axId val="152688896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5353,12 +5420,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405944736"/>
+        <c:crossAx val="152690688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="405944736"/>
+        <c:axId val="152690688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5415,7 +5482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="405946304"/>
+        <c:crossAx val="152688896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5456,6 +5523,382 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$5:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$5:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7585000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0783999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7776000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6697</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4328000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.3725000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="152786432"/>
+        <c:axId val="152787968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="152786432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152787968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="152787968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152786432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$21:$E$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$21:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>3.7585000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0783999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7776000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.579</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4328000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3725000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="152807680"/>
+        <c:axId val="198967296"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="152807680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="198967296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="198967296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4.5"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="152807680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -7236,6 +7679,73 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>123826</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7279,7 +7789,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7314,7 +7824,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7560,39 +8070,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="63" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="58" t="s">
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="79"/>
+      <c r="T1" s="79"/>
+      <c r="U1" s="79"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="60"/>
+      <c r="X1" s="75"/>
       <c r="Y1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="Z1" s="76" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7669,7 +8179,7 @@
       <c r="Y2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="62"/>
+      <c r="Z2" s="77"/>
       <c r="AA2" t="s">
         <v>48</v>
       </c>
@@ -14224,8 +14734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14266,7 +14776,7 @@
       </c>
       <c r="J1" s="55">
         <f>L108</f>
-        <v>0.49996984830958663</v>
+        <v>0.98470080064806564</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -14274,21 +14784,21 @@
         <v>68</v>
       </c>
       <c r="B2" s="56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>72</v>
       </c>
       <c r="F2">
         <f>1 / B2*F1</f>
-        <v>80504.93145468393</v>
+        <v>40252.465727341965</v>
       </c>
       <c r="I2" t="s">
         <v>69</v>
       </c>
       <c r="J2">
         <f>K108</f>
-        <v>185885.88672886521</v>
+        <v>78069.421237720715</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -14300,7 +14810,7 @@
       </c>
       <c r="G3">
         <f>J2/F2</f>
-        <v>2.3090000000000002</v>
+        <v>1.939494136</v>
       </c>
       <c r="K3" t="s">
         <v>81</v>
@@ -14311,9 +14821,9 @@
         <v>60</v>
       </c>
       <c r="B4" s="57">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="67"/>
+        <v>0.2</v>
+      </c>
+      <c r="D4" s="59"/>
       <c r="E4" t="s">
         <v>82</v>
       </c>
@@ -14321,14 +14831,15 @@
         <f>H89</f>
         <v>23765.055765422698</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="K4" s="68">
-        <v>2.3090000000000002</v>
+      <c r="K4" s="60">
+        <f>5.92824117*B4^2 + -5.904378534*B4 + 2.883240196</f>
+        <v>1.939494136</v>
       </c>
       <c r="L4" t="s">
         <v>83</v>
@@ -14422,7 +14933,7 @@
       </c>
       <c r="K7">
         <f>J7 * $F$2 * $K$4</f>
-        <v>185885.88672886521</v>
+        <v>78069.421237720715</v>
       </c>
       <c r="L7">
         <f>IFERROR(H7/K7,1)</f>
@@ -14467,15 +14978,15 @@
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J71" si="8">(100-A8) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.99099999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K71" si="9">J8 * $F$2 * $K$4</f>
-        <v>184212.91374830541</v>
+        <v>77444.865867818953</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L71" si="10">IFERROR(H8/K8,1)</f>
-        <v>8.6530179148062315E-3</v>
+        <v>2.0582353974546733E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -14516,15 +15027,15 @@
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
-        <v>0.98199999999999998</v>
+        <v>0.98399999999999999</v>
       </c>
       <c r="K9">
         <f t="shared" si="9"/>
-        <v>182539.94076774563</v>
+        <v>76820.310497917177</v>
       </c>
       <c r="L9">
         <f t="shared" si="10"/>
-        <v>1.728823456253269E-2</v>
+        <v>4.1080194711126207E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -14565,15 +15076,15 @@
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.97299999999999998</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="K10">
         <f t="shared" si="9"/>
-        <v>180866.96778718583</v>
+        <v>76195.755128015415</v>
       </c>
       <c r="L10">
         <f t="shared" si="10"/>
-        <v>2.5905155971739344E-2</v>
+        <v>6.1491444015362169E-2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -14614,15 +15125,15 @@
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>0.96399999999999997</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>179193.99480662603</v>
+        <v>75571.199758113653</v>
       </c>
       <c r="L11">
         <f t="shared" si="10"/>
-        <v>3.4503269723919948E-2</v>
+        <v>8.1813954992237869E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -14663,15 +15174,15 @@
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
-        <v>0.95500000000000007</v>
+        <v>0.96000000000000019</v>
       </c>
       <c r="K12">
         <f t="shared" si="9"/>
-        <v>177521.02182606628</v>
+        <v>74946.644388211906</v>
       </c>
       <c r="L12">
         <f t="shared" si="10"/>
-        <v>4.3082044084268474E-2</v>
+        <v>0.10204550918356921</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -14712,15 +15223,15 @@
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>0.94600000000000006</v>
+        <v>0.95200000000000018</v>
       </c>
       <c r="K13">
         <f t="shared" si="9"/>
-        <v>175848.04884550648</v>
+        <v>74322.089018310129</v>
       </c>
       <c r="L13">
         <f t="shared" si="10"/>
-        <v>5.1640927082827852E-2</v>
+        <v>0.12218381356114935</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -14761,15 +15272,15 @@
       </c>
       <c r="J14">
         <f t="shared" si="8"/>
-        <v>0.93700000000000006</v>
+        <v>0.94400000000000017</v>
       </c>
       <c r="K14">
         <f t="shared" si="9"/>
-        <v>174175.0758649467</v>
+        <v>73697.533648408367</v>
       </c>
       <c r="L14">
         <f t="shared" si="10"/>
-        <v>6.0179345542684122E-2</v>
+        <v>0.14222649736700138</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -14810,15 +15321,15 @@
       </c>
       <c r="J15">
         <f t="shared" si="8"/>
-        <v>0.92800000000000005</v>
+        <v>0.93600000000000017</v>
       </c>
       <c r="K15">
         <f t="shared" si="9"/>
-        <v>172502.10288438693</v>
+        <v>73072.978278506605</v>
       </c>
       <c r="L15">
         <f t="shared" si="10"/>
-        <v>6.8696704051612129E-2</v>
+        <v>0.16217110879159394</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -14859,15 +15370,15 @@
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
-        <v>0.91900000000000004</v>
+        <v>0.92800000000000016</v>
       </c>
       <c r="K16">
         <f t="shared" si="9"/>
-        <v>170829.12990382715</v>
+        <v>72448.422908604829</v>
       </c>
       <c r="L16">
         <f t="shared" si="10"/>
-        <v>7.7192383873295148E-2</v>
+        <v>0.1820151114802393</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -14908,15 +15419,15 @@
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
-        <v>0.91</v>
+        <v>0.92000000000000015</v>
       </c>
       <c r="K17">
         <f t="shared" si="9"/>
-        <v>169156.15692326735</v>
+        <v>71823.867538703082</v>
       </c>
       <c r="L17">
         <f t="shared" si="10"/>
-        <v>8.566574179393581E-2</v>
+        <v>0.20175588085721691</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -14957,15 +15468,15 @@
       </c>
       <c r="J18">
         <f t="shared" si="8"/>
-        <v>0.90100000000000002</v>
+        <v>0.91200000000000014</v>
       </c>
       <c r="K18">
         <f t="shared" si="9"/>
-        <v>167483.18394270758</v>
+        <v>71199.312168801305</v>
       </c>
       <c r="L18">
         <f t="shared" si="10"/>
-        <v>9.4116108899740383E-2</v>
+        <v>0.22139070025643051</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -15006,15 +15517,15 @@
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>0.89200000000000002</v>
+        <v>0.90400000000000014</v>
       </c>
       <c r="K19">
         <f t="shared" si="9"/>
-        <v>165810.21096214777</v>
+        <v>70574.756798899543</v>
       </c>
       <c r="L19">
         <f t="shared" si="10"/>
-        <v>0.10254278928039431</v>
+        <v>0.24091675684661182</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -15055,15 +15566,15 @@
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
-        <v>0.88300000000000001</v>
+        <v>0.89600000000000013</v>
       </c>
       <c r="K20">
         <f t="shared" si="9"/>
-        <v>164137.23798158797</v>
+        <v>69950.201428997767</v>
       </c>
       <c r="L20">
         <f t="shared" si="10"/>
-        <v>0.11094505865324863</v>
+        <v>0.26033113733823338</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -15104,15 +15615,15 @@
       </c>
       <c r="J21">
         <f t="shared" si="8"/>
-        <v>0.874</v>
+        <v>0.88800000000000012</v>
       </c>
       <c r="K21">
         <f t="shared" si="9"/>
-        <v>162464.26500102819</v>
+        <v>69325.646059096005</v>
       </c>
       <c r="L21">
         <f t="shared" si="10"/>
-        <v>0.11932216290250172</v>
+        <v>0.27963082345836099</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -15153,15 +15664,15 @@
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
-        <v>0.86499999999999999</v>
+        <v>0.88000000000000012</v>
       </c>
       <c r="K22">
         <f t="shared" si="9"/>
-        <v>160791.29202046839</v>
+        <v>68701.090689194229</v>
       </c>
       <c r="L22">
         <f t="shared" si="10"/>
-        <v>0.12767331652718567</v>
+        <v>0.2988126871786812</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -15202,15 +15713,15 @@
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
-        <v>0.85599999999999998</v>
+        <v>0.87200000000000011</v>
       </c>
       <c r="K23">
         <f t="shared" si="9"/>
-        <v>159118.31903990859</v>
+        <v>68076.535319292467</v>
       </c>
       <c r="L23">
         <f t="shared" si="10"/>
-        <v>0.13599770099124517</v>
+        <v>0.31787348568085072</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -15251,15 +15762,15 @@
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
-        <v>0.84700000000000009</v>
+        <v>0.8640000000000001</v>
       </c>
       <c r="K24">
         <f t="shared" si="9"/>
-        <v>157445.34605934884</v>
+        <v>67451.979949390705</v>
       </c>
       <c r="L24">
         <f t="shared" si="10"/>
-        <v>0.14429446296842649</v>
+        <v>0.33680985604214309</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -15300,15 +15811,15 @@
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
-        <v>0.83800000000000008</v>
+        <v>0.85600000000000009</v>
       </c>
       <c r="K25">
         <f t="shared" si="9"/>
-        <v>155772.37307878904</v>
+        <v>66827.424579488943</v>
       </c>
       <c r="L25">
         <f t="shared" si="10"/>
-        <v>0.152562712474069</v>
+        <v>0.35561830962309454</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -15349,15 +15860,15 @@
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
-        <v>0.82900000000000007</v>
+        <v>0.84800000000000009</v>
       </c>
       <c r="K26">
         <f t="shared" si="9"/>
-        <v>154099.40009822926</v>
+        <v>66202.869209587181</v>
       </c>
       <c r="L26">
         <f t="shared" si="10"/>
-        <v>0.16080152087520327</v>
+        <v>0.37429522613746891</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -15398,15 +15909,15 @@
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
-        <v>0.82000000000000006</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="K27">
         <f t="shared" si="9"/>
-        <v>152426.42711766946</v>
+        <v>65578.313839685405</v>
       </c>
       <c r="L27">
         <f t="shared" si="10"/>
-        <v>0.1690099187696078</v>
+        <v>0.39283684738336427</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -15447,15 +15958,15 @@
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
-        <v>0.81100000000000005</v>
+        <v>0.83200000000000007</v>
       </c>
       <c r="K28">
         <f t="shared" si="9"/>
-        <v>150753.45413710969</v>
+        <v>64953.758469783643</v>
       </c>
       <c r="L28">
         <f t="shared" si="10"/>
-        <v>0.17718689372364294</v>
+        <v>0.41123927061265109</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -15496,15 +16007,15 @@
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>0.80200000000000005</v>
+        <v>0.82400000000000007</v>
       </c>
       <c r="K29">
         <f t="shared" si="9"/>
-        <v>149080.48115654991</v>
+        <v>64329.203099881874</v>
       </c>
       <c r="L29">
         <f t="shared" si="10"/>
-        <v>0.18533138785777004</v>
+        <v>0.42949844151416616</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -15545,15 +16056,15 @@
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>0.79300000000000004</v>
+        <v>0.81600000000000006</v>
       </c>
       <c r="K30">
         <f t="shared" si="9"/>
-        <v>147407.50817599014</v>
+        <v>63704.647729980112</v>
       </c>
       <c r="L30">
         <f t="shared" si="10"/>
-        <v>0.19344229526765433</v>
+        <v>0.4476101467841514</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -15594,15 +16105,15 @@
       </c>
       <c r="J31">
         <f t="shared" si="8"/>
-        <v>0.78400000000000003</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="K31">
         <f t="shared" si="9"/>
-        <v>145734.53519543033</v>
+        <v>63080.092360078343</v>
       </c>
       <c r="L31">
         <f t="shared" si="10"/>
-        <v>0.2015184592676395</v>
+        <v>0.46557000625533373</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -15643,15 +16154,15 @@
       </c>
       <c r="J32">
         <f t="shared" si="8"/>
-        <v>0.77500000000000002</v>
+        <v>0.8</v>
       </c>
       <c r="K32">
         <f t="shared" si="9"/>
-        <v>144061.56221487053</v>
+        <v>62455.536990176581</v>
       </c>
       <c r="L32">
         <f t="shared" si="10"/>
-        <v>0.20955866944215484</v>
+        <v>0.48337346455374897</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -15692,15 +16203,15 @@
       </c>
       <c r="J33">
         <f t="shared" si="8"/>
-        <v>0.76600000000000001</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
-        <v>142388.58923431076</v>
+        <v>61830.981620274812</v>
       </c>
       <c r="L33">
         <f t="shared" si="10"/>
-        <v>0.21756165848925815</v>
+        <v>0.50101578224991949</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -15741,15 +16252,15 @@
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>0.75700000000000001</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="K34">
         <f t="shared" si="9"/>
-        <v>140715.61625375098</v>
+        <v>61206.426250373042</v>
       </c>
       <c r="L34">
         <f t="shared" si="10"/>
-        <v>0.22552609883901545</v>
+        <v>0.51849202646826642</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -15790,15 +16301,15 @@
       </c>
       <c r="J35">
         <f t="shared" si="8"/>
-        <v>0.748</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="K35">
         <f t="shared" si="9"/>
-        <v>139042.64327319118</v>
+        <v>60581.870880471281</v>
       </c>
       <c r="L35">
         <f t="shared" si="10"/>
-        <v>0.23345059902775236</v>
+        <v>0.53579706091566071</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -15839,15 +16350,15 @@
       </c>
       <c r="J36">
         <f t="shared" si="8"/>
-        <v>0.73899999999999999</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="K36">
         <f t="shared" si="9"/>
-        <v>137369.67029263137</v>
+        <v>59957.315510569511</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>0.24133369980736674</v>
+        <v>0.55292553528676069</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -15888,15 +16399,15 @@
       </c>
       <c r="J37">
         <f t="shared" si="8"/>
-        <v>0.73000000000000009</v>
+        <v>0.76</v>
       </c>
       <c r="K37">
         <f t="shared" si="9"/>
-        <v>135696.6973120716</v>
+        <v>59332.760140667742</v>
       </c>
       <c r="L37">
         <f t="shared" si="10"/>
-        <v>0.24917386996683616</v>
+        <v>0.56987187400020933</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -15937,15 +16448,15 @@
       </c>
       <c r="J38">
         <f t="shared" si="8"/>
-        <v>0.72100000000000009</v>
+        <v>0.752</v>
       </c>
       <c r="K38">
         <f t="shared" si="9"/>
-        <v>134023.72433151182</v>
+        <v>58708.204770765973</v>
       </c>
       <c r="L38">
         <f t="shared" si="10"/>
-        <v>0.25696950184077377</v>
+        <v>0.58663026421586906</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15986,15 +16497,15 @@
       </c>
       <c r="J39">
         <f t="shared" si="8"/>
-        <v>0.71200000000000008</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="K39">
         <f t="shared" si="9"/>
-        <v>132350.75135095205</v>
+        <v>58083.649400864211</v>
       </c>
       <c r="L39">
         <f t="shared" si="10"/>
-        <v>0.2647189064773407</v>
+        <v>0.60319464307897219</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -16035,29 +16546,29 @@
       </c>
       <c r="J40">
         <f t="shared" si="8"/>
-        <v>0.70300000000000007</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="K40">
         <f t="shared" si="9"/>
-        <v>130677.77837039225</v>
+        <v>57459.094030962442</v>
       </c>
       <c r="L40">
         <f t="shared" si="10"/>
-        <v>0.27242030843498788</v>
-      </c>
-      <c r="O40" s="69" t="s">
+        <v>0.61955868413237059</v>
+      </c>
+      <c r="O40" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="P40" s="70"/>
-      <c r="Q40" s="70" t="s">
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="R40" s="70"/>
-      <c r="S40" s="70" t="s">
+      <c r="R40" s="62"/>
+      <c r="S40" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="T40" s="70"/>
-      <c r="U40" s="71" t="s">
+      <c r="T40" s="62"/>
+      <c r="U40" s="63" t="s">
         <v>86</v>
       </c>
     </row>
@@ -16099,33 +16610,33 @@
       </c>
       <c r="J41">
         <f t="shared" si="8"/>
-        <v>0.69400000000000006</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="K41">
         <f t="shared" si="9"/>
-        <v>129004.80538983246</v>
+        <v>56834.538661060673</v>
       </c>
       <c r="L41">
         <f t="shared" si="10"/>
-        <v>0.28007184017433345</v>
-      </c>
-      <c r="O41" s="72">
+        <v>0.63571578283288666</v>
+      </c>
+      <c r="O41" s="64">
         <v>0</v>
       </c>
-      <c r="P41" s="73">
+      <c r="P41" s="65">
         <v>3.2</v>
       </c>
-      <c r="Q41" s="73">
+      <c r="Q41" s="65">
         <v>0</v>
       </c>
-      <c r="R41" s="73"/>
-      <c r="S41" s="73">
+      <c r="R41" s="65"/>
+      <c r="S41" s="65">
         <v>0</v>
       </c>
-      <c r="T41" s="73">
+      <c r="T41" s="65">
         <v>4</v>
       </c>
-      <c r="U41" s="74">
+      <c r="U41" s="66">
         <v>0</v>
       </c>
     </row>
@@ -16167,34 +16678,34 @@
       </c>
       <c r="J42">
         <f t="shared" si="8"/>
-        <v>0.68500000000000005</v>
+        <v>0.72</v>
       </c>
       <c r="K42">
         <f t="shared" si="9"/>
-        <v>127331.83240927268</v>
+        <v>56209.983291158918</v>
       </c>
       <c r="L42">
         <f t="shared" si="10"/>
-        <v>0.28767153600794104</v>
-      </c>
-      <c r="O42" s="72">
+        <v>0.65165904110209139</v>
+      </c>
+      <c r="O42" s="64">
         <v>0.05</v>
       </c>
-      <c r="P42" s="73">
+      <c r="P42" s="65">
         <v>2.6715</v>
       </c>
-      <c r="Q42" s="73">
+      <c r="Q42" s="65">
         <f>P41-P42</f>
         <v>0.52850000000000019</v>
       </c>
-      <c r="R42" s="73"/>
-      <c r="S42" s="73">
+      <c r="R42" s="65"/>
+      <c r="S42" s="65">
         <v>0.05</v>
       </c>
-      <c r="T42" s="73">
+      <c r="T42" s="65">
         <v>2.6715</v>
       </c>
-      <c r="U42" s="74">
+      <c r="U42" s="66">
         <f>T41-T42</f>
         <v>1.3285</v>
       </c>
@@ -16237,35 +16748,35 @@
       </c>
       <c r="J43">
         <f t="shared" si="8"/>
-        <v>0.67600000000000005</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="K43">
         <f t="shared" si="9"/>
-        <v>125658.85942871289</v>
+        <v>55585.427921257149</v>
       </c>
       <c r="L43">
         <f t="shared" si="10"/>
-        <v>0.2952173255667942</v>
-      </c>
-      <c r="O43" s="72">
+        <v>0.66738125083555822</v>
+      </c>
+      <c r="O43" s="64">
         <v>0.1</v>
       </c>
-      <c r="P43" s="73">
+      <c r="P43" s="65">
         <v>2.3090000000000002</v>
       </c>
-      <c r="Q43" s="73">
-        <f t="shared" ref="Q43:Q52" si="11">P42-P43</f>
+      <c r="Q43" s="65">
+        <f t="shared" ref="Q43:Q51" si="11">P42-P43</f>
         <v>0.36249999999999982</v>
       </c>
-      <c r="R43" s="73"/>
-      <c r="S43" s="73">
+      <c r="R43" s="65"/>
+      <c r="S43" s="65">
         <v>0.1</v>
       </c>
-      <c r="T43" s="73">
+      <c r="T43" s="65">
         <v>2.3090000000000002</v>
       </c>
-      <c r="U43" s="74">
-        <f t="shared" ref="U43:U52" si="12">T42-T43</f>
+      <c r="U43" s="66">
+        <f t="shared" ref="U43:U51" si="12">T42-T43</f>
         <v>0.36249999999999982</v>
       </c>
     </row>
@@ -16307,34 +16818,34 @@
       </c>
       <c r="J44">
         <f t="shared" si="8"/>
-        <v>0.66700000000000004</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="K44">
         <f t="shared" si="9"/>
-        <v>123985.88644815311</v>
+        <v>54960.87255135538</v>
       </c>
       <c r="L44">
         <f t="shared" si="10"/>
-        <v>0.30270702673782207</v>
-      </c>
-      <c r="O44" s="72">
+        <v>0.68287487628775101</v>
+      </c>
+      <c r="O44" s="64">
         <v>0.15</v>
       </c>
-      <c r="P44" s="73">
+      <c r="P44" s="65">
         <v>2.0783999999999998</v>
       </c>
-      <c r="Q44" s="73">
+      <c r="Q44" s="65">
         <f t="shared" si="11"/>
         <v>0.23060000000000036</v>
       </c>
-      <c r="R44" s="73"/>
-      <c r="S44" s="73">
+      <c r="R44" s="65"/>
+      <c r="S44" s="65">
         <v>0.15</v>
       </c>
-      <c r="T44" s="73">
+      <c r="T44" s="65">
         <v>2.0783999999999998</v>
       </c>
-      <c r="U44" s="74">
+      <c r="U44" s="66">
         <f t="shared" si="12"/>
         <v>0.23060000000000036</v>
       </c>
@@ -16377,34 +16888,34 @@
       </c>
       <c r="J45">
         <f t="shared" si="8"/>
-        <v>0.65800000000000003</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="K45">
         <f t="shared" si="9"/>
-        <v>122312.9134675933</v>
+        <v>54336.317181453618</v>
       </c>
       <c r="L45">
         <f t="shared" si="10"/>
-        <v>0.31013833802182816</v>
-      </c>
-      <c r="O45" s="72">
+        <v>0.69813203524207368</v>
+      </c>
+      <c r="O45" s="64">
         <v>0.2</v>
       </c>
-      <c r="P45" s="73">
+      <c r="P45" s="65">
         <v>1.9097999999999999</v>
       </c>
-      <c r="Q45" s="73">
+      <c r="Q45" s="65">
         <f t="shared" si="11"/>
         <v>0.16859999999999986</v>
       </c>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73">
+      <c r="R45" s="65"/>
+      <c r="S45" s="65">
         <v>0.2</v>
       </c>
-      <c r="T45" s="73">
+      <c r="T45" s="65">
         <v>1.9097999999999999</v>
       </c>
-      <c r="U45" s="74">
+      <c r="U45" s="66">
         <f t="shared" si="12"/>
         <v>0.16859999999999986</v>
       </c>
@@ -16447,34 +16958,34 @@
       </c>
       <c r="J46">
         <f t="shared" si="8"/>
-        <v>0.64900000000000002</v>
+        <v>0.68799999999999994</v>
       </c>
       <c r="K46">
         <f t="shared" si="9"/>
-        <v>120639.94048703351</v>
+        <v>53711.761811551849</v>
       </c>
       <c r="L46">
         <f t="shared" si="10"/>
-        <v>0.31750883025556198</v>
-      </c>
-      <c r="O46" s="72">
+        <v>0.71314447886720567</v>
+      </c>
+      <c r="O46" s="64">
         <v>0.25</v>
       </c>
-      <c r="P46" s="73">
+      <c r="P46" s="65">
         <v>1.7776000000000001</v>
       </c>
-      <c r="Q46" s="73">
+      <c r="Q46" s="65">
         <f t="shared" si="11"/>
         <v>0.13219999999999987</v>
       </c>
-      <c r="R46" s="73"/>
-      <c r="S46" s="73">
+      <c r="R46" s="65"/>
+      <c r="S46" s="65">
         <v>0.25</v>
       </c>
-      <c r="T46" s="73">
+      <c r="T46" s="65">
         <v>1.7776000000000001</v>
       </c>
-      <c r="U46" s="74">
+      <c r="U46" s="66">
         <f t="shared" si="12"/>
         <v>0.13219999999999987</v>
       </c>
@@ -16517,34 +17028,34 @@
       </c>
       <c r="J47">
         <f t="shared" si="8"/>
-        <v>0.64</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="K47">
         <f t="shared" si="9"/>
-        <v>118966.96750647374</v>
+        <v>53087.20644165008</v>
       </c>
       <c r="L47">
         <f t="shared" si="10"/>
-        <v>0.32481593763533995</v>
-      </c>
-      <c r="O47" s="72">
+        <v>0.72790357015152796</v>
+      </c>
+      <c r="O47" s="64">
         <v>0.3</v>
       </c>
-      <c r="P47" s="73">
+      <c r="P47" s="65">
         <v>1.6697</v>
       </c>
-      <c r="Q47" s="73">
+      <c r="Q47" s="65">
         <f>P46-P47</f>
         <v>0.10790000000000011</v>
       </c>
-      <c r="R47" s="73"/>
-      <c r="S47" s="73">
+      <c r="R47" s="65"/>
+      <c r="S47" s="65">
         <v>0.3</v>
       </c>
-      <c r="T47" s="73">
+      <c r="T47" s="65">
         <v>1.6697</v>
       </c>
-      <c r="U47" s="74">
+      <c r="U47" s="66">
         <f t="shared" si="12"/>
         <v>0.10790000000000011</v>
       </c>
@@ -16587,34 +17098,34 @@
       </c>
       <c r="J48">
         <f t="shared" si="8"/>
-        <v>0.63100000000000001</v>
+        <v>0.67199999999999993</v>
       </c>
       <c r="K48">
         <f t="shared" si="9"/>
-        <v>117293.99452591395</v>
+        <v>52462.651071748318</v>
       </c>
       <c r="L48">
         <f t="shared" si="10"/>
-        <v>0.3320569479724827</v>
-      </c>
-      <c r="O48" s="72">
+        <v>0.74240026079715471</v>
+      </c>
+      <c r="O48" s="64">
         <v>0.35</v>
       </c>
-      <c r="P48" s="73">
+      <c r="P48" s="65">
         <v>1.579</v>
       </c>
-      <c r="Q48" s="73">
+      <c r="Q48" s="65">
         <f>P47-P48</f>
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="R48" s="73"/>
-      <c r="S48" s="73">
+      <c r="R48" s="65"/>
+      <c r="S48" s="65">
         <v>0.35</v>
       </c>
-      <c r="T48" s="73">
+      <c r="T48" s="65">
         <v>1.579</v>
       </c>
-      <c r="U48" s="74">
+      <c r="U48" s="66">
         <f t="shared" si="12"/>
         <v>9.0700000000000003E-2</v>
       </c>
@@ -16657,34 +17168,34 @@
       </c>
       <c r="J49">
         <f t="shared" si="8"/>
-        <v>0.622</v>
+        <v>0.66399999999999992</v>
       </c>
       <c r="K49">
         <f t="shared" si="9"/>
-        <v>115621.02154535416</v>
+        <v>51838.095701846549</v>
       </c>
       <c r="L49">
         <f t="shared" si="10"/>
-        <v>0.33922899210276025</v>
-      </c>
-      <c r="O49" s="72">
+        <v>0.75662506644365157</v>
+      </c>
+      <c r="O49" s="64">
         <v>0.4</v>
       </c>
-      <c r="P49" s="73">
+      <c r="P49" s="65">
         <v>1.5009999999999999</v>
       </c>
-      <c r="Q49" s="73">
+      <c r="Q49" s="65">
         <f>P48-P49</f>
         <v>7.8000000000000069E-2</v>
       </c>
-      <c r="R49" s="73"/>
-      <c r="S49" s="73">
+      <c r="R49" s="65"/>
+      <c r="S49" s="65">
         <v>0.4</v>
       </c>
-      <c r="T49" s="73">
+      <c r="T49" s="65">
         <v>1.5009999999999999</v>
       </c>
-      <c r="U49" s="74">
+      <c r="U49" s="66">
         <f t="shared" si="12"/>
         <v>7.8000000000000069E-2</v>
       </c>
@@ -16727,34 +17238,34 @@
       </c>
       <c r="J50">
         <f t="shared" si="8"/>
-        <v>0.6130000000000001</v>
+        <v>0.65600000000000014</v>
       </c>
       <c r="K50">
         <f t="shared" si="9"/>
-        <v>113948.0485647944</v>
+        <v>51213.540331944801</v>
       </c>
       <c r="L50">
         <f t="shared" si="10"/>
-        <v>0.3463290323629008</v>
-      </c>
-      <c r="O50" s="72">
+        <v>0.77056804007885449</v>
+      </c>
+      <c r="O50" s="64">
         <v>0.45</v>
       </c>
-      <c r="P50" s="73">
+      <c r="P50" s="65">
         <v>1.4328000000000001</v>
       </c>
-      <c r="Q50" s="73">
+      <c r="Q50" s="65">
         <f t="shared" si="11"/>
         <v>6.8199999999999816E-2</v>
       </c>
-      <c r="R50" s="73"/>
-      <c r="S50" s="73">
+      <c r="R50" s="65"/>
+      <c r="S50" s="65">
         <v>0.45</v>
       </c>
-      <c r="T50" s="73">
+      <c r="T50" s="65">
         <v>1.4328000000000001</v>
       </c>
-      <c r="U50" s="74">
+      <c r="U50" s="66">
         <f t="shared" si="12"/>
         <v>6.8199999999999816E-2</v>
       </c>
@@ -16797,34 +17308,34 @@
       </c>
       <c r="J51">
         <f t="shared" si="8"/>
-        <v>0.60400000000000009</v>
+        <v>0.64800000000000013</v>
       </c>
       <c r="K51">
         <f t="shared" si="9"/>
-        <v>112275.07558423461</v>
+        <v>50588.984962043032</v>
       </c>
       <c r="L51">
         <f t="shared" si="10"/>
-        <v>0.35335385003685549</v>
-      </c>
-      <c r="O51" s="72">
+        <v>0.78421874348012355</v>
+      </c>
+      <c r="O51" s="64">
         <v>0.5</v>
       </c>
-      <c r="P51" s="73">
+      <c r="P51" s="65">
         <v>1.3725000000000001</v>
       </c>
-      <c r="Q51" s="73">
+      <c r="Q51" s="65">
         <f t="shared" si="11"/>
         <v>6.030000000000002E-2</v>
       </c>
-      <c r="R51" s="73"/>
-      <c r="S51" s="73">
+      <c r="R51" s="65"/>
+      <c r="S51" s="65">
         <v>0.5</v>
       </c>
-      <c r="T51" s="73">
+      <c r="T51" s="65">
         <v>1.3725000000000001</v>
       </c>
-      <c r="U51" s="74">
+      <c r="U51" s="66">
         <f t="shared" si="12"/>
         <v>6.030000000000002E-2</v>
       </c>
@@ -16867,23 +17378,23 @@
       </c>
       <c r="J52">
         <f t="shared" si="8"/>
-        <v>0.59500000000000008</v>
+        <v>0.64000000000000012</v>
       </c>
       <c r="K52">
         <f t="shared" si="9"/>
-        <v>110602.10260367481</v>
+        <v>49964.42959214127</v>
       </c>
       <c r="L52">
         <f t="shared" si="10"/>
-        <v>0.36030003166273</v>
-      </c>
-      <c r="O52" s="72"/>
-      <c r="P52" s="73"/>
-      <c r="Q52" s="73"/>
-      <c r="R52" s="73"/>
-      <c r="S52" s="73"/>
-      <c r="T52" s="73"/>
-      <c r="U52" s="74"/>
+        <v>0.79756621651368564</v>
+      </c>
+      <c r="O52" s="64"/>
+      <c r="P52" s="65"/>
+      <c r="Q52" s="65"/>
+      <c r="R52" s="65"/>
+      <c r="S52" s="65"/>
+      <c r="T52" s="65"/>
+      <c r="U52" s="66"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -16923,25 +17434,25 @@
       </c>
       <c r="J53">
         <f t="shared" si="8"/>
-        <v>0.58600000000000008</v>
+        <v>0.63200000000000012</v>
       </c>
       <c r="K53">
         <f t="shared" si="9"/>
-        <v>108929.12962311502</v>
+        <v>49339.874222239501</v>
       </c>
       <c r="L53">
         <f t="shared" si="10"/>
-        <v>0.36716395407789959</v>
-      </c>
-      <c r="O53" s="72"/>
-      <c r="P53" s="73" t="s">
+        <v>0.81059894410228672</v>
+      </c>
+      <c r="O53" s="64"/>
+      <c r="P53" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="Q53" s="73"/>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="73"/>
-      <c r="U53" s="74"/>
+      <c r="Q53" s="65"/>
+      <c r="R53" s="65"/>
+      <c r="S53" s="65"/>
+      <c r="T53" s="65"/>
+      <c r="U53" s="66"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -16981,25 +17492,25 @@
       </c>
       <c r="J54">
         <f t="shared" si="8"/>
-        <v>0.57700000000000007</v>
+        <v>0.62400000000000011</v>
       </c>
       <c r="K54">
         <f t="shared" si="9"/>
-        <v>107256.15664255524</v>
+        <v>48715.318852337732</v>
       </c>
       <c r="L54">
         <f t="shared" si="10"/>
-        <v>0.37394176806453233</v>
-      </c>
-      <c r="O54" s="72"/>
-      <c r="P54" s="73" t="s">
+        <v>0.82330482065188981</v>
+      </c>
+      <c r="O54" s="64"/>
+      <c r="P54" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Q54" s="73"/>
-      <c r="R54" s="73"/>
-      <c r="S54" s="73"/>
-      <c r="T54" s="73"/>
-      <c r="U54" s="74"/>
+      <c r="Q54" s="65"/>
+      <c r="R54" s="65"/>
+      <c r="S54" s="65"/>
+      <c r="T54" s="65"/>
+      <c r="U54" s="66"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -17039,23 +17550,23 @@
       </c>
       <c r="J55">
         <f t="shared" si="8"/>
-        <v>0.56800000000000006</v>
+        <v>0.6160000000000001</v>
       </c>
       <c r="K55">
         <f t="shared" si="9"/>
-        <v>105583.18366199546</v>
+        <v>48090.76348243597</v>
       </c>
       <c r="L55">
         <f t="shared" si="10"/>
-        <v>0.38062938044028566</v>
-      </c>
-      <c r="O55" s="72"/>
-      <c r="P55" s="73"/>
-      <c r="Q55" s="73"/>
-      <c r="R55" s="73"/>
-      <c r="S55" s="73"/>
-      <c r="T55" s="73"/>
-      <c r="U55" s="74"/>
+        <v>0.83567111170642927</v>
+      </c>
+      <c r="O55" s="64"/>
+      <c r="P55" s="65"/>
+      <c r="Q55" s="65"/>
+      <c r="R55" s="65"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="65"/>
+      <c r="U55" s="66"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -17095,23 +17606,23 @@
       </c>
       <c r="J56">
         <f t="shared" si="8"/>
-        <v>0.55900000000000005</v>
+        <v>0.6080000000000001</v>
       </c>
       <c r="K56">
         <f t="shared" si="9"/>
-        <v>103910.21068143567</v>
+        <v>47466.208112534201</v>
       </c>
       <c r="L56">
         <f t="shared" si="10"/>
-        <v>0.38722243441894549</v>
-      </c>
-      <c r="O56" s="72"/>
-      <c r="P56" s="73"/>
-      <c r="Q56" s="73"/>
-      <c r="R56" s="73"/>
-      <c r="S56" s="73"/>
-      <c r="T56" s="73"/>
-      <c r="U56" s="74"/>
+        <v>0.84768441257531135</v>
+      </c>
+      <c r="O56" s="64"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="66"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -17151,23 +17662,23 @@
       </c>
       <c r="J57">
         <f t="shared" si="8"/>
-        <v>0.55000000000000004</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="K57">
         <f t="shared" si="9"/>
-        <v>102237.23770087586</v>
+        <v>46841.652742632432</v>
       </c>
       <c r="L57">
         <f t="shared" si="10"/>
-        <v>0.39371628804283632</v>
-      </c>
-      <c r="O57" s="72"/>
-      <c r="P57" s="73"/>
-      <c r="Q57" s="73"/>
-      <c r="R57" s="73"/>
-      <c r="S57" s="73"/>
-      <c r="T57" s="73"/>
-      <c r="U57" s="74"/>
+        <v>0.85933060365110925</v>
+      </c>
+      <c r="O57" s="64"/>
+      <c r="P57" s="65"/>
+      <c r="Q57" s="65"/>
+      <c r="R57" s="65"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="65"/>
+      <c r="U57" s="66"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -17207,23 +17718,23 @@
       </c>
       <c r="J58">
         <f t="shared" si="8"/>
-        <v>0.54100000000000004</v>
+        <v>0.59200000000000008</v>
       </c>
       <c r="K58">
         <f t="shared" si="9"/>
-        <v>100564.26472031607</v>
+        <v>46217.09737273067</v>
       </c>
       <c r="L58">
         <f t="shared" si="10"/>
-        <v>0.40010599046245948</v>
-      </c>
-      <c r="O58" s="72"/>
-      <c r="P58" s="73"/>
-      <c r="Q58" s="73"/>
-      <c r="R58" s="73"/>
-      <c r="S58" s="73"/>
-      <c r="T58" s="73"/>
-      <c r="U58" s="74"/>
+        <v>0.87059480210437379</v>
+      </c>
+      <c r="O58" s="64"/>
+      <c r="P58" s="65"/>
+      <c r="Q58" s="65"/>
+      <c r="R58" s="65"/>
+      <c r="S58" s="65"/>
+      <c r="T58" s="65"/>
+      <c r="U58" s="66"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -17263,23 +17774,23 @@
       </c>
       <c r="J59">
         <f t="shared" si="8"/>
-        <v>0.53200000000000003</v>
+        <v>0.58400000000000007</v>
       </c>
       <c r="K59">
         <f t="shared" si="9"/>
-        <v>98891.2917397563</v>
+        <v>45592.542002828908</v>
       </c>
       <c r="L59">
         <f t="shared" si="10"/>
-        <v>0.4063862558084253</v>
-      </c>
-      <c r="O59" s="72"/>
-      <c r="P59" s="73"/>
-      <c r="Q59" s="73"/>
-      <c r="R59" s="73"/>
-      <c r="S59" s="73"/>
-      <c r="T59" s="73"/>
-      <c r="U59" s="74"/>
+        <v>0.8814613096081515</v>
+      </c>
+      <c r="O59" s="64"/>
+      <c r="P59" s="65"/>
+      <c r="Q59" s="65"/>
+      <c r="R59" s="65"/>
+      <c r="S59" s="65"/>
+      <c r="T59" s="65"/>
+      <c r="U59" s="66"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -17319,23 +17830,23 @@
       </c>
       <c r="J60">
         <f t="shared" si="8"/>
-        <v>0.52300000000000002</v>
+        <v>0.57600000000000007</v>
       </c>
       <c r="K60">
         <f t="shared" si="9"/>
-        <v>97218.318759196511</v>
+        <v>44967.986632927139</v>
       </c>
       <c r="L60">
         <f t="shared" si="10"/>
-        <v>0.41255143436565045</v>
-      </c>
-      <c r="O60" s="72"/>
-      <c r="P60" s="73"/>
-      <c r="Q60" s="73"/>
-      <c r="R60" s="73"/>
-      <c r="S60" s="73"/>
-      <c r="T60" s="73"/>
-      <c r="U60" s="74"/>
+        <v>0.891913555706214</v>
+      </c>
+      <c r="O60" s="64"/>
+      <c r="P60" s="65"/>
+      <c r="Q60" s="65"/>
+      <c r="R60" s="65"/>
+      <c r="S60" s="65"/>
+      <c r="T60" s="65"/>
+      <c r="U60" s="66"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -17375,23 +17886,23 @@
       </c>
       <c r="J61">
         <f t="shared" si="8"/>
-        <v>0.51400000000000001</v>
+        <v>0.56800000000000006</v>
       </c>
       <c r="K61">
         <f t="shared" si="9"/>
-        <v>95545.345778636722</v>
+        <v>44343.43126302537</v>
       </c>
       <c r="L61">
         <f t="shared" si="10"/>
-        <v>0.41859548071916186</v>
-      </c>
-      <c r="O61" s="72"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="73"/>
-      <c r="R61" s="73"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="73"/>
-      <c r="U61" s="74"/>
+        <v>0.9019340363955024</v>
+      </c>
+      <c r="O61" s="64"/>
+      <c r="P61" s="65"/>
+      <c r="Q61" s="65"/>
+      <c r="R61" s="65"/>
+      <c r="S61" s="65"/>
+      <c r="T61" s="65"/>
+      <c r="U61" s="66"/>
     </row>
     <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62">
@@ -17431,23 +17942,23 @@
       </c>
       <c r="J62">
         <f t="shared" si="8"/>
-        <v>0.505</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K62">
         <f t="shared" si="9"/>
-        <v>93872.372798076933</v>
+        <v>43718.875893123608</v>
       </c>
       <c r="L62">
         <f t="shared" si="10"/>
-        <v>0.42451191849371173</v>
-      </c>
-      <c r="O62" s="75"/>
-      <c r="P62" s="76"/>
-      <c r="Q62" s="76"/>
-      <c r="R62" s="76"/>
-      <c r="S62" s="76"/>
-      <c r="T62" s="76"/>
-      <c r="U62" s="77"/>
+        <v>0.91150424744421243</v>
+      </c>
+      <c r="O62" s="67"/>
+      <c r="P62" s="68"/>
+      <c r="Q62" s="68"/>
+      <c r="R62" s="68"/>
+      <c r="S62" s="68"/>
+      <c r="T62" s="68"/>
+      <c r="U62" s="69"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -17487,15 +17998,15 @@
       </c>
       <c r="J63">
         <f t="shared" si="8"/>
-        <v>0.496</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="K63">
         <f t="shared" si="9"/>
-        <v>92199.399817517144</v>
+        <v>43094.320523221839</v>
       </c>
       <c r="L63">
         <f t="shared" si="10"/>
-        <v>0.43029380125455796</v>
+        <v>0.92060461191144938</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -17536,15 +18047,15 @@
       </c>
       <c r="J64">
         <f t="shared" si="8"/>
-        <v>0.48699999999999999</v>
+        <v>0.54400000000000004</v>
       </c>
       <c r="K64">
         <f t="shared" si="9"/>
-        <v>90526.426836957355</v>
+        <v>42469.76515332007</v>
       </c>
       <c r="L64">
         <f t="shared" si="10"/>
-        <v>0.43593366907280945</v>
+        <v>0.92921440127155985</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -17585,15 +18096,15 @@
       </c>
       <c r="J65">
         <f t="shared" si="8"/>
-        <v>0.47799999999999998</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="K65">
         <f t="shared" si="9"/>
-        <v>88853.453856397566</v>
+        <v>41845.209783418308</v>
       </c>
       <c r="L65">
         <f t="shared" si="10"/>
-        <v>0.44142350018392651</v>
+        <v>0.93731164947497114</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -17634,15 +18145,15 @@
       </c>
       <c r="J66">
         <f t="shared" si="8"/>
-        <v>0.46900000000000008</v>
+        <v>0.52800000000000002</v>
       </c>
       <c r="K66">
         <f t="shared" si="9"/>
-        <v>87180.480875837791</v>
+        <v>41220.654413516539</v>
       </c>
       <c r="L66">
         <f t="shared" si="10"/>
-        <v>0.4467546570802487</v>
+        <v>0.94487305919637898</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -17683,15 +18194,15 @@
       </c>
       <c r="J67">
         <f t="shared" si="8"/>
-        <v>0.46000000000000008</v>
+        <v>0.52</v>
       </c>
       <c r="K67">
         <f t="shared" si="9"/>
-        <v>85507.507895278017</v>
+        <v>40596.099043614769</v>
       </c>
       <c r="L67">
         <f t="shared" si="10"/>
-        <v>0.45191782627525551</v>
+        <v>0.9518738994289212</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -17732,15 +18243,15 @@
       </c>
       <c r="J68">
         <f t="shared" si="8"/>
-        <v>0.45100000000000007</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="K68">
         <f t="shared" si="9"/>
-        <v>83834.534914718228</v>
+        <v>39971.543673713008</v>
       </c>
       <c r="L68">
         <f t="shared" si="10"/>
-        <v>0.45690295085556465</v>
+        <v>0.95828789347780752</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -17781,15 +18292,15 @@
       </c>
       <c r="J69">
         <f t="shared" si="8"/>
-        <v>0.44200000000000006</v>
+        <v>0.504</v>
       </c>
       <c r="K69">
         <f t="shared" si="9"/>
-        <v>82161.561934158424</v>
+        <v>39346.988303811238</v>
       </c>
       <c r="L69">
         <f t="shared" si="10"/>
-        <v>0.46169915479267631</v>
+        <v>0.96408709628667322</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -17830,15 +18341,15 @@
       </c>
       <c r="J70">
         <f t="shared" si="8"/>
-        <v>0.43300000000000005</v>
+        <v>0.496</v>
       </c>
       <c r="K70">
         <f t="shared" si="9"/>
-        <v>80488.588953598635</v>
+        <v>38722.432933909477</v>
       </c>
       <c r="L70">
         <f t="shared" si="10"/>
-        <v>0.46629465781553647</v>
+        <v>0.96924175989229144</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -17879,15 +18390,15 @@
       </c>
       <c r="J71">
         <f t="shared" si="8"/>
-        <v>0.42400000000000004</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="K71">
         <f t="shared" si="9"/>
-        <v>78815.615973038861</v>
+        <v>38097.877564007707</v>
       </c>
       <c r="L71">
         <f t="shared" si="10"/>
-        <v>0.47067667944139824</v>
+        <v>0.9737201856453227</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -17928,15 +18439,15 @@
       </c>
       <c r="J72">
         <f t="shared" ref="J72:J107" si="21">(100-A72) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.41500000000000004</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72:K107" si="22">J72 * $F$2 * $K$4</f>
-        <v>77142.642992479072</v>
+        <v>37473.322194105946</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72:L107" si="23">IFERROR(H72/K72,1)</f>
-        <v>0.47483133051913146</v>
+        <v>0.97748856165313691</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -17977,15 +18488,15 @@
       </c>
       <c r="J73">
         <f t="shared" si="21"/>
-        <v>0.40600000000000003</v>
+        <v>0.47200000000000003</v>
       </c>
       <c r="K73">
         <f t="shared" si="22"/>
-        <v>75469.670011919283</v>
+        <v>36848.766824204176</v>
       </c>
       <c r="L73">
         <f t="shared" si="23"/>
-        <v>0.4787434903472596</v>
+        <v>0.98051078369140132</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -18026,15 +18537,15 @@
       </c>
       <c r="J74">
         <f t="shared" si="21"/>
-        <v>0.39700000000000002</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="K74">
         <f t="shared" si="22"/>
-        <v>73796.697031359494</v>
+        <v>36224.211454302414</v>
       </c>
       <c r="L74">
         <f t="shared" si="23"/>
-        <v>0.48239666707757284</v>
+        <v>0.9827482575892772</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -18075,15 +18586,15 @@
       </c>
       <c r="J75">
         <f t="shared" si="21"/>
-        <v>0.38800000000000001</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="K75">
         <f t="shared" si="22"/>
-        <v>72123.724050799705</v>
+        <v>35599.656084400653</v>
       </c>
       <c r="L75">
         <f t="shared" si="23"/>
-        <v>0.4857728386903778</v>
+        <v>0.98415968081305982</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -18124,15 +18635,15 @@
       </c>
       <c r="J76">
         <f t="shared" si="21"/>
-        <v>0.379</v>
+        <v>0.44800000000000001</v>
       </c>
       <c r="K76">
         <f t="shared" si="22"/>
-        <v>70450.751070239916</v>
+        <v>34975.100714498883</v>
       </c>
       <c r="L76">
         <f t="shared" si="23"/>
-        <v>0.48885227131186781</v>
+        <v>0.98470080064806564</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -18173,15 +18684,15 @@
       </c>
       <c r="J77">
         <f t="shared" si="21"/>
-        <v>0.37</v>
+        <v>0.44</v>
       </c>
       <c r="K77">
         <f t="shared" si="22"/>
-        <v>68777.778089680127</v>
+        <v>34350.545344597114</v>
       </c>
       <c r="L77">
         <f t="shared" si="23"/>
-        <v>0.49161331101564981</v>
+        <v>0.98432414600036189</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -18222,15 +18733,15 @@
       </c>
       <c r="J78">
         <f t="shared" si="21"/>
-        <v>0.36099999999999999</v>
+        <v>0.432</v>
       </c>
       <c r="K78">
         <f t="shared" si="22"/>
-        <v>67104.805109120338</v>
+        <v>33725.989974695352</v>
       </c>
       <c r="L78">
         <f t="shared" si="23"/>
-        <v>0.49403214448100846</v>
+        <v>0.9829787293986858</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -18271,15 +18782,15 @@
       </c>
       <c r="J79">
         <f t="shared" si="21"/>
-        <v>0.35200000000000009</v>
+        <v>0.42400000000000004</v>
       </c>
       <c r="K79">
         <f t="shared" si="22"/>
-        <v>65431.832128560571</v>
+        <v>33101.434604793591</v>
       </c>
       <c r="L79">
         <f t="shared" si="23"/>
-        <v>0.49608252293397359</v>
+        <v>0.98060971526073737</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -18320,15 +18831,15 @@
       </c>
       <c r="J80">
         <f t="shared" si="21"/>
-        <v>0.34300000000000003</v>
+        <v>0.41600000000000004</v>
       </c>
       <c r="K80">
         <f t="shared" si="22"/>
-        <v>63758.859148000767</v>
+        <v>32476.879234891821</v>
       </c>
       <c r="L80">
         <f t="shared" si="23"/>
-        <v>0.49773544262721481</v>
+        <v>0.97715804988250177</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -18369,15 +18880,15 @@
       </c>
       <c r="J81">
         <f t="shared" si="21"/>
-        <v>0.33400000000000002</v>
+        <v>0.40800000000000003</v>
       </c>
       <c r="K81">
         <f t="shared" si="22"/>
-        <v>62085.886167440985</v>
+        <v>31852.323864990056</v>
       </c>
       <c r="L81">
         <f t="shared" si="23"/>
-        <v>0.49895877366099323</v>
+        <v>0.97256004789690242</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -18418,15 +18929,15 @@
       </c>
       <c r="J82">
         <f t="shared" si="21"/>
-        <v>0.32500000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="K82">
         <f t="shared" si="22"/>
-        <v>60412.913186881189</v>
+        <v>31227.76849508829</v>
       </c>
       <c r="L82">
         <f t="shared" si="23"/>
-        <v>0.49971682713129228</v>
+        <v>0.96674692910749793</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -18467,15 +18978,15 @@
       </c>
       <c r="J83">
         <f t="shared" si="21"/>
-        <v>0.316</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="K83">
         <f t="shared" si="22"/>
-        <v>58739.940206321407</v>
+        <v>30603.213125186521</v>
       </c>
       <c r="L83">
         <f t="shared" si="23"/>
-        <v>0.49996984830958663</v>
+        <v>0.95964429860793277</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -18516,15 +19027,15 @@
       </c>
       <c r="J84">
         <f t="shared" si="21"/>
-        <v>0.30700000000000005</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="K84">
         <f t="shared" si="22"/>
-        <v>57066.967225761626</v>
+        <v>29978.657755284756</v>
       </c>
       <c r="L84">
         <f t="shared" si="23"/>
-        <v>0.49967342067508097</v>
+        <v>0.95117156191632157</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -18565,15 +19076,15 @@
       </c>
       <c r="J85">
         <f t="shared" si="21"/>
-        <v>0.29800000000000004</v>
+        <v>0.376</v>
       </c>
       <c r="K85">
         <f t="shared" si="22"/>
-        <v>55393.994245201844</v>
+        <v>29354.102385382987</v>
       </c>
       <c r="L85">
         <f t="shared" si="23"/>
-        <v>0.49877776195279039</v>
+        <v>0.94124126544593856</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -18614,15 +19125,15 @@
       </c>
       <c r="J86">
         <f t="shared" si="21"/>
-        <v>0.28900000000000003</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="K86">
         <f t="shared" si="22"/>
-        <v>53721.021264642048</v>
+        <v>28729.547015481221</v>
       </c>
       <c r="L86">
         <f t="shared" si="23"/>
-        <v>0.49722688861548242</v>
+        <v>0.92975835095034176</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -18663,15 +19174,15 @@
       </c>
       <c r="J87">
         <f t="shared" si="21"/>
-        <v>0.28000000000000003</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="K87">
         <f t="shared" si="22"/>
-        <v>52048.048284082266</v>
+        <v>28104.991645579463</v>
       </c>
       <c r="L87">
         <f t="shared" si="23"/>
-        <v>0.49495761925385129</v>
+        <v>0.91661931056118318</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -18712,15 +19223,15 @@
       </c>
       <c r="J88">
         <f t="shared" si="21"/>
-        <v>0.27100000000000002</v>
+        <v>0.35200000000000004</v>
       </c>
       <c r="K88">
         <f t="shared" si="22"/>
-        <v>50375.07530352247</v>
+        <v>27480.436275677694</v>
       </c>
       <c r="L88">
         <f t="shared" si="23"/>
-        <v>0.49189837935624914</v>
+        <v>0.90171122660390257</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -18761,15 +19272,15 @@
       </c>
       <c r="J89">
         <f t="shared" si="21"/>
-        <v>0.26200000000000001</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="K89">
         <f t="shared" si="22"/>
-        <v>48702.102322962688</v>
+        <v>26855.880905775924</v>
       </c>
       <c r="L89">
         <f t="shared" si="23"/>
-        <v>0.4879677597453046</v>
+        <v>0.88491067743421226</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -18810,15 +19321,15 @@
       </c>
       <c r="J90">
         <f t="shared" si="21"/>
-        <v>0.253</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="K90">
         <f t="shared" si="22"/>
-        <v>47029.129342402899</v>
+        <v>26231.325535874163</v>
       </c>
       <c r="L90">
         <f t="shared" si="23"/>
-        <v>0.48307276732908011</v>
+        <v>0.86608248696551104</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -18859,15 +19370,15 @@
       </c>
       <c r="J91">
         <f t="shared" si="21"/>
-        <v>0.24400000000000002</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="K91">
         <f t="shared" si="22"/>
-        <v>45356.15636184311</v>
+        <v>25606.770165972397</v>
       </c>
       <c r="L91">
         <f t="shared" si="23"/>
-        <v>0.47710668872338463</v>
+        <v>0.84507829120031042</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -18908,15 +19419,15 @@
       </c>
       <c r="J92">
         <f t="shared" si="21"/>
-        <v>0.23500000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="K92">
         <f t="shared" si="22"/>
-        <v>43683.183381283328</v>
+        <v>24982.214796070632</v>
       </c>
       <c r="L92">
         <f t="shared" si="23"/>
-        <v>0.46994646296176845</v>
+        <v>0.82173488974137321</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -18957,15 +19468,15 @@
       </c>
       <c r="J93">
         <f t="shared" si="21"/>
-        <v>0.22600000000000003</v>
+        <v>0.31200000000000006</v>
       </c>
       <c r="K93">
         <f t="shared" si="22"/>
-        <v>42010.210400723547</v>
+        <v>24357.659426168866</v>
       </c>
       <c r="L93">
         <f t="shared" si="23"/>
-        <v>0.46144942644595788</v>
+        <v>0.79587234368918136</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -19006,15 +19517,15 @@
       </c>
       <c r="J94">
         <f t="shared" si="21"/>
-        <v>0.21700000000000003</v>
+        <v>0.30400000000000005</v>
       </c>
       <c r="K94">
         <f t="shared" si="22"/>
-        <v>40337.23742016375</v>
+        <v>23733.104056267101</v>
       </c>
       <c r="L94">
         <f t="shared" si="23"/>
-        <v>0.45144924788395635</v>
+        <v>0.7672917732074247</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -19055,15 +19566,15 @@
       </c>
       <c r="J95">
         <f t="shared" si="21"/>
-        <v>0.20800000000000002</v>
+        <v>0.29600000000000004</v>
       </c>
       <c r="K95">
         <f t="shared" si="22"/>
-        <v>38664.264439603969</v>
+        <v>23108.548686365335</v>
       </c>
       <c r="L95">
         <f t="shared" si="23"/>
-        <v>0.43975080787553716</v>
+        <v>0.73577279793694983</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -19104,15 +19615,15 @@
       </c>
       <c r="J96">
         <f t="shared" si="21"/>
-        <v>0.19900000000000001</v>
+        <v>0.28800000000000003</v>
       </c>
       <c r="K96">
         <f t="shared" si="22"/>
-        <v>36991.29145904418</v>
+        <v>22483.993316463569</v>
       </c>
       <c r="L96">
         <f t="shared" si="23"/>
-        <v>0.42612368903852299</v>
+        <v>0.70107055081202985</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -19153,15 +19664,15 @@
       </c>
       <c r="J97">
         <f t="shared" si="21"/>
-        <v>0.19</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K97">
         <f t="shared" si="22"/>
-        <v>35318.318478484391</v>
+        <v>21859.437946561804</v>
       </c>
       <c r="L97">
         <f t="shared" si="23"/>
-        <v>0.41029381596042941</v>
+        <v>0.66291217995942708</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -19202,15 +19713,15 @@
       </c>
       <c r="J98">
         <f t="shared" si="21"/>
-        <v>0.18099999999999999</v>
+        <v>0.27200000000000002</v>
       </c>
       <c r="K98">
         <f t="shared" si="22"/>
-        <v>33645.345497924602</v>
+        <v>21234.882576660035</v>
       </c>
       <c r="L98">
         <f t="shared" si="23"/>
-        <v>0.39193260099203459</v>
+        <v>0.62099273328552229</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -19251,15 +19762,15 @@
       </c>
       <c r="J99">
         <f t="shared" si="21"/>
-        <v>0.17200000000000001</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="K99">
         <f t="shared" si="22"/>
-        <v>31972.372517364816</v>
+        <v>20610.327206758269</v>
       </c>
       <c r="L99">
         <f t="shared" si="23"/>
-        <v>0.3706426823249771</v>
+        <v>0.57497029480656048</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -19300,15 +19811,15 @@
       </c>
       <c r="J100">
         <f t="shared" si="21"/>
-        <v>0.16300000000000003</v>
+        <v>0.25600000000000001</v>
       </c>
       <c r="K100">
         <f t="shared" si="22"/>
-        <v>30299.399536805035</v>
+        <v>19985.771836856504</v>
       </c>
       <c r="L100">
         <f t="shared" si="23"/>
-        <v>0.34593893726070557</v>
+        <v>0.52446020904081769</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -19349,15 +19860,15 @@
       </c>
       <c r="J101">
         <f t="shared" si="21"/>
-        <v>0.154</v>
+        <v>0.248</v>
       </c>
       <c r="K101">
         <f t="shared" si="22"/>
-        <v>28626.426556245242</v>
+        <v>19361.216466954738</v>
       </c>
       <c r="L101">
         <f t="shared" si="23"/>
-        <v>0.31722283779451393</v>
+        <v>0.46902818754118625</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -19398,15 +19909,15 @@
       </c>
       <c r="J102">
         <f t="shared" si="21"/>
-        <v>0.14500000000000002</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="K102">
         <f t="shared" si="22"/>
-        <v>26953.453575685457</v>
+        <v>18736.661097052973</v>
       </c>
       <c r="L102">
         <f t="shared" si="23"/>
-        <v>0.28374725586535449</v>
+        <v>0.408182036734277</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -19447,15 +19958,15 @@
       </c>
       <c r="J103">
         <f t="shared" si="21"/>
-        <v>0.13600000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="K103">
         <f t="shared" si="22"/>
-        <v>25280.480595125671</v>
+        <v>18112.105727151207</v>
       </c>
       <c r="L103">
         <f t="shared" si="23"/>
-        <v>0.24456729421955006</v>
+        <v>0.34136167427795788</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -19496,15 +20007,15 @@
       </c>
       <c r="J104">
         <f t="shared" si="21"/>
-        <v>0.127</v>
+        <v>0.224</v>
       </c>
       <c r="K104">
         <f t="shared" si="22"/>
-        <v>23607.507614565882</v>
+        <v>17487.550357249442</v>
       </c>
       <c r="L104">
         <f t="shared" si="23"/>
-        <v>0.19847021071261714</v>
+        <v>0.26792700606693509</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -19545,15 +20056,15 @@
       </c>
       <c r="J105">
         <f t="shared" si="21"/>
-        <v>0.11800000000000001</v>
+        <v>0.21600000000000003</v>
       </c>
       <c r="K105">
         <f t="shared" si="22"/>
-        <v>21934.534634006093</v>
+        <v>16862.994987347676</v>
       </c>
       <c r="L105">
         <f t="shared" si="23"/>
-        <v>0.14387327407124664</v>
+        <v>0.18714310923957489</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -19594,15 +20105,15 @@
       </c>
       <c r="J106">
         <f t="shared" si="21"/>
-        <v>0.10900000000000001</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="K106">
         <f t="shared" si="22"/>
-        <v>20261.561653446312</v>
+        <v>16238.439617445911</v>
       </c>
       <c r="L106">
         <f t="shared" si="23"/>
-        <v>7.8671016087825452E-2</v>
+        <v>9.816199587860748E-2</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -19643,11 +20154,11 @@
       </c>
       <c r="J107">
         <f t="shared" si="21"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="K107">
         <f t="shared" si="22"/>
-        <v>18588.588672886523</v>
+        <v>15613.884247544145</v>
       </c>
       <c r="L107">
         <f t="shared" si="23"/>
@@ -19665,12 +20176,621 @@
       </c>
       <c r="K108">
         <f>LARGE(K7:K107,1)</f>
-        <v>185885.88672886521</v>
+        <v>78069.421237720715</v>
       </c>
       <c r="L108">
         <f>LARGE(L7:L107,1)</f>
-        <v>0.49996984830958663</v>
-      </c>
+        <v>0.98470080064806564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:H41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="58">
+        <v>0</v>
+      </c>
+      <c r="B5" s="58">
+        <v>3.2</v>
+      </c>
+      <c r="C5" s="58">
+        <f>B5-B6</f>
+        <v>-0.5585</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58">
+        <v>0</v>
+      </c>
+      <c r="F5" s="58">
+        <v>4</v>
+      </c>
+      <c r="G5" s="58">
+        <f>F5-F6</f>
+        <v>0.24149999999999983</v>
+      </c>
+      <c r="H5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1E-3</v>
+      </c>
+      <c r="B6">
+        <v>3.7585000000000002</v>
+      </c>
+      <c r="C6" s="70">
+        <f t="shared" ref="C6:C16" si="0">B6-B7</f>
+        <v>1.0870000000000002</v>
+      </c>
+      <c r="E6">
+        <v>1E-3</v>
+      </c>
+      <c r="F6">
+        <v>3.7585000000000002</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:G16" si="1">F6-F7</f>
+        <v>1.0870000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>2.6715</v>
+      </c>
+      <c r="C7" s="70">
+        <f t="shared" si="0"/>
+        <v>0.36249999999999982</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>2.6715</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.36249999999999982</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.1</v>
+      </c>
+      <c r="B8">
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="C8" s="70">
+        <f t="shared" si="0"/>
+        <v>0.23060000000000036</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.23060000000000036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.15</v>
+      </c>
+      <c r="B9">
+        <v>2.0783999999999998</v>
+      </c>
+      <c r="C9" s="70">
+        <f t="shared" si="0"/>
+        <v>0.16859999999999986</v>
+      </c>
+      <c r="E9">
+        <v>0.15</v>
+      </c>
+      <c r="F9">
+        <v>2.0783999999999998</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.16859999999999986</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.2</v>
+      </c>
+      <c r="B10">
+        <v>1.9097999999999999</v>
+      </c>
+      <c r="C10" s="70">
+        <f t="shared" si="0"/>
+        <v>0.13219999999999987</v>
+      </c>
+      <c r="E10">
+        <v>0.2</v>
+      </c>
+      <c r="F10">
+        <v>1.9097999999999999</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.13219999999999987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>0.25</v>
+      </c>
+      <c r="B11">
+        <v>1.7776000000000001</v>
+      </c>
+      <c r="C11" s="70">
+        <f t="shared" si="0"/>
+        <v>0.10790000000000011</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+      <c r="F11">
+        <v>1.7776000000000001</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.10790000000000011</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.3</v>
+      </c>
+      <c r="B12">
+        <v>1.6697</v>
+      </c>
+      <c r="C12" s="70">
+        <f t="shared" si="0"/>
+        <v>9.0700000000000003E-2</v>
+      </c>
+      <c r="E12">
+        <v>0.3</v>
+      </c>
+      <c r="F12">
+        <v>1.6697</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>9.0700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.35</v>
+      </c>
+      <c r="B13">
+        <v>1.579</v>
+      </c>
+      <c r="C13" s="70">
+        <f t="shared" si="0"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
+      <c r="E13">
+        <v>0.35</v>
+      </c>
+      <c r="F13">
+        <v>1.579</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>7.8000000000000069E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.4</v>
+      </c>
+      <c r="B14">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="C14" s="70">
+        <f t="shared" si="0"/>
+        <v>6.8199999999999816E-2</v>
+      </c>
+      <c r="E14">
+        <v>0.4</v>
+      </c>
+      <c r="F14">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>6.8199999999999816E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.45</v>
+      </c>
+      <c r="B15">
+        <v>1.4328000000000001</v>
+      </c>
+      <c r="C15" s="70">
+        <f t="shared" si="0"/>
+        <v>6.030000000000002E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.45</v>
+      </c>
+      <c r="F15">
+        <v>1.4328000000000001</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>6.030000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>0.5</v>
+      </c>
+      <c r="B16">
+        <v>1.3725000000000001</v>
+      </c>
+      <c r="C16" s="70">
+        <f t="shared" si="0"/>
+        <v>1.3725000000000001</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>1.3725000000000001</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.3725000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" t="s">
+        <v>90</v>
+      </c>
+      <c r="F20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21">
+        <v>5.9282411169999998</v>
+      </c>
+      <c r="D21">
+        <v>3.7585000000000002</v>
+      </c>
+      <c r="E21">
+        <v>1E-3</v>
+      </c>
+      <c r="F21" s="59">
+        <v>3.7585000000000002</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" t="str">
+        <f>"{"&amp;E21&amp;","&amp;F21&amp;"}"</f>
+        <v>{0.001,3.7585}</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22">
+        <v>-5.9043785340000001</v>
+      </c>
+      <c r="D22">
+        <v>2.6715</v>
+      </c>
+      <c r="E22">
+        <v>0.05</v>
+      </c>
+      <c r="F22" s="59">
+        <v>2.6715</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" t="str">
+        <f t="shared" ref="H22:H31" si="2">"{"&amp;E22&amp;","&amp;F22&amp;"}"</f>
+        <v>{0.05,2.6715}</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23">
+        <v>2.883240196</v>
+      </c>
+      <c r="D23">
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="E23">
+        <v>0.1</v>
+      </c>
+      <c r="F23" s="59">
+        <v>2.3090000000000002</v>
+      </c>
+      <c r="G23" s="59"/>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>{0.1,2.309}</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>2.0783999999999998</v>
+      </c>
+      <c r="E24">
+        <v>0.15</v>
+      </c>
+      <c r="F24" s="59">
+        <v>2.0783999999999998</v>
+      </c>
+      <c r="G24" s="59"/>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>{0.15,2.0784}</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25">
+        <v>1.9097999999999999</v>
+      </c>
+      <c r="E25">
+        <v>0.2</v>
+      </c>
+      <c r="F25" s="59">
+        <v>1.9097999999999999</v>
+      </c>
+      <c r="G25" s="59"/>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>{0.2,1.9098}</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26">
+        <v>5.9281800000000002</v>
+      </c>
+      <c r="D26">
+        <v>1.7776000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="59">
+        <v>1.7776000000000001</v>
+      </c>
+      <c r="G26" s="59"/>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>{0.25,1.7776}</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27">
+        <v>-5.9043400000000004</v>
+      </c>
+      <c r="D27">
+        <v>1.6697</v>
+      </c>
+      <c r="E27">
+        <v>0.3</v>
+      </c>
+      <c r="F27" s="59">
+        <v>1.6697</v>
+      </c>
+      <c r="G27" s="59"/>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>{0.3,1.6697}</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28">
+        <v>2.8832399999999998</v>
+      </c>
+      <c r="D28">
+        <v>1.579</v>
+      </c>
+      <c r="E28">
+        <v>0.35</v>
+      </c>
+      <c r="F28" s="59">
+        <v>1.579</v>
+      </c>
+      <c r="G28" s="59"/>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>{0.35,1.579}</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="E29">
+        <v>0.4</v>
+      </c>
+      <c r="F29" s="59">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="G29" s="59"/>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>{0.4,1.501}</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1.4328000000000001</v>
+      </c>
+      <c r="E30">
+        <v>0.45</v>
+      </c>
+      <c r="F30" s="59">
+        <v>1.4328000000000001</v>
+      </c>
+      <c r="G30" s="59"/>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>{0.45,1.4328}</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1.3725000000000001</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+      <c r="F31" s="59">
+        <v>1.3725000000000001</v>
+      </c>
+      <c r="G31" s="59"/>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>{0.5,1.3725}</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F32" s="71"/>
+      <c r="G32" s="72"/>
+      <c r="H32" t="str">
+        <f>H21&amp;","&amp;H22&amp;","&amp;H23&amp;","&amp;H24&amp;","&amp;H25&amp;","&amp;H26&amp;","&amp;H27&amp;","&amp;H28&amp;","&amp;H29&amp;","&amp;H30&amp;","&amp;H31</f>
+        <v>{0.001,3.7585},{0.05,2.6715},{0.1,2.309},{0.15,2.0784},{0.2,1.9098},{0.25,1.7776},{0.3,1.6697},{0.35,1.579},{0.4,1.501},{0.45,1.4328},{0.5,1.3725}</v>
+      </c>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>0.6</v>
+      </c>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>0.65</v>
+      </c>
+      <c r="F34" s="71"/>
+      <c r="G34" s="72"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>0.7</v>
+      </c>
+      <c r="F35" s="71"/>
+      <c r="G35" s="72"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>0.75</v>
+      </c>
+      <c r="F36" s="71"/>
+      <c r="G36" s="72"/>
+      <c r="H36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>0.8</v>
+      </c>
+      <c r="F37" s="71"/>
+      <c r="G37" s="72"/>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>0.85</v>
+      </c>
+      <c r="F38" s="71"/>
+      <c r="G38" s="72"/>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>0.9</v>
+      </c>
+      <c r="F39" s="71"/>
+      <c r="G39" s="72"/>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>0.95</v>
+      </c>
+      <c r="F40" s="71"/>
+      <c r="G40" s="72"/>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" s="71"/>
+      <c r="G41" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Resources/PartBalance.xlsx
+++ b/Resources/PartBalance.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="BaseStats" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,12 @@
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="100">
   <si>
     <t>Repulsor</t>
   </si>
@@ -343,10 +343,13 @@
     <t>mgc from solver</t>
   </si>
   <si>
-    <t>{{0.001,3.7585},{0.05,2.6715},{0.1,2.309},{0.15,2.0784},{0.2,1.9098},{0.25,1.7776},{0.3,1.6697},{0.35,1.579},{0.4,1.501},{0.45,1.4328},{0.5,1.3725}}</t>
+    <t>mgc from wolfram</t>
   </si>
   <si>
-    <t>mgc from wolfram</t>
+    <t>pf 0 ratings -- why the F are they different?  When all other points use the same values?</t>
+  </si>
+  <si>
+    <t>eff</t>
   </si>
 </sst>
 </file>
@@ -2803,11 +2806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152999808"/>
-        <c:axId val="153001344"/>
+        <c:axId val="242917816"/>
+        <c:axId val="242918208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152999808"/>
+        <c:axId val="242917816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,12 +2867,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="153001344"/>
+        <c:crossAx val="242918208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="153001344"/>
+        <c:axId val="242918208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2926,7 +2929,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152999808"/>
+        <c:crossAx val="242917816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4614,304 +4617,304 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0582353974546733E-2</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1080194711126207E-2</c:v>
+                  <c:v>2.0000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1491444015362169E-2</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.1813954992237869E-2</c:v>
+                  <c:v>4.0000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10204550918356921</c:v>
+                  <c:v>4.9999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.12218381356114935</c:v>
+                  <c:v>6.0000000000000012E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14222649736700138</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.16217110879159394</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.1820151114802393</c:v>
+                  <c:v>9.0000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.20175588085721691</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22139070025643051</c:v>
+                  <c:v>0.11000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.24091675684661182</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.26033113733823338</c:v>
+                  <c:v>0.13000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27963082345836099</c:v>
+                  <c:v>0.14000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2988126871786812</c:v>
+                  <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31787348568085072</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33680985604214309</c:v>
+                  <c:v>0.16999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.35561830962309454</c:v>
+                  <c:v>0.18000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.37429522613746891</c:v>
+                  <c:v>0.18999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.39283684738336427</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.41123927061265109</c:v>
+                  <c:v>0.21000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.42949844151416616</c:v>
+                  <c:v>0.22000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4476101467841514</c:v>
+                  <c:v>0.23000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.46557000625533373</c:v>
+                  <c:v>0.24000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.48337346455374897</c:v>
+                  <c:v>0.25000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.50101578224991949</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.51849202646826642</c:v>
+                  <c:v>0.27000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.53579706091566071</c:v>
+                  <c:v>0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.55292553528676069</c:v>
+                  <c:v>0.29000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.56987187400020933</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.58663026421586906</c:v>
+                  <c:v>0.30999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.60319464307897219</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.61955868413237059</c:v>
+                  <c:v>0.33</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.63571578283288666</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.65165904110209139</c:v>
+                  <c:v>0.35000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.66738125083555822</c:v>
+                  <c:v>0.36000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.68287487628775101</c:v>
+                  <c:v>0.37000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.69813203524207368</c:v>
+                  <c:v>0.38000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.71314447886720567</c:v>
+                  <c:v>0.39000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.72790357015152796</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.74240026079715471</c:v>
+                  <c:v>0.40999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.75662506644365157</c:v>
+                  <c:v>0.4200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.77056804007885449</c:v>
+                  <c:v>0.4300000000000001</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.78421874348012355</c:v>
+                  <c:v>0.44000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.79756621651368564</c:v>
+                  <c:v>0.45</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.81059894410228672</c:v>
+                  <c:v>0.45999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.82330482065188981</c:v>
+                  <c:v>0.47000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.83567111170642927</c:v>
+                  <c:v>0.48000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.84768441257531135</c:v>
+                  <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.85933060365110925</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.87059480210437379</c:v>
+                  <c:v>0.51000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.8814613096081515</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.891913555706214</c:v>
+                  <c:v>0.53</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.9019340363955024</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.91150424744421243</c:v>
+                  <c:v>0.55000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.92060461191144938</c:v>
+                  <c:v>0.56000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.92921440127155985</c:v>
+                  <c:v>0.57000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.93731164947497114</c:v>
+                  <c:v>0.58000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.94487305919637898</c:v>
+                  <c:v>0.59000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.9518738994289212</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.95828789347780752</c:v>
+                  <c:v>0.6100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.96408709628667322</c:v>
+                  <c:v>0.62</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.96924175989229144</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.9737201856453227</c:v>
+                  <c:v>0.64000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.97748856165313691</c:v>
+                  <c:v>0.64999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.98051078369140132</c:v>
+                  <c:v>0.65999999999999992</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.9827482575892772</c:v>
+                  <c:v>0.67</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.98415968081305982</c:v>
+                  <c:v>0.67999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.98470080064806564</c:v>
+                  <c:v>0.69000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.98432414600036189</c:v>
+                  <c:v>0.70000000000000029</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.9829787293986858</c:v>
+                  <c:v>0.7100000000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.98060971526073737</c:v>
+                  <c:v>0.71999999999999986</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.97715804988250177</c:v>
+                  <c:v>0.72999999999999987</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.97256004789690242</c:v>
+                  <c:v>0.74</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.96674692910749793</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.95964429860793277</c:v>
+                  <c:v>0.76000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.95117156191632157</c:v>
+                  <c:v>0.76999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.94124126544593856</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.92975835095034176</c:v>
+                  <c:v>0.79000000000000015</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.91661931056118318</c:v>
+                  <c:v>0.79999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.90171122660390257</c:v>
+                  <c:v>0.80999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.88491067743421226</c:v>
+                  <c:v>0.82000000000000006</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.86608248696551104</c:v>
+                  <c:v>0.83000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.84507829120031042</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.82173488974137321</c:v>
+                  <c:v>0.85000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.79587234368918136</c:v>
+                  <c:v>0.8600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.7672917732074247</c:v>
+                  <c:v>0.87000000000000011</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.73577279793694983</c:v>
+                  <c:v>0.88000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.70107055081202985</c:v>
+                  <c:v>0.8899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.66291217995942708</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.62099273328552229</c:v>
+                  <c:v>0.91000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.57497029480656048</c:v>
+                  <c:v>0.92</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.52446020904081769</c:v>
+                  <c:v>0.92999999999999994</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.46902818754118625</c:v>
+                  <c:v>0.94000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.408182036734277</c:v>
+                  <c:v>0.95000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.34136167427795788</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.26792700606693509</c:v>
+                  <c:v>0.97</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.18714310923957489</c:v>
+                  <c:v>0.98</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>9.816199587860748E-2</c:v>
+                  <c:v>0.99</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4926,11 +4929,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152744704"/>
-        <c:axId val="152746240"/>
+        <c:axId val="242915464"/>
+        <c:axId val="242915856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152744704"/>
+        <c:axId val="242915464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,12 +4990,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152746240"/>
+        <c:crossAx val="242915856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152746240"/>
+        <c:axId val="242915856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5049,7 +5052,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152744704"/>
+        <c:crossAx val="242915464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5359,11 +5362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152688896"/>
-        <c:axId val="152690688"/>
+        <c:axId val="242917032"/>
+        <c:axId val="143827048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152688896"/>
+        <c:axId val="242917032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5420,12 +5423,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152690688"/>
+        <c:crossAx val="143827048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152690688"/>
+        <c:axId val="143827048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5482,7 +5485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152688896"/>
+        <c:crossAx val="242917032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5646,6 +5649,95 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$E$21:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$F$21:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.8773417457071169</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6028418720925002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3520847537699998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1309688410324998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.93949413388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7776606323124999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.64546833633</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5429172459325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4700073611200002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4267386818925001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4131112082499999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -5654,11 +5746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152786432"/>
-        <c:axId val="152787968"/>
+        <c:axId val="187776936"/>
+        <c:axId val="187771448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152786432"/>
+        <c:axId val="187776936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5668,12 +5760,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152787968"/>
+        <c:crossAx val="187771448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152787968"/>
+        <c:axId val="187771448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5684,7 +5776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152786432"/>
+        <c:crossAx val="187776936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5768,36 +5860,6 @@
                 <c:pt idx="10">
                   <c:v>0.5</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5808,37 +5870,37 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>3.7585000000000002</c:v>
+                  <c:v>2.8773417457071169</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6715</c:v>
+                  <c:v>2.6028418720925002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3090000000000002</c:v>
+                  <c:v>2.3520847537699998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0783999999999998</c:v>
+                  <c:v>2.1309688410324998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9097999999999999</c:v>
+                  <c:v>1.93949413388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7776000000000001</c:v>
+                  <c:v>1.7776606323124999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.6697</c:v>
+                  <c:v>1.64546833633</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.579</c:v>
+                  <c:v>1.5429172459325</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5009999999999999</c:v>
+                  <c:v>1.4700073611200002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.4328000000000001</c:v>
+                  <c:v>1.4267386818925001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3725000000000001</c:v>
+                  <c:v>1.4131112082499999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5853,11 +5915,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152807680"/>
-        <c:axId val="198967296"/>
+        <c:axId val="187771056"/>
+        <c:axId val="187773800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152807680"/>
+        <c:axId val="187771056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5867,12 +5929,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198967296"/>
+        <c:crossAx val="187773800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198967296"/>
+        <c:axId val="187773800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -5885,7 +5947,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152807680"/>
+        <c:crossAx val="187771056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7719,8 +7781,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>123826</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -7789,7 +7851,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7824,7 +7886,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -14734,8 +14796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14776,7 +14838,7 @@
       </c>
       <c r="J1" s="55">
         <f>L108</f>
-        <v>0.98470080064806564</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -14798,7 +14860,7 @@
       </c>
       <c r="J2">
         <f>K108</f>
-        <v>78069.421237720715</v>
+        <v>161009.86290936786</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -14810,7 +14872,7 @@
       </c>
       <c r="G3">
         <f>J2/F2</f>
-        <v>1.939494136</v>
+        <v>4</v>
       </c>
       <c r="K3" t="s">
         <v>81</v>
@@ -14821,7 +14883,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="57">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="59"/>
       <c r="E4" t="s">
@@ -14838,8 +14900,7 @@
         <v>79</v>
       </c>
       <c r="K4" s="60">
-        <f>5.92824117*B4^2 + -5.904378534*B4 + 2.883240196</f>
-        <v>1.939494136</v>
+        <v>4</v>
       </c>
       <c r="L4" t="s">
         <v>83</v>
@@ -14933,7 +14994,7 @@
       </c>
       <c r="K7">
         <f>J7 * $F$2 * $K$4</f>
-        <v>78069.421237720715</v>
+        <v>161009.86290936786</v>
       </c>
       <c r="L7">
         <f>IFERROR(H7/K7,1)</f>
@@ -14978,15 +15039,15 @@
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J71" si="8">(100-A8) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.99199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K71" si="9">J8 * $F$2 * $K$4</f>
-        <v>77444.865867818953</v>
+        <v>159399.76428027419</v>
       </c>
       <c r="L8">
         <f t="shared" ref="L8:L71" si="10">IFERROR(H8/K8,1)</f>
-        <v>2.0582353974546733E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -15027,15 +15088,15 @@
       </c>
       <c r="J9">
         <f t="shared" si="8"/>
-        <v>0.98399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="K9">
         <f t="shared" si="9"/>
-        <v>76820.310497917177</v>
+        <v>157789.66565118049</v>
       </c>
       <c r="L9">
         <f t="shared" si="10"/>
-        <v>4.1080194711126207E-2</v>
+        <v>2.0000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -15076,15 +15137,15 @@
       </c>
       <c r="J10">
         <f t="shared" si="8"/>
-        <v>0.97599999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="K10">
         <f t="shared" si="9"/>
-        <v>76195.755128015415</v>
+        <v>156179.56702208682</v>
       </c>
       <c r="L10">
         <f t="shared" si="10"/>
-        <v>6.1491444015362169E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -15125,15 +15186,15 @@
       </c>
       <c r="J11">
         <f t="shared" si="8"/>
-        <v>0.96799999999999997</v>
+        <v>0.96</v>
       </c>
       <c r="K11">
         <f t="shared" si="9"/>
-        <v>75571.199758113653</v>
+        <v>154569.46839299315</v>
       </c>
       <c r="L11">
         <f t="shared" si="10"/>
-        <v>8.1813954992237869E-2</v>
+        <v>4.0000000000000008E-2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -15174,15 +15235,15 @@
       </c>
       <c r="J12">
         <f t="shared" si="8"/>
-        <v>0.96000000000000019</v>
+        <v>0.95000000000000007</v>
       </c>
       <c r="K12">
         <f t="shared" si="9"/>
-        <v>74946.644388211906</v>
+        <v>152959.36976389948</v>
       </c>
       <c r="L12">
         <f t="shared" si="10"/>
-        <v>0.10204550918356921</v>
+        <v>4.9999999999999996E-2</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -15223,15 +15284,15 @@
       </c>
       <c r="J13">
         <f t="shared" si="8"/>
-        <v>0.95200000000000018</v>
+        <v>0.94000000000000006</v>
       </c>
       <c r="K13">
         <f t="shared" si="9"/>
-        <v>74322.089018310129</v>
+        <v>151349.27113480581</v>
       </c>
       <c r="L13">
         <f t="shared" si="10"/>
-        <v>0.12218381356114935</v>
+        <v>6.0000000000000012E-2</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -15272,15 +15333,15 @@
       </c>
       <c r="J14">
         <f t="shared" si="8"/>
-        <v>0.94400000000000017</v>
+        <v>0.93</v>
       </c>
       <c r="K14">
         <f t="shared" si="9"/>
-        <v>73697.533648408367</v>
+        <v>149739.17250571211</v>
       </c>
       <c r="L14">
         <f t="shared" si="10"/>
-        <v>0.14222649736700138</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -15321,15 +15382,15 @@
       </c>
       <c r="J15">
         <f t="shared" si="8"/>
-        <v>0.93600000000000017</v>
+        <v>0.92</v>
       </c>
       <c r="K15">
         <f t="shared" si="9"/>
-        <v>73072.978278506605</v>
+        <v>148129.07387661844</v>
       </c>
       <c r="L15">
         <f t="shared" si="10"/>
-        <v>0.16217110879159394</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -15370,15 +15431,15 @@
       </c>
       <c r="J16">
         <f t="shared" si="8"/>
-        <v>0.92800000000000016</v>
+        <v>0.91</v>
       </c>
       <c r="K16">
         <f t="shared" si="9"/>
-        <v>72448.422908604829</v>
+        <v>146518.97524752477</v>
       </c>
       <c r="L16">
         <f t="shared" si="10"/>
-        <v>0.1820151114802393</v>
+        <v>9.0000000000000011E-2</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -15419,15 +15480,15 @@
       </c>
       <c r="J17">
         <f t="shared" si="8"/>
-        <v>0.92000000000000015</v>
+        <v>0.9</v>
       </c>
       <c r="K17">
         <f t="shared" si="9"/>
-        <v>71823.867538703082</v>
+        <v>144908.87661843107</v>
       </c>
       <c r="L17">
         <f t="shared" si="10"/>
-        <v>0.20175588085721691</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -15468,15 +15529,15 @@
       </c>
       <c r="J18">
         <f t="shared" si="8"/>
-        <v>0.91200000000000014</v>
+        <v>0.89</v>
       </c>
       <c r="K18">
         <f t="shared" si="9"/>
-        <v>71199.312168801305</v>
+        <v>143298.7779893374</v>
       </c>
       <c r="L18">
         <f t="shared" si="10"/>
-        <v>0.22139070025643051</v>
+        <v>0.11000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -15517,15 +15578,15 @@
       </c>
       <c r="J19">
         <f t="shared" si="8"/>
-        <v>0.90400000000000014</v>
+        <v>0.88</v>
       </c>
       <c r="K19">
         <f t="shared" si="9"/>
-        <v>70574.756798899543</v>
+        <v>141688.67936024372</v>
       </c>
       <c r="L19">
         <f t="shared" si="10"/>
-        <v>0.24091675684661182</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -15566,15 +15627,15 @@
       </c>
       <c r="J20">
         <f t="shared" si="8"/>
-        <v>0.89600000000000013</v>
+        <v>0.87</v>
       </c>
       <c r="K20">
         <f t="shared" si="9"/>
-        <v>69950.201428997767</v>
+        <v>140078.58073115002</v>
       </c>
       <c r="L20">
         <f t="shared" si="10"/>
-        <v>0.26033113733823338</v>
+        <v>0.13000000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -15615,15 +15676,15 @@
       </c>
       <c r="J21">
         <f t="shared" si="8"/>
-        <v>0.88800000000000012</v>
+        <v>0.86</v>
       </c>
       <c r="K21">
         <f t="shared" si="9"/>
-        <v>69325.646059096005</v>
+        <v>138468.48210205635</v>
       </c>
       <c r="L21">
         <f t="shared" si="10"/>
-        <v>0.27963082345836099</v>
+        <v>0.14000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -15664,15 +15725,15 @@
       </c>
       <c r="J22">
         <f t="shared" si="8"/>
-        <v>0.88000000000000012</v>
+        <v>0.85</v>
       </c>
       <c r="K22">
         <f t="shared" si="9"/>
-        <v>68701.090689194229</v>
+        <v>136858.38347296268</v>
       </c>
       <c r="L22">
         <f t="shared" si="10"/>
-        <v>0.2988126871786812</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -15713,15 +15774,15 @@
       </c>
       <c r="J23">
         <f t="shared" si="8"/>
-        <v>0.87200000000000011</v>
+        <v>0.84</v>
       </c>
       <c r="K23">
         <f t="shared" si="9"/>
-        <v>68076.535319292467</v>
+        <v>135248.28484386901</v>
       </c>
       <c r="L23">
         <f t="shared" si="10"/>
-        <v>0.31787348568085072</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -15762,15 +15823,15 @@
       </c>
       <c r="J24">
         <f t="shared" si="8"/>
-        <v>0.8640000000000001</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="K24">
         <f t="shared" si="9"/>
-        <v>67451.979949390705</v>
+        <v>133638.18621477534</v>
       </c>
       <c r="L24">
         <f t="shared" si="10"/>
-        <v>0.33680985604214309</v>
+        <v>0.16999999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -15811,15 +15872,15 @@
       </c>
       <c r="J25">
         <f t="shared" si="8"/>
-        <v>0.85600000000000009</v>
+        <v>0.82000000000000006</v>
       </c>
       <c r="K25">
         <f t="shared" si="9"/>
-        <v>66827.424579488943</v>
+        <v>132028.08758568164</v>
       </c>
       <c r="L25">
         <f t="shared" si="10"/>
-        <v>0.35561830962309454</v>
+        <v>0.18000000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -15860,15 +15921,15 @@
       </c>
       <c r="J26">
         <f t="shared" si="8"/>
-        <v>0.84800000000000009</v>
+        <v>0.81</v>
       </c>
       <c r="K26">
         <f t="shared" si="9"/>
-        <v>66202.869209587181</v>
+        <v>130417.98895658797</v>
       </c>
       <c r="L26">
         <f t="shared" si="10"/>
-        <v>0.37429522613746891</v>
+        <v>0.18999999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -15909,15 +15970,15 @@
       </c>
       <c r="J27">
         <f t="shared" si="8"/>
-        <v>0.84000000000000008</v>
+        <v>0.8</v>
       </c>
       <c r="K27">
         <f t="shared" si="9"/>
-        <v>65578.313839685405</v>
+        <v>128807.8903274943</v>
       </c>
       <c r="L27">
         <f t="shared" si="10"/>
-        <v>0.39283684738336427</v>
+        <v>0.19999999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -15958,15 +16019,15 @@
       </c>
       <c r="J28">
         <f t="shared" si="8"/>
-        <v>0.83200000000000007</v>
+        <v>0.79</v>
       </c>
       <c r="K28">
         <f t="shared" si="9"/>
-        <v>64953.758469783643</v>
+        <v>127197.79169840062</v>
       </c>
       <c r="L28">
         <f t="shared" si="10"/>
-        <v>0.41123927061265109</v>
+        <v>0.21000000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -16007,15 +16068,15 @@
       </c>
       <c r="J29">
         <f t="shared" si="8"/>
-        <v>0.82400000000000007</v>
+        <v>0.78</v>
       </c>
       <c r="K29">
         <f t="shared" si="9"/>
-        <v>64329.203099881874</v>
+        <v>125587.69306930693</v>
       </c>
       <c r="L29">
         <f t="shared" si="10"/>
-        <v>0.42949844151416616</v>
+        <v>0.22000000000000006</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -16056,15 +16117,15 @@
       </c>
       <c r="J30">
         <f t="shared" si="8"/>
-        <v>0.81600000000000006</v>
+        <v>0.77</v>
       </c>
       <c r="K30">
         <f t="shared" si="9"/>
-        <v>63704.647729980112</v>
+        <v>123977.59444021326</v>
       </c>
       <c r="L30">
         <f t="shared" si="10"/>
-        <v>0.4476101467841514</v>
+        <v>0.23000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -16105,15 +16166,15 @@
       </c>
       <c r="J31">
         <f t="shared" si="8"/>
-        <v>0.80800000000000005</v>
+        <v>0.76</v>
       </c>
       <c r="K31">
         <f t="shared" si="9"/>
-        <v>63080.092360078343</v>
+        <v>122367.49581111957</v>
       </c>
       <c r="L31">
         <f t="shared" si="10"/>
-        <v>0.46557000625533373</v>
+        <v>0.24000000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -16154,15 +16215,15 @@
       </c>
       <c r="J32">
         <f t="shared" si="8"/>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="K32">
         <f t="shared" si="9"/>
-        <v>62455.536990176581</v>
+        <v>120757.39718202589</v>
       </c>
       <c r="L32">
         <f t="shared" si="10"/>
-        <v>0.48337346455374897</v>
+        <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
@@ -16203,15 +16264,15 @@
       </c>
       <c r="J33">
         <f t="shared" si="8"/>
-        <v>0.79200000000000004</v>
+        <v>0.74</v>
       </c>
       <c r="K33">
         <f t="shared" si="9"/>
-        <v>61830.981620274812</v>
+        <v>119147.29855293222</v>
       </c>
       <c r="L33">
         <f t="shared" si="10"/>
-        <v>0.50101578224991949</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
@@ -16252,15 +16313,15 @@
       </c>
       <c r="J34">
         <f t="shared" si="8"/>
-        <v>0.78400000000000003</v>
+        <v>0.73</v>
       </c>
       <c r="K34">
         <f t="shared" si="9"/>
-        <v>61206.426250373042</v>
+        <v>117537.19992383853</v>
       </c>
       <c r="L34">
         <f t="shared" si="10"/>
-        <v>0.51849202646826642</v>
+        <v>0.27000000000000007</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -16301,15 +16362,15 @@
       </c>
       <c r="J35">
         <f t="shared" si="8"/>
-        <v>0.77600000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="K35">
         <f t="shared" si="9"/>
-        <v>60581.870880471281</v>
+        <v>115927.10129474486</v>
       </c>
       <c r="L35">
         <f t="shared" si="10"/>
-        <v>0.53579706091566071</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -16350,15 +16411,15 @@
       </c>
       <c r="J36">
         <f t="shared" si="8"/>
-        <v>0.76800000000000002</v>
+        <v>0.71</v>
       </c>
       <c r="K36">
         <f t="shared" si="9"/>
-        <v>59957.315510569511</v>
+        <v>114317.00266565118</v>
       </c>
       <c r="L36">
         <f t="shared" si="10"/>
-        <v>0.55292553528676069</v>
+        <v>0.29000000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -16399,15 +16460,15 @@
       </c>
       <c r="J37">
         <f t="shared" si="8"/>
-        <v>0.76</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="K37">
         <f t="shared" si="9"/>
-        <v>59332.760140667742</v>
+        <v>112706.90403655752</v>
       </c>
       <c r="L37">
         <f t="shared" si="10"/>
-        <v>0.56987187400020933</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -16448,15 +16509,15 @@
       </c>
       <c r="J38">
         <f t="shared" si="8"/>
-        <v>0.752</v>
+        <v>0.69000000000000006</v>
       </c>
       <c r="K38">
         <f t="shared" si="9"/>
-        <v>58708.204770765973</v>
+        <v>111096.80540746383</v>
       </c>
       <c r="L38">
         <f t="shared" si="10"/>
-        <v>0.58663026421586906</v>
+        <v>0.30999999999999994</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -16497,15 +16558,15 @@
       </c>
       <c r="J39">
         <f t="shared" si="8"/>
-        <v>0.74399999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="K39">
         <f t="shared" si="9"/>
-        <v>58083.649400864211</v>
+        <v>109486.70677837015</v>
       </c>
       <c r="L39">
         <f t="shared" si="10"/>
-        <v>0.60319464307897219</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -16546,15 +16607,15 @@
       </c>
       <c r="J40">
         <f t="shared" si="8"/>
-        <v>0.73599999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="K40">
         <f t="shared" si="9"/>
-        <v>57459.094030962442</v>
+        <v>107876.60814927648</v>
       </c>
       <c r="L40">
         <f t="shared" si="10"/>
-        <v>0.61955868413237059</v>
+        <v>0.33</v>
       </c>
       <c r="O40" s="61" t="s">
         <v>84</v>
@@ -16610,15 +16671,15 @@
       </c>
       <c r="J41">
         <f t="shared" si="8"/>
-        <v>0.72799999999999998</v>
+        <v>0.66</v>
       </c>
       <c r="K41">
         <f t="shared" si="9"/>
-        <v>56834.538661060673</v>
+        <v>106266.50952018279</v>
       </c>
       <c r="L41">
         <f t="shared" si="10"/>
-        <v>0.63571578283288666</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="O41" s="64">
         <v>0</v>
@@ -16678,15 +16739,15 @@
       </c>
       <c r="J42">
         <f t="shared" si="8"/>
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="K42">
         <f t="shared" si="9"/>
-        <v>56209.983291158918</v>
+        <v>104656.41089108911</v>
       </c>
       <c r="L42">
         <f t="shared" si="10"/>
-        <v>0.65165904110209139</v>
+        <v>0.35000000000000009</v>
       </c>
       <c r="O42" s="64">
         <v>0.05</v>
@@ -16748,15 +16809,15 @@
       </c>
       <c r="J43">
         <f t="shared" si="8"/>
-        <v>0.71199999999999997</v>
+        <v>0.64</v>
       </c>
       <c r="K43">
         <f t="shared" si="9"/>
-        <v>55585.427921257149</v>
+        <v>103046.31226199544</v>
       </c>
       <c r="L43">
         <f t="shared" si="10"/>
-        <v>0.66738125083555822</v>
+        <v>0.36000000000000004</v>
       </c>
       <c r="O43" s="64">
         <v>0.1</v>
@@ -16818,15 +16879,15 @@
       </c>
       <c r="J44">
         <f t="shared" si="8"/>
-        <v>0.70399999999999996</v>
+        <v>0.63</v>
       </c>
       <c r="K44">
         <f t="shared" si="9"/>
-        <v>54960.87255135538</v>
+        <v>101436.21363290175</v>
       </c>
       <c r="L44">
         <f t="shared" si="10"/>
-        <v>0.68287487628775101</v>
+        <v>0.37000000000000005</v>
       </c>
       <c r="O44" s="64">
         <v>0.15</v>
@@ -16888,15 +16949,15 @@
       </c>
       <c r="J45">
         <f t="shared" si="8"/>
-        <v>0.69599999999999995</v>
+        <v>0.62</v>
       </c>
       <c r="K45">
         <f t="shared" si="9"/>
-        <v>54336.317181453618</v>
+        <v>99826.115003808067</v>
       </c>
       <c r="L45">
         <f t="shared" si="10"/>
-        <v>0.69813203524207368</v>
+        <v>0.38000000000000006</v>
       </c>
       <c r="O45" s="64">
         <v>0.2</v>
@@ -16958,15 +17019,15 @@
       </c>
       <c r="J46">
         <f t="shared" si="8"/>
-        <v>0.68799999999999994</v>
+        <v>0.61</v>
       </c>
       <c r="K46">
         <f t="shared" si="9"/>
-        <v>53711.761811551849</v>
+        <v>98216.016374714396</v>
       </c>
       <c r="L46">
         <f t="shared" si="10"/>
-        <v>0.71314447886720567</v>
+        <v>0.39000000000000007</v>
       </c>
       <c r="O46" s="64">
         <v>0.25</v>
@@ -17028,15 +17089,15 @@
       </c>
       <c r="J47">
         <f t="shared" si="8"/>
-        <v>0.67999999999999994</v>
+        <v>0.6</v>
       </c>
       <c r="K47">
         <f t="shared" si="9"/>
-        <v>53087.20644165008</v>
+        <v>96605.917745620711</v>
       </c>
       <c r="L47">
         <f t="shared" si="10"/>
-        <v>0.72790357015152796</v>
+        <v>0.4</v>
       </c>
       <c r="O47" s="64">
         <v>0.3</v>
@@ -17098,15 +17159,15 @@
       </c>
       <c r="J48">
         <f t="shared" si="8"/>
-        <v>0.67199999999999993</v>
+        <v>0.59</v>
       </c>
       <c r="K48">
         <f t="shared" si="9"/>
-        <v>52462.651071748318</v>
+        <v>94995.81911652704</v>
       </c>
       <c r="L48">
         <f t="shared" si="10"/>
-        <v>0.74240026079715471</v>
+        <v>0.40999999999999992</v>
       </c>
       <c r="O48" s="64">
         <v>0.35</v>
@@ -17168,15 +17229,15 @@
       </c>
       <c r="J49">
         <f t="shared" si="8"/>
-        <v>0.66399999999999992</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="K49">
         <f t="shared" si="9"/>
-        <v>51838.095701846549</v>
+        <v>93385.720487433355</v>
       </c>
       <c r="L49">
         <f t="shared" si="10"/>
-        <v>0.75662506644365157</v>
+        <v>0.4200000000000001</v>
       </c>
       <c r="O49" s="64">
         <v>0.4</v>
@@ -17238,15 +17299,15 @@
       </c>
       <c r="J50">
         <f t="shared" si="8"/>
-        <v>0.65600000000000014</v>
+        <v>0.57000000000000006</v>
       </c>
       <c r="K50">
         <f t="shared" si="9"/>
-        <v>51213.540331944801</v>
+        <v>91775.621858339684</v>
       </c>
       <c r="L50">
         <f t="shared" si="10"/>
-        <v>0.77056804007885449</v>
+        <v>0.4300000000000001</v>
       </c>
       <c r="O50" s="64">
         <v>0.45</v>
@@ -17308,15 +17369,15 @@
       </c>
       <c r="J51">
         <f t="shared" si="8"/>
-        <v>0.64800000000000013</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="K51">
         <f t="shared" si="9"/>
-        <v>50588.984962043032</v>
+        <v>90165.523229246013</v>
       </c>
       <c r="L51">
         <f t="shared" si="10"/>
-        <v>0.78421874348012355</v>
+        <v>0.44000000000000006</v>
       </c>
       <c r="O51" s="64">
         <v>0.5</v>
@@ -17378,15 +17439,15 @@
       </c>
       <c r="J52">
         <f t="shared" si="8"/>
-        <v>0.64000000000000012</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="K52">
         <f t="shared" si="9"/>
-        <v>49964.42959214127</v>
+        <v>88555.424600152328</v>
       </c>
       <c r="L52">
         <f t="shared" si="10"/>
-        <v>0.79756621651368564</v>
+        <v>0.45</v>
       </c>
       <c r="O52" s="64"/>
       <c r="P52" s="65"/>
@@ -17434,15 +17495,15 @@
       </c>
       <c r="J53">
         <f t="shared" si="8"/>
-        <v>0.63200000000000012</v>
+        <v>0.54</v>
       </c>
       <c r="K53">
         <f t="shared" si="9"/>
-        <v>49339.874222239501</v>
+        <v>86945.325971058657</v>
       </c>
       <c r="L53">
         <f t="shared" si="10"/>
-        <v>0.81059894410228672</v>
+        <v>0.45999999999999991</v>
       </c>
       <c r="O53" s="64"/>
       <c r="P53" s="65" t="s">
@@ -17492,15 +17553,15 @@
       </c>
       <c r="J54">
         <f t="shared" si="8"/>
-        <v>0.62400000000000011</v>
+        <v>0.53</v>
       </c>
       <c r="K54">
         <f t="shared" si="9"/>
-        <v>48715.318852337732</v>
+        <v>85335.227341964972</v>
       </c>
       <c r="L54">
         <f t="shared" si="10"/>
-        <v>0.82330482065188981</v>
+        <v>0.47000000000000008</v>
       </c>
       <c r="O54" s="64"/>
       <c r="P54" s="65" t="s">
@@ -17550,15 +17611,15 @@
       </c>
       <c r="J55">
         <f t="shared" si="8"/>
-        <v>0.6160000000000001</v>
+        <v>0.52</v>
       </c>
       <c r="K55">
         <f t="shared" si="9"/>
-        <v>48090.76348243597</v>
+        <v>83725.128712871287</v>
       </c>
       <c r="L55">
         <f t="shared" si="10"/>
-        <v>0.83567111170642927</v>
+        <v>0.48000000000000004</v>
       </c>
       <c r="O55" s="64"/>
       <c r="P55" s="65"/>
@@ -17606,15 +17667,15 @@
       </c>
       <c r="J56">
         <f t="shared" si="8"/>
-        <v>0.6080000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="K56">
         <f t="shared" si="9"/>
-        <v>47466.208112534201</v>
+        <v>82115.030083777616</v>
       </c>
       <c r="L56">
         <f t="shared" si="10"/>
-        <v>0.84768441257531135</v>
+        <v>0.49</v>
       </c>
       <c r="O56" s="64"/>
       <c r="P56" s="65"/>
@@ -17662,15 +17723,15 @@
       </c>
       <c r="J57">
         <f t="shared" si="8"/>
-        <v>0.60000000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="K57">
         <f t="shared" si="9"/>
-        <v>46841.652742632432</v>
+        <v>80504.93145468393</v>
       </c>
       <c r="L57">
         <f t="shared" si="10"/>
-        <v>0.85933060365110925</v>
+        <v>0.5</v>
       </c>
       <c r="O57" s="64"/>
       <c r="P57" s="65"/>
@@ -17718,15 +17779,15 @@
       </c>
       <c r="J58">
         <f t="shared" si="8"/>
-        <v>0.59200000000000008</v>
+        <v>0.49</v>
       </c>
       <c r="K58">
         <f t="shared" si="9"/>
-        <v>46217.09737273067</v>
+        <v>78894.832825590245</v>
       </c>
       <c r="L58">
         <f t="shared" si="10"/>
-        <v>0.87059480210437379</v>
+        <v>0.51000000000000012</v>
       </c>
       <c r="O58" s="64"/>
       <c r="P58" s="65"/>
@@ -17774,15 +17835,15 @@
       </c>
       <c r="J59">
         <f t="shared" si="8"/>
-        <v>0.58400000000000007</v>
+        <v>0.48</v>
       </c>
       <c r="K59">
         <f t="shared" si="9"/>
-        <v>45592.542002828908</v>
+        <v>77284.734196496574</v>
       </c>
       <c r="L59">
         <f t="shared" si="10"/>
-        <v>0.8814613096081515</v>
+        <v>0.52</v>
       </c>
       <c r="O59" s="64"/>
       <c r="P59" s="65"/>
@@ -17830,15 +17891,15 @@
       </c>
       <c r="J60">
         <f t="shared" si="8"/>
-        <v>0.57600000000000007</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="K60">
         <f t="shared" si="9"/>
-        <v>44967.986632927139</v>
+        <v>75674.635567402904</v>
       </c>
       <c r="L60">
         <f t="shared" si="10"/>
-        <v>0.891913555706214</v>
+        <v>0.53</v>
       </c>
       <c r="O60" s="64"/>
       <c r="P60" s="65"/>
@@ -17886,15 +17947,15 @@
       </c>
       <c r="J61">
         <f t="shared" si="8"/>
-        <v>0.56800000000000006</v>
+        <v>0.46</v>
       </c>
       <c r="K61">
         <f t="shared" si="9"/>
-        <v>44343.43126302537</v>
+        <v>74064.536938309218</v>
       </c>
       <c r="L61">
         <f t="shared" si="10"/>
-        <v>0.9019340363955024</v>
+        <v>0.54</v>
       </c>
       <c r="O61" s="64"/>
       <c r="P61" s="65"/>
@@ -17942,15 +18003,15 @@
       </c>
       <c r="J62">
         <f t="shared" si="8"/>
-        <v>0.56000000000000005</v>
+        <v>0.45</v>
       </c>
       <c r="K62">
         <f t="shared" si="9"/>
-        <v>43718.875893123608</v>
+        <v>72454.438309215533</v>
       </c>
       <c r="L62">
         <f t="shared" si="10"/>
-        <v>0.91150424744421243</v>
+        <v>0.55000000000000016</v>
       </c>
       <c r="O62" s="67"/>
       <c r="P62" s="68"/>
@@ -17998,15 +18059,15 @@
       </c>
       <c r="J63">
         <f t="shared" si="8"/>
-        <v>0.55200000000000005</v>
+        <v>0.44</v>
       </c>
       <c r="K63">
         <f t="shared" si="9"/>
-        <v>43094.320523221839</v>
+        <v>70844.339680121862</v>
       </c>
       <c r="L63">
         <f t="shared" si="10"/>
-        <v>0.92060461191144938</v>
+        <v>0.56000000000000016</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
@@ -18047,15 +18108,15 @@
       </c>
       <c r="J64">
         <f t="shared" si="8"/>
-        <v>0.54400000000000004</v>
+        <v>0.43</v>
       </c>
       <c r="K64">
         <f t="shared" si="9"/>
-        <v>42469.76515332007</v>
+        <v>69234.241051028177</v>
       </c>
       <c r="L64">
         <f t="shared" si="10"/>
-        <v>0.92921440127155985</v>
+        <v>0.57000000000000006</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -18096,15 +18157,15 @@
       </c>
       <c r="J65">
         <f t="shared" si="8"/>
-        <v>0.53600000000000003</v>
+        <v>0.42</v>
       </c>
       <c r="K65">
         <f t="shared" si="9"/>
-        <v>41845.209783418308</v>
+        <v>67624.142421934506</v>
       </c>
       <c r="L65">
         <f t="shared" si="10"/>
-        <v>0.93731164947497114</v>
+        <v>0.58000000000000007</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -18145,15 +18206,15 @@
       </c>
       <c r="J66">
         <f t="shared" si="8"/>
-        <v>0.52800000000000002</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="K66">
         <f t="shared" si="9"/>
-        <v>41220.654413516539</v>
+        <v>66014.043792840821</v>
       </c>
       <c r="L66">
         <f t="shared" si="10"/>
-        <v>0.94487305919637898</v>
+        <v>0.59000000000000008</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -18194,15 +18255,15 @@
       </c>
       <c r="J67">
         <f t="shared" si="8"/>
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="K67">
         <f t="shared" si="9"/>
-        <v>40596.099043614769</v>
+        <v>64403.94516374715</v>
       </c>
       <c r="L67">
         <f t="shared" si="10"/>
-        <v>0.9518738994289212</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
@@ -18243,15 +18304,15 @@
       </c>
       <c r="J68">
         <f t="shared" si="8"/>
-        <v>0.51200000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="K68">
         <f t="shared" si="9"/>
-        <v>39971.543673713008</v>
+        <v>62793.846534653465</v>
       </c>
       <c r="L68">
         <f t="shared" si="10"/>
-        <v>0.95828789347780752</v>
+        <v>0.6100000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -18292,15 +18353,15 @@
       </c>
       <c r="J69">
         <f t="shared" si="8"/>
-        <v>0.504</v>
+        <v>0.38</v>
       </c>
       <c r="K69">
         <f t="shared" si="9"/>
-        <v>39346.988303811238</v>
+        <v>61183.747905559787</v>
       </c>
       <c r="L69">
         <f t="shared" si="10"/>
-        <v>0.96408709628667322</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
@@ -18341,15 +18402,15 @@
       </c>
       <c r="J70">
         <f t="shared" si="8"/>
-        <v>0.496</v>
+        <v>0.37</v>
       </c>
       <c r="K70">
         <f t="shared" si="9"/>
-        <v>38722.432933909477</v>
+        <v>59573.649276466109</v>
       </c>
       <c r="L70">
         <f t="shared" si="10"/>
-        <v>0.96924175989229144</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
@@ -18390,15 +18451,15 @@
       </c>
       <c r="J71">
         <f t="shared" si="8"/>
-        <v>0.48799999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="K71">
         <f t="shared" si="9"/>
-        <v>38097.877564007707</v>
+        <v>57963.550647372431</v>
       </c>
       <c r="L71">
         <f t="shared" si="10"/>
-        <v>0.9737201856453227</v>
+        <v>0.64000000000000012</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
@@ -18439,15 +18500,15 @@
       </c>
       <c r="J72">
         <f t="shared" ref="J72:J107" si="21">(100-A72) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.48000000000000004</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="K72">
         <f t="shared" ref="K72:K107" si="22">J72 * $F$2 * $K$4</f>
-        <v>37473.322194105946</v>
+        <v>56353.45201827876</v>
       </c>
       <c r="L72">
         <f t="shared" ref="L72:L107" si="23">IFERROR(H72/K72,1)</f>
-        <v>0.97748856165313691</v>
+        <v>0.64999999999999991</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
@@ -18488,15 +18549,15 @@
       </c>
       <c r="J73">
         <f t="shared" si="21"/>
-        <v>0.47200000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="K73">
         <f t="shared" si="22"/>
-        <v>36848.766824204176</v>
+        <v>54743.353389185075</v>
       </c>
       <c r="L73">
         <f t="shared" si="23"/>
-        <v>0.98051078369140132</v>
+        <v>0.65999999999999992</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
@@ -18537,15 +18598,15 @@
       </c>
       <c r="J74">
         <f t="shared" si="21"/>
-        <v>0.46400000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="K74">
         <f t="shared" si="22"/>
-        <v>36224.211454302414</v>
+        <v>53133.254760091397</v>
       </c>
       <c r="L74">
         <f t="shared" si="23"/>
-        <v>0.9827482575892772</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
@@ -18586,15 +18647,15 @@
       </c>
       <c r="J75">
         <f t="shared" si="21"/>
-        <v>0.45600000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="K75">
         <f t="shared" si="22"/>
-        <v>35599.656084400653</v>
+        <v>51523.156130997719</v>
       </c>
       <c r="L75">
         <f t="shared" si="23"/>
-        <v>0.98415968081305982</v>
+        <v>0.67999999999999994</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
@@ -18635,15 +18696,15 @@
       </c>
       <c r="J76">
         <f t="shared" si="21"/>
-        <v>0.44800000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="K76">
         <f t="shared" si="22"/>
-        <v>34975.100714498883</v>
+        <v>49913.057501904033</v>
       </c>
       <c r="L76">
         <f t="shared" si="23"/>
-        <v>0.98470080064806564</v>
+        <v>0.69000000000000006</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -18684,15 +18745,15 @@
       </c>
       <c r="J77">
         <f t="shared" si="21"/>
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="K77">
         <f t="shared" si="22"/>
-        <v>34350.545344597114</v>
+        <v>48302.958872810355</v>
       </c>
       <c r="L77">
         <f t="shared" si="23"/>
-        <v>0.98432414600036189</v>
+        <v>0.70000000000000029</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
@@ -18733,15 +18794,15 @@
       </c>
       <c r="J78">
         <f t="shared" si="21"/>
-        <v>0.432</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K78">
         <f t="shared" si="22"/>
-        <v>33725.989974695352</v>
+        <v>46692.860243716677</v>
       </c>
       <c r="L78">
         <f t="shared" si="23"/>
-        <v>0.9829787293986858</v>
+        <v>0.7100000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -18782,15 +18843,15 @@
       </c>
       <c r="J79">
         <f t="shared" si="21"/>
-        <v>0.42400000000000004</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="K79">
         <f t="shared" si="22"/>
-        <v>33101.434604793591</v>
+        <v>45082.761614623007</v>
       </c>
       <c r="L79">
         <f t="shared" si="23"/>
-        <v>0.98060971526073737</v>
+        <v>0.71999999999999986</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -18831,15 +18892,15 @@
       </c>
       <c r="J80">
         <f t="shared" si="21"/>
-        <v>0.41600000000000004</v>
+        <v>0.27</v>
       </c>
       <c r="K80">
         <f t="shared" si="22"/>
-        <v>32476.879234891821</v>
+        <v>43472.662985529329</v>
       </c>
       <c r="L80">
         <f t="shared" si="23"/>
-        <v>0.97715804988250177</v>
+        <v>0.72999999999999987</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
@@ -18880,15 +18941,15 @@
       </c>
       <c r="J81">
         <f t="shared" si="21"/>
-        <v>0.40800000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="K81">
         <f t="shared" si="22"/>
-        <v>31852.323864990056</v>
+        <v>41862.564356435643</v>
       </c>
       <c r="L81">
         <f t="shared" si="23"/>
-        <v>0.97256004789690242</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -18929,15 +18990,15 @@
       </c>
       <c r="J82">
         <f t="shared" si="21"/>
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="K82">
         <f t="shared" si="22"/>
-        <v>31227.76849508829</v>
+        <v>40252.465727341965</v>
       </c>
       <c r="L82">
         <f t="shared" si="23"/>
-        <v>0.96674692910749793</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
@@ -18978,15 +19039,15 @@
       </c>
       <c r="J83">
         <f t="shared" si="21"/>
-        <v>0.39200000000000002</v>
+        <v>0.24</v>
       </c>
       <c r="K83">
         <f t="shared" si="22"/>
-        <v>30603.213125186521</v>
+        <v>38642.367098248287</v>
       </c>
       <c r="L83">
         <f t="shared" si="23"/>
-        <v>0.95964429860793277</v>
+        <v>0.76000000000000012</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -19027,15 +19088,15 @@
       </c>
       <c r="J84">
         <f t="shared" si="21"/>
-        <v>0.38400000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="K84">
         <f t="shared" si="22"/>
-        <v>29978.657755284756</v>
+        <v>37032.268469154609</v>
       </c>
       <c r="L84">
         <f t="shared" si="23"/>
-        <v>0.95117156191632157</v>
+        <v>0.76999999999999991</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
@@ -19076,15 +19137,15 @@
       </c>
       <c r="J85">
         <f t="shared" si="21"/>
-        <v>0.376</v>
+        <v>0.22</v>
       </c>
       <c r="K85">
         <f t="shared" si="22"/>
-        <v>29354.102385382987</v>
+        <v>35422.169840060931</v>
       </c>
       <c r="L85">
         <f t="shared" si="23"/>
-        <v>0.94124126544593856</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -19125,15 +19186,15 @@
       </c>
       <c r="J86">
         <f t="shared" si="21"/>
-        <v>0.36799999999999999</v>
+        <v>0.21</v>
       </c>
       <c r="K86">
         <f t="shared" si="22"/>
-        <v>28729.547015481221</v>
+        <v>33812.071210967253</v>
       </c>
       <c r="L86">
         <f t="shared" si="23"/>
-        <v>0.92975835095034176</v>
+        <v>0.79000000000000015</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -19174,15 +19235,15 @@
       </c>
       <c r="J87">
         <f t="shared" si="21"/>
-        <v>0.36000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="K87">
         <f t="shared" si="22"/>
-        <v>28104.991645579463</v>
+        <v>32201.972581873575</v>
       </c>
       <c r="L87">
         <f t="shared" si="23"/>
-        <v>0.91661931056118318</v>
+        <v>0.79999999999999993</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -19223,15 +19284,15 @@
       </c>
       <c r="J88">
         <f t="shared" si="21"/>
-        <v>0.35200000000000004</v>
+        <v>0.19</v>
       </c>
       <c r="K88">
         <f t="shared" si="22"/>
-        <v>27480.436275677694</v>
+        <v>30591.873952779893</v>
       </c>
       <c r="L88">
         <f t="shared" si="23"/>
-        <v>0.90171122660390257</v>
+        <v>0.80999999999999994</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -19272,15 +19333,15 @@
       </c>
       <c r="J89">
         <f t="shared" si="21"/>
-        <v>0.34399999999999997</v>
+        <v>0.18</v>
       </c>
       <c r="K89">
         <f t="shared" si="22"/>
-        <v>26855.880905775924</v>
+        <v>28981.775323686215</v>
       </c>
       <c r="L89">
         <f t="shared" si="23"/>
-        <v>0.88491067743421226</v>
+        <v>0.82000000000000006</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
@@ -19321,15 +19382,15 @@
       </c>
       <c r="J90">
         <f t="shared" si="21"/>
-        <v>0.33600000000000002</v>
+        <v>0.17</v>
       </c>
       <c r="K90">
         <f t="shared" si="22"/>
-        <v>26231.325535874163</v>
+        <v>27371.676694592537</v>
       </c>
       <c r="L90">
         <f t="shared" si="23"/>
-        <v>0.86608248696551104</v>
+        <v>0.83000000000000018</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
@@ -19370,15 +19431,15 @@
       </c>
       <c r="J91">
         <f t="shared" si="21"/>
-        <v>0.32800000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="K91">
         <f t="shared" si="22"/>
-        <v>25606.770165972397</v>
+        <v>25761.578065498859</v>
       </c>
       <c r="L91">
         <f t="shared" si="23"/>
-        <v>0.84507829120031042</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -19419,15 +19480,15 @@
       </c>
       <c r="J92">
         <f t="shared" si="21"/>
-        <v>0.32</v>
+        <v>0.15</v>
       </c>
       <c r="K92">
         <f t="shared" si="22"/>
-        <v>24982.214796070632</v>
+        <v>24151.479436405178</v>
       </c>
       <c r="L92">
         <f t="shared" si="23"/>
-        <v>0.82173488974137321</v>
+        <v>0.85000000000000009</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
@@ -19468,15 +19529,15 @@
       </c>
       <c r="J93">
         <f t="shared" si="21"/>
-        <v>0.31200000000000006</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K93">
         <f t="shared" si="22"/>
-        <v>24357.659426168866</v>
+        <v>22541.380807311503</v>
       </c>
       <c r="L93">
         <f t="shared" si="23"/>
-        <v>0.79587234368918136</v>
+        <v>0.8600000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
@@ -19517,15 +19578,15 @@
       </c>
       <c r="J94">
         <f t="shared" si="21"/>
-        <v>0.30400000000000005</v>
+        <v>0.13</v>
       </c>
       <c r="K94">
         <f t="shared" si="22"/>
-        <v>23733.104056267101</v>
+        <v>20931.282178217822</v>
       </c>
       <c r="L94">
         <f t="shared" si="23"/>
-        <v>0.7672917732074247</v>
+        <v>0.87000000000000011</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
@@ -19566,15 +19627,15 @@
       </c>
       <c r="J95">
         <f t="shared" si="21"/>
-        <v>0.29600000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="K95">
         <f t="shared" si="22"/>
-        <v>23108.548686365335</v>
+        <v>19321.183549124144</v>
       </c>
       <c r="L95">
         <f t="shared" si="23"/>
-        <v>0.73577279793694983</v>
+        <v>0.88000000000000012</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -19615,15 +19676,15 @@
       </c>
       <c r="J96">
         <f t="shared" si="21"/>
-        <v>0.28800000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="K96">
         <f t="shared" si="22"/>
-        <v>22483.993316463569</v>
+        <v>17711.084920030466</v>
       </c>
       <c r="L96">
         <f t="shared" si="23"/>
-        <v>0.70107055081202985</v>
+        <v>0.8899999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
@@ -19664,15 +19725,15 @@
       </c>
       <c r="J97">
         <f t="shared" si="21"/>
-        <v>0.28000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="K97">
         <f t="shared" si="22"/>
-        <v>21859.437946561804</v>
+        <v>16100.986290936788</v>
       </c>
       <c r="L97">
         <f t="shared" si="23"/>
-        <v>0.66291217995942708</v>
+        <v>0.89999999999999991</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -19713,15 +19774,15 @@
       </c>
       <c r="J98">
         <f t="shared" si="21"/>
-        <v>0.27200000000000002</v>
+        <v>0.09</v>
       </c>
       <c r="K98">
         <f t="shared" si="22"/>
-        <v>21234.882576660035</v>
+        <v>14490.887661843108</v>
       </c>
       <c r="L98">
         <f t="shared" si="23"/>
-        <v>0.62099273328552229</v>
+        <v>0.91000000000000014</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
@@ -19762,15 +19823,15 @@
       </c>
       <c r="J99">
         <f t="shared" si="21"/>
-        <v>0.26400000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="K99">
         <f t="shared" si="22"/>
-        <v>20610.327206758269</v>
+        <v>12880.78903274943</v>
       </c>
       <c r="L99">
         <f t="shared" si="23"/>
-        <v>0.57497029480656048</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
@@ -19811,15 +19872,15 @@
       </c>
       <c r="J100">
         <f t="shared" si="21"/>
-        <v>0.25600000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K100">
         <f t="shared" si="22"/>
-        <v>19985.771836856504</v>
+        <v>11270.690403655752</v>
       </c>
       <c r="L100">
         <f t="shared" si="23"/>
-        <v>0.52446020904081769</v>
+        <v>0.92999999999999994</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -19860,15 +19921,15 @@
       </c>
       <c r="J101">
         <f t="shared" si="21"/>
-        <v>0.248</v>
+        <v>0.06</v>
       </c>
       <c r="K101">
         <f t="shared" si="22"/>
-        <v>19361.216466954738</v>
+        <v>9660.5917745620718</v>
       </c>
       <c r="L101">
         <f t="shared" si="23"/>
-        <v>0.46902818754118625</v>
+        <v>0.94000000000000028</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
@@ -19909,15 +19970,15 @@
       </c>
       <c r="J102">
         <f t="shared" si="21"/>
-        <v>0.24000000000000002</v>
+        <v>0.05</v>
       </c>
       <c r="K102">
         <f t="shared" si="22"/>
-        <v>18736.661097052973</v>
+        <v>8050.4931454683938</v>
       </c>
       <c r="L102">
         <f t="shared" si="23"/>
-        <v>0.408182036734277</v>
+        <v>0.95000000000000018</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
@@ -19958,15 +20019,15 @@
       </c>
       <c r="J103">
         <f t="shared" si="21"/>
-        <v>0.23200000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="K103">
         <f t="shared" si="22"/>
-        <v>18112.105727151207</v>
+        <v>6440.3945163747148</v>
       </c>
       <c r="L103">
         <f t="shared" si="23"/>
-        <v>0.34136167427795788</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -20007,15 +20068,15 @@
       </c>
       <c r="J104">
         <f t="shared" si="21"/>
-        <v>0.224</v>
+        <v>0.03</v>
       </c>
       <c r="K104">
         <f t="shared" si="22"/>
-        <v>17487.550357249442</v>
+        <v>4830.2958872810359</v>
       </c>
       <c r="L104">
         <f t="shared" si="23"/>
-        <v>0.26792700606693509</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
@@ -20056,15 +20117,15 @@
       </c>
       <c r="J105">
         <f t="shared" si="21"/>
-        <v>0.21600000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="K105">
         <f t="shared" si="22"/>
-        <v>16862.994987347676</v>
+        <v>3220.1972581873574</v>
       </c>
       <c r="L105">
         <f t="shared" si="23"/>
-        <v>0.18714310923957489</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
@@ -20105,15 +20166,15 @@
       </c>
       <c r="J106">
         <f t="shared" si="21"/>
-        <v>0.20800000000000002</v>
+        <v>0.01</v>
       </c>
       <c r="K106">
         <f t="shared" si="22"/>
-        <v>16238.439617445911</v>
+        <v>1610.0986290936787</v>
       </c>
       <c r="L106">
         <f t="shared" si="23"/>
-        <v>9.816199587860748E-2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
@@ -20154,15 +20215,15 @@
       </c>
       <c r="J107">
         <f t="shared" si="21"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K107">
         <f t="shared" si="22"/>
-        <v>15613.884247544145</v>
+        <v>0</v>
       </c>
       <c r="L107">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
@@ -20176,11 +20237,11 @@
       </c>
       <c r="K108">
         <f>LARGE(K7:K107,1)</f>
-        <v>78069.421237720715</v>
+        <v>161009.86290936786</v>
       </c>
       <c r="L108">
         <f>LARGE(L7:L107,1)</f>
-        <v>0.98470080064806564</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -20191,10 +20252,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:H41"/>
+  <dimension ref="A3:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20204,7 +20265,12 @@
     <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -20217,8 +20283,18 @@
       <c r="G4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>100</v>
+      </c>
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <f>T4*0.01*4</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="58">
         <v>0</v>
       </c>
@@ -20243,8 +20319,18 @@
       <c r="H5" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>95</v>
+      </c>
+      <c r="U5">
+        <v>3.8</v>
+      </c>
+      <c r="V5">
+        <f t="shared" ref="V5:V14" si="0">T5*0.01*4</f>
+        <v>3.8000000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1E-3</v>
       </c>
@@ -20252,7 +20338,7 @@
         <v>3.7585000000000002</v>
       </c>
       <c r="C6" s="70">
-        <f t="shared" ref="C6:C16" si="0">B6-B7</f>
+        <f t="shared" ref="C6:C16" si="1">B6-B7</f>
         <v>1.0870000000000002</v>
       </c>
       <c r="E6">
@@ -20262,11 +20348,21 @@
         <v>3.7585000000000002</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G16" si="1">F6-F7</f>
+        <f t="shared" ref="G6:G16" si="2">F6-F7</f>
         <v>1.0870000000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>90</v>
+      </c>
+      <c r="U6">
+        <v>3.6</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.05</v>
       </c>
@@ -20274,7 +20370,7 @@
         <v>2.6715</v>
       </c>
       <c r="C7" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36249999999999982</v>
       </c>
       <c r="E7">
@@ -20284,11 +20380,21 @@
         <v>2.6715</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.36249999999999982</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>85</v>
+      </c>
+      <c r="U7">
+        <v>3.4</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.1</v>
       </c>
@@ -20296,7 +20402,7 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="C8" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23060000000000036</v>
       </c>
       <c r="E8">
@@ -20306,11 +20412,21 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23060000000000036</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>80</v>
+      </c>
+      <c r="U8">
+        <v>3.2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.15</v>
       </c>
@@ -20318,7 +20434,7 @@
         <v>2.0783999999999998</v>
       </c>
       <c r="C9" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.16859999999999986</v>
       </c>
       <c r="E9">
@@ -20328,11 +20444,21 @@
         <v>2.0783999999999998</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.16859999999999986</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>75</v>
+      </c>
+      <c r="U9">
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.2</v>
       </c>
@@ -20340,7 +20466,7 @@
         <v>1.9097999999999999</v>
       </c>
       <c r="C10" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13219999999999987</v>
       </c>
       <c r="E10">
@@ -20350,11 +20476,21 @@
         <v>1.9097999999999999</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.13219999999999987</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>70</v>
+      </c>
+      <c r="U10">
+        <v>2.8</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.25</v>
       </c>
@@ -20362,7 +20498,7 @@
         <v>1.7776000000000001</v>
       </c>
       <c r="C11" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10790000000000011</v>
       </c>
       <c r="E11">
@@ -20372,11 +20508,21 @@
         <v>1.7776000000000001</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.10790000000000011</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>65</v>
+      </c>
+      <c r="U11">
+        <v>2.6</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0.3</v>
       </c>
@@ -20384,7 +20530,7 @@
         <v>1.6697</v>
       </c>
       <c r="C12" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.0700000000000003E-2</v>
       </c>
       <c r="E12">
@@ -20394,11 +20540,21 @@
         <v>1.6697</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.0700000000000003E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>60</v>
+      </c>
+      <c r="U12">
+        <v>2.4</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0.35</v>
       </c>
@@ -20406,7 +20562,7 @@
         <v>1.579</v>
       </c>
       <c r="C13" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.8000000000000069E-2</v>
       </c>
       <c r="E13">
@@ -20416,11 +20572,21 @@
         <v>1.579</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8000000000000069E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>55</v>
+      </c>
+      <c r="U13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.4</v>
       </c>
@@ -20428,7 +20594,7 @@
         <v>1.5009999999999999</v>
       </c>
       <c r="C14" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.8199999999999816E-2</v>
       </c>
       <c r="E14">
@@ -20438,11 +20604,21 @@
         <v>1.5009999999999999</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8199999999999816E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>50</v>
+      </c>
+      <c r="U14">
+        <v>2</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.45</v>
       </c>
@@ -20450,7 +20626,7 @@
         <v>1.4328000000000001</v>
       </c>
       <c r="C15" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.030000000000002E-2</v>
       </c>
       <c r="E15">
@@ -20460,11 +20636,11 @@
         <v>1.4328000000000001</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.030000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.5</v>
       </c>
@@ -20472,7 +20648,7 @@
         <v>1.3725000000000001</v>
       </c>
       <c r="C16" s="70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3725000000000001</v>
       </c>
       <c r="E16">
@@ -20482,11 +20658,19 @@
         <v>1.3725000000000001</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3725000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -20500,7 +20684,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>93</v>
       </c>
@@ -20514,15 +20698,12 @@
         <v>1E-3</v>
       </c>
       <c r="F21" s="59">
-        <v>3.7585000000000002</v>
+        <f>$B$21*E21^2 + $B$22*E21 + $B$23</f>
+        <v>2.8773417457071169</v>
       </c>
       <c r="G21" s="59"/>
-      <c r="H21" t="str">
-        <f>"{"&amp;E21&amp;","&amp;F21&amp;"}"</f>
-        <v>{0.001,3.7585}</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -20536,15 +20717,12 @@
         <v>0.05</v>
       </c>
       <c r="F22" s="59">
-        <v>2.6715</v>
+        <f t="shared" ref="F22:F31" si="3">$B$21*E22^2 + $B$22*E22 + $B$23</f>
+        <v>2.6028418720925002</v>
       </c>
       <c r="G22" s="59"/>
-      <c r="H22" t="str">
-        <f t="shared" ref="H22:H31" si="2">"{"&amp;E22&amp;","&amp;F22&amp;"}"</f>
-        <v>{0.05,2.6715}</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>95</v>
       </c>
@@ -20558,15 +20736,12 @@
         <v>0.1</v>
       </c>
       <c r="F23" s="59">
-        <v>2.3090000000000002</v>
+        <f t="shared" si="3"/>
+        <v>2.3520847537699998</v>
       </c>
       <c r="G23" s="59"/>
-      <c r="H23" t="str">
-        <f t="shared" si="2"/>
-        <v>{0.1,2.309}</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24">
         <v>2.0783999999999998</v>
       </c>
@@ -20574,17 +20749,14 @@
         <v>0.15</v>
       </c>
       <c r="F24" s="59">
-        <v>2.0783999999999998</v>
+        <f t="shared" si="3"/>
+        <v>2.1309688410324998</v>
       </c>
       <c r="G24" s="59"/>
-      <c r="H24" t="str">
-        <f t="shared" si="2"/>
-        <v>{0.15,2.0784}</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D25">
         <v>1.9097999999999999</v>
@@ -20593,15 +20765,12 @@
         <v>0.2</v>
       </c>
       <c r="F25" s="59">
-        <v>1.9097999999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.93949413388</v>
       </c>
       <c r="G25" s="59"/>
-      <c r="H25" t="str">
-        <f t="shared" si="2"/>
-        <v>{0.2,1.9098}</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -20615,15 +20784,12 @@
         <v>0.25</v>
       </c>
       <c r="F26" s="59">
-        <v>1.7776000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.7776606323124999</v>
       </c>
       <c r="G26" s="59"/>
-      <c r="H26" t="str">
-        <f t="shared" si="2"/>
-        <v>{0.25,1.7776}</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -20637,15 +20803,12 @@
         <v>0.3</v>
       </c>
       <c r="F27" s="59">
-        <v>1.6697</v>
+        <f t="shared" si="3"/>
+        <v>1.64546833633</v>
       </c>
       <c r="G27" s="59"/>
-      <c r="H27" t="str">
-        <f t="shared" si="2"/>
-        <v>{0.3,1.6697}</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -20659,15 +20822,12 @@
         <v>0.35</v>
       </c>
       <c r="F28" s="59">
-        <v>1.579</v>
+        <f t="shared" si="3"/>
+        <v>1.5429172459325</v>
       </c>
       <c r="G28" s="59"/>
-      <c r="H28" t="str">
-        <f t="shared" si="2"/>
-        <v>{0.35,1.579}</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>1.5009999999999999</v>
       </c>
@@ -20675,15 +20835,12 @@
         <v>0.4</v>
       </c>
       <c r="F29" s="59">
-        <v>1.5009999999999999</v>
+        <f t="shared" si="3"/>
+        <v>1.4700073611200002</v>
       </c>
       <c r="G29" s="59"/>
-      <c r="H29" t="str">
-        <f t="shared" si="2"/>
-        <v>{0.4,1.501}</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>1.4328000000000001</v>
       </c>
@@ -20691,15 +20848,12 @@
         <v>0.45</v>
       </c>
       <c r="F30" s="59">
-        <v>1.4328000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.4267386818925001</v>
       </c>
       <c r="G30" s="59"/>
-      <c r="H30" t="str">
-        <f t="shared" si="2"/>
-        <v>{0.45,1.4328}</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>1.3725000000000001</v>
       </c>
@@ -20707,88 +20861,48 @@
         <v>0.5</v>
       </c>
       <c r="F31" s="59">
-        <v>1.3725000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.4131112082499999</v>
       </c>
       <c r="G31" s="59"/>
-      <c r="H31" t="str">
-        <f t="shared" si="2"/>
-        <v>{0.5,1.3725}</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E32">
-        <v>0.55000000000000004</v>
-      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F32" s="71"/>
       <c r="G32" s="72"/>
-      <c r="H32" t="str">
-        <f>H21&amp;","&amp;H22&amp;","&amp;H23&amp;","&amp;H24&amp;","&amp;H25&amp;","&amp;H26&amp;","&amp;H27&amp;","&amp;H28&amp;","&amp;H29&amp;","&amp;H30&amp;","&amp;H31</f>
-        <v>{0.001,3.7585},{0.05,2.6715},{0.1,2.309},{0.15,2.0784},{0.2,1.9098},{0.25,1.7776},{0.3,1.6697},{0.35,1.579},{0.4,1.501},{0.45,1.4328},{0.5,1.3725}</v>
-      </c>
-    </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33">
-        <v>0.6</v>
-      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="71"/>
       <c r="G33" s="72"/>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E34">
-        <v>0.65</v>
-      </c>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="71"/>
       <c r="G34" s="72"/>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E35">
-        <v>0.7</v>
-      </c>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="71"/>
       <c r="G35" s="72"/>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E36">
-        <v>0.75</v>
-      </c>
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="71"/>
       <c r="G36" s="72"/>
-      <c r="H36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E37">
-        <v>0.8</v>
-      </c>
+    </row>
+    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F37" s="71"/>
       <c r="G37" s="72"/>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E38">
-        <v>0.85</v>
-      </c>
+    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F38" s="71"/>
       <c r="G38" s="72"/>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E39">
-        <v>0.9</v>
-      </c>
+    <row r="39" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F39" s="71"/>
       <c r="G39" s="72"/>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E40">
-        <v>0.95</v>
-      </c>
+    <row r="40" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F40" s="71"/>
       <c r="G40" s="72"/>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E41">
-        <v>1</v>
-      </c>
+    <row r="41" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F41" s="71"/>
       <c r="G41" s="72"/>
     </row>

--- a/Resources/PartBalance.xlsx
+++ b/Resources/PartBalance.xlsx
@@ -4,54 +4,55 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BaseStats" sheetId="1" r:id="rId1"/>
-    <sheet name="ScaledStats" sheetId="2" r:id="rId2"/>
-    <sheet name="Graph" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="MotorPowerEZCalc" sheetId="6" r:id="rId2"/>
+    <sheet name="MotorSpeedEZCalc" sheetId="7" r:id="rId3"/>
+    <sheet name="ScaledStats" sheetId="2" r:id="rId4"/>
+    <sheet name="Graph" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">Sheet2!$C$21:$C$22</definedName>
-    <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_eng" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">Sheet2!$F$21:$F$31</definedName>
-    <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">Sheet2!$C$21</definedName>
-    <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_rhs1" localSheetId="4" hidden="1">Sheet2!$D$21:$D$31</definedName>
-    <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">Sheet2!$C$21:$C$22</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">Sheet2!$F$21:$F$31</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">Sheet2!$C$21</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">Sheet2!$D$21:$D$31</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="132">
   <si>
     <t>Repulsor</t>
   </si>
@@ -338,15 +339,6 @@
     <t>eff</t>
   </si>
   <si>
-    <t>torque</t>
-  </si>
-  <si>
-    <t>pf</t>
-  </si>
-  <si>
-    <t>ef</t>
-  </si>
-  <si>
     <t>power out kw</t>
   </si>
   <si>
@@ -357,6 +349,105 @@
   </si>
   <si>
     <t>noload kw in</t>
+  </si>
+  <si>
+    <t>Critter</t>
+  </si>
+  <si>
+    <t>max RPM</t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>powerFactor</t>
+  </si>
+  <si>
+    <t>minKW</t>
+  </si>
+  <si>
+    <t>maxKW</t>
+  </si>
+  <si>
+    <t>torque (KN*M)</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Outputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">effPeak </t>
+  </si>
+  <si>
+    <t>effInverse</t>
+  </si>
+  <si>
+    <t>0-1 domain, where on the RPM line does the efficiency peak</t>
+  </si>
+  <si>
+    <t>max torque of the motor in KN*M</t>
+  </si>
+  <si>
+    <t>max RPM of the motor</t>
+  </si>
+  <si>
+    <t>power factor -- percent of peak power draw at max RPM (0-1)</t>
+  </si>
+  <si>
+    <t>peak efficiency of the motor (0-1)</t>
+  </si>
+  <si>
+    <t>kwOutputAtPeak</t>
+  </si>
+  <si>
+    <t>kwInputAtPeak</t>
+  </si>
+  <si>
+    <t>Calculation fields</t>
+  </si>
+  <si>
+    <t>peakInput</t>
+  </si>
+  <si>
+    <t>noLoad</t>
+  </si>
+  <si>
+    <t>steady state no load power draw at max RPM</t>
+  </si>
+  <si>
+    <t>steady state stalled power draw at zero RPM</t>
+  </si>
+  <si>
+    <t>peakRPM</t>
+  </si>
+  <si>
+    <t>% of max RPM where the efficiency peaks</t>
+  </si>
+  <si>
+    <t>RPM value of where efficiency peaks</t>
+  </si>
+  <si>
+    <t>peakRPM%</t>
+  </si>
+  <si>
+    <t>inputs</t>
+  </si>
+  <si>
+    <t>wheel radius</t>
+  </si>
+  <si>
+    <t>outputs</t>
+  </si>
+  <si>
+    <t>max motor rpm</t>
+  </si>
+  <si>
+    <t>circumf</t>
+  </si>
+  <si>
+    <t>max speed(m/s)</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1022,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -1107,6 +1198,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2813,11 +2913,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267966336"/>
-        <c:axId val="267967872"/>
+        <c:axId val="197864064"/>
+        <c:axId val="197869952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267966336"/>
+        <c:axId val="197864064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2874,12 +2974,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267967872"/>
+        <c:crossAx val="197869952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267967872"/>
+        <c:axId val="197869952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2936,7 +3036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="267966336"/>
+        <c:crossAx val="197864064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4936,11 +5036,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="268743424"/>
-        <c:axId val="268744960"/>
+        <c:axId val="198354432"/>
+        <c:axId val="198355968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="268743424"/>
+        <c:axId val="198354432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4997,12 +5097,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268744960"/>
+        <c:crossAx val="198355968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="268744960"/>
+        <c:axId val="198355968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5059,7 +5159,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="268743424"/>
+        <c:crossAx val="198354432"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5369,11 +5469,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269293824"/>
-        <c:axId val="269303808"/>
+        <c:axId val="197942272"/>
+        <c:axId val="197944064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269293824"/>
+        <c:axId val="197942272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5430,12 +5530,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269303808"/>
+        <c:crossAx val="197944064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269303808"/>
+        <c:axId val="197944064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5492,7 +5592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="269293824"/>
+        <c:crossAx val="197942272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5753,11 +5853,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="267916032"/>
-        <c:axId val="267917568"/>
+        <c:axId val="198116864"/>
+        <c:axId val="198118400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="267916032"/>
+        <c:axId val="198116864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5767,12 +5867,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267917568"/>
+        <c:crossAx val="198118400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="267917568"/>
+        <c:axId val="198118400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5783,7 +5883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="267916032"/>
+        <c:crossAx val="198116864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5922,11 +6022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="269064832"/>
-        <c:axId val="269074816"/>
+        <c:axId val="198135168"/>
+        <c:axId val="198149248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="269064832"/>
+        <c:axId val="198135168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5936,12 +6036,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269074816"/>
+        <c:crossAx val="198149248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="269074816"/>
+        <c:axId val="198149248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.5"/>
@@ -5954,7 +6054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="269064832"/>
+        <c:crossAx val="198135168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8102,10 +8202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9664,6 +9764,88 @@
       </c>
       <c r="Z19" s="2"/>
     </row>
+    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="20">
+        <f>0.8/6</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22">
+        <v>0.3</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0.04</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0.16</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="22">
+        <v>4</v>
+      </c>
+      <c r="J20" s="21">
+        <v>10</v>
+      </c>
+      <c r="K20" s="21">
+        <v>325</v>
+      </c>
+      <c r="L20" s="49">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M20" s="23">
+        <f t="shared" ref="M20" si="9">(N20*I20)/R20*D20</f>
+        <v>12</v>
+      </c>
+      <c r="N20" s="54">
+        <v>10</v>
+      </c>
+      <c r="O20" s="44">
+        <v>0.15</v>
+      </c>
+      <c r="P20" s="22">
+        <f t="shared" ref="P20" si="10">K20*R20</f>
+        <v>325</v>
+      </c>
+      <c r="Q20" s="22">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="R20" s="22">
+        <v>1</v>
+      </c>
+      <c r="S20" s="24">
+        <f t="shared" ref="S20" si="11">IFERROR(P20/R20/60*D20*2*PI(), 0)</f>
+        <v>10.210176124166829</v>
+      </c>
+      <c r="T20" s="41">
+        <f t="shared" ref="T20" si="12">IFERROR(M20*R20/D20, 0)</f>
+        <v>40</v>
+      </c>
+      <c r="U20" s="41">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="V20" s="25">
+        <f t="shared" ref="V20" si="13">IFERROR(T20/I20,0)</f>
+        <v>10</v>
+      </c>
+      <c r="W20" s="23">
+        <v>80</v>
+      </c>
+      <c r="X20" s="25">
+        <f t="shared" ref="X20" si="14">W20*D20</f>
+        <v>24</v>
+      </c>
+      <c r="Y20" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:L1"/>
@@ -9678,6 +9860,258 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="41.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="83"/>
+      <c r="E1" s="81" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="65">
+        <v>1</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="65">
+        <f>B16</f>
+        <v>3.4971630071603546</v>
+      </c>
+      <c r="G2" s="66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="65">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="64" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="65">
+        <f>B15</f>
+        <v>69.943260143207084</v>
+      </c>
+      <c r="G3" s="66" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="65">
+        <v>0.05</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="65">
+        <f>B11</f>
+        <v>0.81725600236844309</v>
+      </c>
+      <c r="G4" s="66" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="68">
+        <v>1</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="67" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="68">
+        <f>F4*B3</f>
+        <v>817.25600236844309</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11">
+        <f xml:space="preserve"> 1 / (1-B4) - SQRT(B4 / POWER(B4-1, 2))</f>
+        <v>0.81725600236844309</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <f>1-B11</f>
+        <v>0.18274399763155691</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13">
+        <f>B11*B3*B12*B2*0.10472</f>
+        <v>15.639788424816281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14">
+        <f>B13/B5</f>
+        <v>15.639788424816281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15">
+        <f>1 / ((B11*B4) + B12) * B14</f>
+        <v>69.943260143207084</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16">
+        <f>B4*B15</f>
+        <v>3.4971630071603546</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2">
+        <v>0.3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2">
+        <f>B7</f>
+        <v>318.3098861837907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6">
+        <f>PI()*B2*2</f>
+        <v>1.8849555921538759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7">
+        <f xml:space="preserve"> (B3*60) / B6</f>
+        <v>318.3098861837907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9688,7 +10122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L108"/>
   <sheetViews>
@@ -14799,7 +15233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T108"/>
   <sheetViews>
@@ -14882,7 +15316,7 @@
         <v>1.5</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I3">
         <f>J107</f>
@@ -14942,13 +15376,13 @@
         <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
         <v>56</v>
       </c>
       <c r="G6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
         <v>73</v>
@@ -14957,7 +15391,7 @@
         <v>54</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K6" t="s">
         <v>65</v>
@@ -14996,11 +15430,11 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <f>(100-A7) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" ref="I7:I38" si="0">(100-A7) * 0.01 * (1 - $B$4) + $B$4</f>
         <v>1</v>
       </c>
       <c r="J7">
-        <f>I7 * $F$2 * $J$4</f>
+        <f t="shared" ref="J7:J38" si="1">I7 * $F$2 * $J$4</f>
         <v>2744.7644565467367</v>
       </c>
       <c r="K7">
@@ -15013,43 +15447,43 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B71" si="0">A8*0.01*$B$5</f>
+        <f t="shared" ref="B8:B71" si="2">A8*0.01*$B$5</f>
         <v>190</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:C71" si="1">B8/$B$5</f>
+        <f t="shared" ref="C8:C71" si="3">B8/$B$5</f>
         <v>0.01</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D71" si="2">B8*0.104719755</f>
+        <f t="shared" ref="D8:D71" si="4">B8*0.104719755</f>
         <v>19.896753449999999</v>
       </c>
       <c r="E8" s="47">
-        <f t="shared" ref="E8:E71" si="3">(100-A8)*$B$3*0.01</f>
+        <f t="shared" ref="E8:E71" si="5">(100-A8)*$B$3*0.01</f>
         <v>1.4850000000000001</v>
       </c>
       <c r="F8" s="47">
-        <f t="shared" ref="F8:F71" si="4">E8/$B$3</f>
+        <f t="shared" ref="F8:F71" si="6">E8/$B$3</f>
         <v>0.9900000000000001</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G71" si="5">E8*B8*2*PI()/60</f>
+        <f t="shared" ref="G8:G71" si="7">E8*B8*2*PI()/60</f>
         <v>29.546678907012009</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H71" si="6">G8/$G$108</f>
+        <f t="shared" ref="H8:H71" si="8">G8/$G$108</f>
         <v>3.960000000000001E-2</v>
       </c>
       <c r="I8">
-        <f>(100-A8) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="0"/>
         <v>0.99069999999999991</v>
       </c>
       <c r="J8">
-        <f>I8 * $F$2 * $J$4</f>
+        <f t="shared" si="1"/>
         <v>2719.2381471008516</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K71" si="7">IFERROR(G8/J8,1)</f>
+        <f t="shared" ref="K8:K71" si="9">IFERROR(G8/J8,1)</f>
         <v>1.086579303049038E-2</v>
       </c>
     </row>
@@ -15058,43 +15492,43 @@
         <v>2</v>
       </c>
       <c r="B9">
+        <f t="shared" si="2"/>
+        <v>380</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>39.793506899999997</v>
+      </c>
+      <c r="E9" s="47">
+        <f t="shared" si="5"/>
+        <v>1.47</v>
+      </c>
+      <c r="F9" s="47">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="7"/>
+        <v>58.496455209841955</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="C9">
+        <v>0.98139999999999983</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>0.02</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>39.793506899999997</v>
-      </c>
-      <c r="E9" s="47">
-        <f t="shared" si="3"/>
-        <v>1.47</v>
-      </c>
-      <c r="F9" s="47">
-        <f t="shared" si="4"/>
-        <v>0.98</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>58.496455209841955</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="6"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="I9">
-        <f>(100-A9) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.98139999999999983</v>
-      </c>
-      <c r="J9">
-        <f>I9 * $F$2 * $J$4</f>
         <v>2693.711837654967</v>
       </c>
       <c r="K9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1715929073083975E-2</v>
       </c>
     </row>
@@ -15103,43 +15537,43 @@
         <v>3</v>
       </c>
       <c r="B10">
+        <f t="shared" si="2"/>
+        <v>570</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="3"/>
+        <v>0.03</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>59.690260349999996</v>
+      </c>
+      <c r="E10" s="47">
+        <f t="shared" si="5"/>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="F10" s="47">
+        <f t="shared" si="6"/>
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="7"/>
+        <v>86.849328908489824</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="8"/>
+        <v>0.1164</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>570</v>
-      </c>
-      <c r="C10">
+        <v>0.97209999999999996</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>0.03</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>59.690260349999996</v>
-      </c>
-      <c r="E10" s="47">
-        <f t="shared" si="3"/>
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="F10" s="47">
-        <f t="shared" si="4"/>
-        <v>0.97000000000000008</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>86.849328908489824</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="6"/>
-        <v>0.1164</v>
-      </c>
-      <c r="I10">
-        <f>(100-A10) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.97209999999999996</v>
-      </c>
-      <c r="J10">
-        <f>I10 * $F$2 * $J$4</f>
         <v>2668.1855282090828</v>
       </c>
       <c r="K10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.2549958760470496E-2</v>
       </c>
     </row>
@@ -15148,43 +15582,43 @@
         <v>4</v>
       </c>
       <c r="B11">
+        <f t="shared" si="2"/>
+        <v>760</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>79.587013799999994</v>
+      </c>
+      <c r="E11" s="47">
+        <f t="shared" si="5"/>
+        <v>1.44</v>
+      </c>
+      <c r="F11" s="47">
+        <f t="shared" si="6"/>
+        <v>0.96</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="7"/>
+        <v>114.60530000295563</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="8"/>
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>760</v>
-      </c>
-      <c r="C11">
+        <v>0.96279999999999988</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>0.04</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="2"/>
-        <v>79.587013799999994</v>
-      </c>
-      <c r="E11" s="47">
-        <f t="shared" si="3"/>
-        <v>1.44</v>
-      </c>
-      <c r="F11" s="47">
-        <f t="shared" si="4"/>
-        <v>0.96</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>114.60530000295563</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="6"/>
-        <v>0.15359999999999999</v>
-      </c>
-      <c r="I11">
-        <f>(100-A11) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.96279999999999988</v>
-      </c>
-      <c r="J11">
-        <f>I11 * $F$2 * $J$4</f>
         <v>2642.6592187631973</v>
       </c>
       <c r="K11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.3367415362996584E-2</v>
       </c>
     </row>
@@ -15193,43 +15627,43 @@
         <v>5</v>
       </c>
       <c r="B12">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="3"/>
+        <v>0.05</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>99.48376725</v>
+      </c>
+      <c r="E12" s="47">
+        <f t="shared" si="5"/>
+        <v>1.425</v>
+      </c>
+      <c r="F12" s="47">
+        <f t="shared" si="6"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="7"/>
+        <v>141.76436849323943</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="8"/>
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
-        <v>950</v>
-      </c>
-      <c r="C12">
+        <v>0.95350000000000001</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="2"/>
-        <v>99.48376725</v>
-      </c>
-      <c r="E12" s="47">
-        <f t="shared" si="3"/>
-        <v>1.425</v>
-      </c>
-      <c r="F12" s="47">
-        <f t="shared" si="4"/>
-        <v>0.95000000000000007</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>141.76436849323943</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="6"/>
-        <v>0.19000000000000006</v>
-      </c>
-      <c r="I12">
-        <f>(100-A12) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.95350000000000001</v>
-      </c>
-      <c r="J12">
-        <f>I12 * $F$2 * $J$4</f>
         <v>2617.1329093173131</v>
       </c>
       <c r="K12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.4167813941944233E-2</v>
       </c>
     </row>
@@ -15238,43 +15672,43 @@
         <v>6</v>
       </c>
       <c r="B13">
+        <f t="shared" si="2"/>
+        <v>1140</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="3"/>
+        <v>0.06</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>119.38052069999999</v>
+      </c>
+      <c r="E13" s="47">
+        <f t="shared" si="5"/>
+        <v>1.41</v>
+      </c>
+      <c r="F13" s="47">
+        <f t="shared" si="6"/>
+        <v>0.94</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="7"/>
+        <v>168.3265343793411</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="8"/>
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="0"/>
-        <v>1140</v>
-      </c>
-      <c r="C13">
+        <v>0.94419999999999993</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.06</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="2"/>
-        <v>119.38052069999999</v>
-      </c>
-      <c r="E13" s="47">
-        <f t="shared" si="3"/>
-        <v>1.41</v>
-      </c>
-      <c r="F13" s="47">
-        <f t="shared" si="4"/>
-        <v>0.94</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>168.3265343793411</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="6"/>
-        <v>0.22559999999999999</v>
-      </c>
-      <c r="I13">
-        <f>(100-A13) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.94419999999999993</v>
-      </c>
-      <c r="J13">
-        <f>I13 * $F$2 * $J$4</f>
         <v>2591.6065998714284</v>
       </c>
       <c r="K13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.495065045277007E-2</v>
       </c>
     </row>
@@ -15283,43 +15717,43 @@
         <v>7</v>
       </c>
       <c r="B14">
+        <f t="shared" si="2"/>
+        <v>1330.0000000000002</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>139.27727415000001</v>
+      </c>
+      <c r="E14" s="47">
+        <f t="shared" si="5"/>
+        <v>1.395</v>
+      </c>
+      <c r="F14" s="47">
+        <f t="shared" si="6"/>
+        <v>0.93</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="7"/>
+        <v>194.2917976612608</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="8"/>
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="I14">
         <f t="shared" si="0"/>
-        <v>1330.0000000000002</v>
-      </c>
-      <c r="C14">
+        <v>0.93490000000000006</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="2"/>
-        <v>139.27727415000001</v>
-      </c>
-      <c r="E14" s="47">
-        <f t="shared" si="3"/>
-        <v>1.395</v>
-      </c>
-      <c r="F14" s="47">
-        <f t="shared" si="4"/>
-        <v>0.93</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
-        <v>194.2917976612608</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="6"/>
-        <v>0.26040000000000008</v>
-      </c>
-      <c r="I14">
-        <f>(100-A14) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.93490000000000006</v>
-      </c>
-      <c r="J14">
-        <f>I14 * $F$2 * $J$4</f>
         <v>2566.0802904255443</v>
       </c>
       <c r="K14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>7.5715400794821017E-2</v>
       </c>
     </row>
@@ -15328,43 +15762,43 @@
         <v>8</v>
       </c>
       <c r="B15">
+        <f t="shared" si="2"/>
+        <v>1520</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>0.08</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>159.17402759999999</v>
+      </c>
+      <c r="E15" s="47">
+        <f t="shared" si="5"/>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="F15" s="47">
+        <f t="shared" si="6"/>
+        <v>0.92</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="7"/>
+        <v>219.66015833899837</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="8"/>
+        <v>0.29440000000000011</v>
+      </c>
+      <c r="I15">
         <f t="shared" si="0"/>
-        <v>1520</v>
-      </c>
-      <c r="C15">
+        <v>0.92559999999999998</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.08</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="2"/>
-        <v>159.17402759999999</v>
-      </c>
-      <c r="E15" s="47">
-        <f t="shared" si="3"/>
-        <v>1.3800000000000001</v>
-      </c>
-      <c r="F15" s="47">
-        <f t="shared" si="4"/>
-        <v>0.92</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="5"/>
-        <v>219.66015833899837</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="6"/>
-        <v>0.29440000000000011</v>
-      </c>
-      <c r="I15">
-        <f>(100-A15) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.92559999999999998</v>
-      </c>
-      <c r="J15">
-        <f>I15 * $F$2 * $J$4</f>
         <v>2540.5539809796592</v>
       </c>
       <c r="K15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>8.6461519803761683E-2</v>
       </c>
     </row>
@@ -15373,43 +15807,43 @@
         <v>9</v>
       </c>
       <c r="B16">
+        <f t="shared" si="2"/>
+        <v>1710</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>0.09</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>179.07078104999999</v>
+      </c>
+      <c r="E16" s="47">
+        <f t="shared" si="5"/>
+        <v>1.365</v>
+      </c>
+      <c r="F16" s="47">
+        <f t="shared" si="6"/>
+        <v>0.91</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="7"/>
+        <v>244.43161641255386</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="8"/>
+        <v>0.32760000000000006</v>
+      </c>
+      <c r="I16">
         <f t="shared" si="0"/>
-        <v>1710</v>
-      </c>
-      <c r="C16">
+        <v>0.91629999999999989</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="1"/>
-        <v>0.09</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="2"/>
-        <v>179.07078104999999</v>
-      </c>
-      <c r="E16" s="47">
-        <f t="shared" si="3"/>
-        <v>1.365</v>
-      </c>
-      <c r="F16" s="47">
-        <f t="shared" si="4"/>
-        <v>0.91</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
-        <v>244.43161641255386</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="6"/>
-        <v>0.32760000000000006</v>
-      </c>
-      <c r="I16">
-        <f>(100-A16) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.91629999999999989</v>
-      </c>
-      <c r="J16">
-        <f>I16 * $F$2 * $J$4</f>
         <v>2515.0276715337741</v>
       </c>
       <c r="K16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>9.7188440182643693E-2</v>
       </c>
     </row>
@@ -15418,43 +15852,43 @@
         <v>10</v>
       </c>
       <c r="B17">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
+        <v>0.1</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>198.9675345</v>
+      </c>
+      <c r="E17" s="47">
+        <f t="shared" si="5"/>
+        <v>1.35</v>
+      </c>
+      <c r="F17" s="47">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>268.60617188192731</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="8"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="0"/>
-        <v>1900</v>
-      </c>
-      <c r="C17">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="2"/>
-        <v>198.9675345</v>
-      </c>
-      <c r="E17" s="47">
-        <f t="shared" si="3"/>
-        <v>1.35</v>
-      </c>
-      <c r="F17" s="47">
-        <f t="shared" si="4"/>
-        <v>0.9</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="5"/>
-        <v>268.60617188192731</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="6"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="I17">
-        <f>(100-A17) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.90700000000000003</v>
-      </c>
-      <c r="J17">
-        <f>I17 * $F$2 * $J$4</f>
         <v>2489.5013620878899</v>
       </c>
       <c r="K17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.10789557136721277</v>
       </c>
     </row>
@@ -15463,43 +15897,43 @@
         <v>11</v>
       </c>
       <c r="B18">
+        <f t="shared" si="2"/>
+        <v>2090</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
+        <v>0.11</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="4"/>
+        <v>218.86428795</v>
+      </c>
+      <c r="E18" s="47">
+        <f t="shared" si="5"/>
+        <v>1.335</v>
+      </c>
+      <c r="F18" s="47">
+        <f t="shared" si="6"/>
+        <v>0.89</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>292.18382474711871</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="8"/>
+        <v>0.39160000000000006</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="0"/>
-        <v>2090</v>
-      </c>
-      <c r="C18">
+        <v>0.89769999999999994</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="1"/>
-        <v>0.11</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="2"/>
-        <v>218.86428795</v>
-      </c>
-      <c r="E18" s="47">
-        <f t="shared" si="3"/>
-        <v>1.335</v>
-      </c>
-      <c r="F18" s="47">
-        <f t="shared" si="4"/>
-        <v>0.89</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
-        <v>292.18382474711871</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="6"/>
-        <v>0.39160000000000006</v>
-      </c>
-      <c r="I18">
-        <f>(100-A18) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.89769999999999994</v>
-      </c>
-      <c r="J18">
-        <f>I18 * $F$2 * $J$4</f>
         <v>2463.9750526420053</v>
       </c>
       <c r="K18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.11858229832068455</v>
       </c>
     </row>
@@ -15508,43 +15942,43 @@
         <v>12</v>
       </c>
       <c r="B19">
+        <f t="shared" si="2"/>
+        <v>2280</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
+        <v>0.12</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="4"/>
+        <v>238.76104139999998</v>
+      </c>
+      <c r="E19" s="47">
+        <f t="shared" si="5"/>
+        <v>1.32</v>
+      </c>
+      <c r="F19" s="47">
+        <f t="shared" si="6"/>
+        <v>0.88</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>315.16457500812805</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="8"/>
+        <v>0.42240000000000005</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="0"/>
-        <v>2280</v>
-      </c>
-      <c r="C19">
+        <v>0.88839999999999986</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="2"/>
-        <v>238.76104139999998</v>
-      </c>
-      <c r="E19" s="47">
-        <f t="shared" si="3"/>
-        <v>1.32</v>
-      </c>
-      <c r="F19" s="47">
-        <f t="shared" si="4"/>
-        <v>0.88</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="5"/>
-        <v>315.16457500812805</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="6"/>
-        <v>0.42240000000000005</v>
-      </c>
-      <c r="I19">
-        <f>(100-A19) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.88839999999999986</v>
-      </c>
-      <c r="J19">
-        <f>I19 * $F$2 * $J$4</f>
         <v>2438.4487431961202</v>
       </c>
       <c r="K19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12924798025282089</v>
       </c>
     </row>
@@ -15553,43 +15987,43 @@
         <v>13</v>
       </c>
       <c r="B20">
+        <f t="shared" si="2"/>
+        <v>2470</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
+        <v>0.13</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="4"/>
+        <v>258.65779485000002</v>
+      </c>
+      <c r="E20" s="47">
+        <f t="shared" si="5"/>
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="F20" s="47">
+        <f t="shared" si="6"/>
+        <v>0.87</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="7"/>
+        <v>337.5484226649553</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="8"/>
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
-        <v>2470</v>
-      </c>
-      <c r="C20">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="1"/>
-        <v>0.13</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="2"/>
-        <v>258.65779485000002</v>
-      </c>
-      <c r="E20" s="47">
-        <f t="shared" si="3"/>
-        <v>1.3049999999999999</v>
-      </c>
-      <c r="F20" s="47">
-        <f t="shared" si="4"/>
-        <v>0.87</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="5"/>
-        <v>337.5484226649553</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="6"/>
-        <v>0.45240000000000002</v>
-      </c>
-      <c r="I20">
-        <f>(100-A20) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.87909999999999999</v>
-      </c>
-      <c r="J20">
-        <f>I20 * $F$2 * $J$4</f>
         <v>2412.922433750236</v>
       </c>
       <c r="K20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.13989194925770054</v>
       </c>
     </row>
@@ -15598,43 +16032,43 @@
         <v>14</v>
       </c>
       <c r="B21">
+        <f t="shared" si="2"/>
+        <v>2660.0000000000005</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="4"/>
+        <v>278.55454830000002</v>
+      </c>
+      <c r="E21" s="47">
+        <f t="shared" si="5"/>
+        <v>1.29</v>
+      </c>
+      <c r="F21" s="47">
+        <f t="shared" si="6"/>
+        <v>0.86</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="7"/>
+        <v>359.3353677176006</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="8"/>
+        <v>0.48160000000000014</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
-        <v>2660.0000000000005</v>
-      </c>
-      <c r="C21">
+        <v>0.86979999999999991</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="1"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="2"/>
-        <v>278.55454830000002</v>
-      </c>
-      <c r="E21" s="47">
-        <f t="shared" si="3"/>
-        <v>1.29</v>
-      </c>
-      <c r="F21" s="47">
-        <f t="shared" si="4"/>
-        <v>0.86</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="5"/>
-        <v>359.3353677176006</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="6"/>
-        <v>0.48160000000000014</v>
-      </c>
-      <c r="I21">
-        <f>(100-A21) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.86979999999999991</v>
-      </c>
-      <c r="J21">
-        <f>I21 * $F$2 * $J$4</f>
         <v>2387.3961243043514</v>
       </c>
       <c r="K21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.15051350886409984</v>
       </c>
     </row>
@@ -15643,43 +16077,43 @@
         <v>15</v>
       </c>
       <c r="B22">
+        <f t="shared" si="2"/>
+        <v>2850</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="3"/>
+        <v>0.15</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="4"/>
+        <v>298.45130174999997</v>
+      </c>
+      <c r="E22" s="47">
+        <f t="shared" si="5"/>
+        <v>1.2750000000000001</v>
+      </c>
+      <c r="F22" s="47">
+        <f t="shared" si="6"/>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="7"/>
+        <v>380.52541016606375</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="8"/>
+        <v>0.51000000000000012</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
-        <v>2850</v>
-      </c>
-      <c r="C22">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="1"/>
-        <v>0.15</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="2"/>
-        <v>298.45130174999997</v>
-      </c>
-      <c r="E22" s="47">
-        <f t="shared" si="3"/>
-        <v>1.2750000000000001</v>
-      </c>
-      <c r="F22" s="47">
-        <f t="shared" si="4"/>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="5"/>
-        <v>380.52541016606375</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="6"/>
-        <v>0.51000000000000012</v>
-      </c>
-      <c r="I22">
-        <f>(100-A22) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.86050000000000004</v>
-      </c>
-      <c r="J22">
-        <f>I22 * $F$2 * $J$4</f>
         <v>2361.8698148584672</v>
       </c>
       <c r="K22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.16111193249187036</v>
       </c>
     </row>
@@ -15688,43 +16122,43 @@
         <v>16</v>
       </c>
       <c r="B23">
+        <f t="shared" si="2"/>
+        <v>3040</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>0.16</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="4"/>
+        <v>318.34805519999998</v>
+      </c>
+      <c r="E23" s="47">
+        <f t="shared" si="5"/>
+        <v>1.26</v>
+      </c>
+      <c r="F23" s="47">
+        <f t="shared" si="6"/>
+        <v>0.84</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="7"/>
+        <v>401.11855001034479</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="8"/>
+        <v>0.53760000000000008</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
-        <v>3040</v>
-      </c>
-      <c r="C23">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="J23">
         <f t="shared" si="1"/>
-        <v>0.16</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="2"/>
-        <v>318.34805519999998</v>
-      </c>
-      <c r="E23" s="47">
-        <f t="shared" si="3"/>
-        <v>1.26</v>
-      </c>
-      <c r="F23" s="47">
-        <f t="shared" si="4"/>
-        <v>0.84</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="5"/>
-        <v>401.11855001034479</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="6"/>
-        <v>0.53760000000000008</v>
-      </c>
-      <c r="I23">
-        <f>(100-A23) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.85119999999999996</v>
-      </c>
-      <c r="J23">
-        <f>I23 * $F$2 * $J$4</f>
         <v>2336.3435054125821</v>
       </c>
       <c r="K23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.17168646180712627</v>
       </c>
     </row>
@@ -15733,43 +16167,43 @@
         <v>17</v>
       </c>
       <c r="B24">
+        <f t="shared" si="2"/>
+        <v>3230.0000000000005</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>0.17</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="4"/>
+        <v>338.24480865000004</v>
+      </c>
+      <c r="E24" s="47">
+        <f t="shared" si="5"/>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="F24" s="47">
+        <f t="shared" si="6"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="7"/>
+        <v>421.11478725044395</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="8"/>
+        <v>0.56440000000000023</v>
+      </c>
+      <c r="I24">
         <f t="shared" si="0"/>
-        <v>3230.0000000000005</v>
-      </c>
-      <c r="C24">
+        <v>0.84190000000000009</v>
+      </c>
+      <c r="J24">
         <f t="shared" si="1"/>
-        <v>0.17</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="2"/>
-        <v>338.24480865000004</v>
-      </c>
-      <c r="E24" s="47">
-        <f t="shared" si="3"/>
-        <v>1.2450000000000001</v>
-      </c>
-      <c r="F24" s="47">
-        <f t="shared" si="4"/>
-        <v>0.83000000000000007</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="5"/>
-        <v>421.11478725044395</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="6"/>
-        <v>0.56440000000000023</v>
-      </c>
-      <c r="I24">
-        <f>(100-A24) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.84190000000000009</v>
-      </c>
-      <c r="J24">
-        <f>I24 * $F$2 * $J$4</f>
         <v>2310.8171959666979</v>
       </c>
       <c r="K24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.18223630496841464</v>
       </c>
     </row>
@@ -15778,43 +16212,43 @@
         <v>18</v>
       </c>
       <c r="B25">
+        <f t="shared" si="2"/>
+        <v>3420</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>0.18</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="4"/>
+        <v>358.14156209999999</v>
+      </c>
+      <c r="E25" s="47">
+        <f t="shared" si="5"/>
+        <v>1.23</v>
+      </c>
+      <c r="F25" s="47">
+        <f t="shared" si="6"/>
+        <v>0.82</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="7"/>
+        <v>440.51412188636084</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>0.59040000000000015</v>
+      </c>
+      <c r="I25">
         <f t="shared" si="0"/>
-        <v>3420</v>
-      </c>
-      <c r="C25">
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="2"/>
-        <v>358.14156209999999</v>
-      </c>
-      <c r="E25" s="47">
-        <f t="shared" si="3"/>
-        <v>1.23</v>
-      </c>
-      <c r="F25" s="47">
-        <f t="shared" si="4"/>
-        <v>0.82</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="5"/>
-        <v>440.51412188636084</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="6"/>
-        <v>0.59040000000000015</v>
-      </c>
-      <c r="I25">
-        <f>(100-A25) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.83260000000000001</v>
-      </c>
-      <c r="J25">
-        <f>I25 * $F$2 * $J$4</f>
         <v>2285.2908865208128</v>
       </c>
       <c r="K25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.19276063475534669</v>
       </c>
     </row>
@@ -15823,43 +16257,43 @@
         <v>19</v>
       </c>
       <c r="B26">
+        <f t="shared" si="2"/>
+        <v>3610</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>0.19</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="4"/>
+        <v>378.03831554999999</v>
+      </c>
+      <c r="E26" s="47">
+        <f t="shared" si="5"/>
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="F26" s="47">
+        <f t="shared" si="6"/>
+        <v>0.81</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="7"/>
+        <v>459.31655391809574</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>0.61560000000000015</v>
+      </c>
+      <c r="I26">
         <f t="shared" si="0"/>
-        <v>3610</v>
-      </c>
-      <c r="C26">
+        <v>0.82329999999999992</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="1"/>
-        <v>0.19</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="2"/>
-        <v>378.03831554999999</v>
-      </c>
-      <c r="E26" s="47">
-        <f t="shared" si="3"/>
-        <v>1.2150000000000001</v>
-      </c>
-      <c r="F26" s="47">
-        <f t="shared" si="4"/>
-        <v>0.81</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="5"/>
-        <v>459.31655391809574</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="6"/>
-        <v>0.61560000000000015</v>
-      </c>
-      <c r="I26">
-        <f>(100-A26) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.82329999999999992</v>
-      </c>
-      <c r="J26">
-        <f>I26 * $F$2 * $J$4</f>
         <v>2259.7645770749277</v>
       </c>
       <c r="K26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.20325858657039478</v>
       </c>
     </row>
@@ -15868,43 +16302,43 @@
         <v>20</v>
       </c>
       <c r="B27">
+        <f t="shared" si="2"/>
+        <v>3800</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="4"/>
+        <v>397.935069</v>
+      </c>
+      <c r="E27" s="47">
+        <f t="shared" si="5"/>
+        <v>1.2</v>
+      </c>
+      <c r="F27" s="47">
+        <f t="shared" si="6"/>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="7"/>
+        <v>477.52208334564858</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="8"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="0"/>
-        <v>3800</v>
-      </c>
-      <c r="C27">
+        <v>0.81400000000000006</v>
+      </c>
+      <c r="J27">
         <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>397.935069</v>
-      </c>
-      <c r="E27" s="47">
-        <f t="shared" si="3"/>
-        <v>1.2</v>
-      </c>
-      <c r="F27" s="47">
-        <f t="shared" si="4"/>
-        <v>0.79999999999999993</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="5"/>
-        <v>477.52208334564858</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="6"/>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="I27">
-        <f>(100-A27) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.81400000000000006</v>
-      </c>
-      <c r="J27">
-        <f>I27 * $F$2 * $J$4</f>
         <v>2234.2382676290435</v>
       </c>
       <c r="K27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.21372925630371167</v>
       </c>
     </row>
@@ -15913,43 +16347,43 @@
         <v>21</v>
       </c>
       <c r="B28">
+        <f t="shared" si="2"/>
+        <v>3990</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="3"/>
+        <v>0.21</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="4"/>
+        <v>417.83182245</v>
+      </c>
+      <c r="E28" s="47">
+        <f t="shared" si="5"/>
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="F28" s="47">
+        <f t="shared" si="6"/>
+        <v>0.79</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="7"/>
+        <v>495.13071016901938</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="8"/>
+        <v>0.66360000000000008</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="0"/>
-        <v>3990</v>
-      </c>
-      <c r="C28">
+        <v>0.80469999999999997</v>
+      </c>
+      <c r="J28">
         <f t="shared" si="1"/>
-        <v>0.21</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="2"/>
-        <v>417.83182245</v>
-      </c>
-      <c r="E28" s="47">
-        <f t="shared" si="3"/>
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="F28" s="47">
-        <f t="shared" si="4"/>
-        <v>0.79</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="5"/>
-        <v>495.13071016901938</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="6"/>
-        <v>0.66360000000000008</v>
-      </c>
-      <c r="I28">
-        <f>(100-A28) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.80469999999999997</v>
-      </c>
-      <c r="J28">
-        <f>I28 * $F$2 * $J$4</f>
         <v>2208.7119581831589</v>
       </c>
       <c r="K28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.22417169804989137</v>
       </c>
     </row>
@@ -15958,43 +16392,43 @@
         <v>22</v>
       </c>
       <c r="B29">
+        <f t="shared" si="2"/>
+        <v>4180</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="3"/>
+        <v>0.22</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="4"/>
+        <v>437.72857590000001</v>
+      </c>
+      <c r="E29" s="47">
+        <f t="shared" si="5"/>
+        <v>1.17</v>
+      </c>
+      <c r="F29" s="47">
+        <f t="shared" si="6"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="7"/>
+        <v>512.14243438820802</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="8"/>
+        <v>0.68640000000000001</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
-        <v>4180</v>
-      </c>
-      <c r="C29">
+        <v>0.79539999999999988</v>
+      </c>
+      <c r="J29">
         <f t="shared" si="1"/>
-        <v>0.22</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="2"/>
-        <v>437.72857590000001</v>
-      </c>
-      <c r="E29" s="47">
-        <f t="shared" si="3"/>
-        <v>1.17</v>
-      </c>
-      <c r="F29" s="47">
-        <f t="shared" si="4"/>
-        <v>0.77999999999999992</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="5"/>
-        <v>512.14243438820802</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="6"/>
-        <v>0.68640000000000001</v>
-      </c>
-      <c r="I29">
-        <f>(100-A29) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.79539999999999988</v>
-      </c>
-      <c r="J29">
-        <f>I29 * $F$2 * $J$4</f>
         <v>2183.1856487372738</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.23458492166455222</v>
       </c>
     </row>
@@ -16003,43 +16437,43 @@
         <v>23</v>
       </c>
       <c r="B30">
+        <f t="shared" si="2"/>
+        <v>4370</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="3"/>
+        <v>0.23</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="4"/>
+        <v>457.62532935000002</v>
+      </c>
+      <c r="E30" s="47">
+        <f t="shared" si="5"/>
+        <v>1.155</v>
+      </c>
+      <c r="F30" s="47">
+        <f t="shared" si="6"/>
+        <v>0.77</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="7"/>
+        <v>528.55725600321477</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="8"/>
+        <v>0.70840000000000014</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="0"/>
-        <v>4370</v>
-      </c>
-      <c r="C30">
+        <v>0.78610000000000002</v>
+      </c>
+      <c r="J30">
         <f t="shared" si="1"/>
-        <v>0.23</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="2"/>
-        <v>457.62532935000002</v>
-      </c>
-      <c r="E30" s="47">
-        <f t="shared" si="3"/>
-        <v>1.155</v>
-      </c>
-      <c r="F30" s="47">
-        <f t="shared" si="4"/>
-        <v>0.77</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>528.55725600321477</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="6"/>
-        <v>0.70840000000000014</v>
-      </c>
-      <c r="I30">
-        <f>(100-A30) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.78610000000000002</v>
-      </c>
-      <c r="J30">
-        <f>I30 * $F$2 * $J$4</f>
         <v>2157.6593392913896</v>
       </c>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.24496789014747877</v>
       </c>
     </row>
@@ -16048,43 +16482,43 @@
         <v>24</v>
       </c>
       <c r="B31">
+        <f t="shared" si="2"/>
+        <v>4560</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>0.24</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="4"/>
+        <v>477.52208279999996</v>
+      </c>
+      <c r="E31" s="47">
+        <f t="shared" si="5"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="F31" s="47">
+        <f t="shared" si="6"/>
+        <v>0.76000000000000012</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="7"/>
+        <v>544.37517501403943</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="8"/>
+        <v>0.72960000000000014</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="0"/>
-        <v>4560</v>
-      </c>
-      <c r="C31">
+        <v>0.77679999999999993</v>
+      </c>
+      <c r="J31">
         <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="2"/>
-        <v>477.52208279999996</v>
-      </c>
-      <c r="E31" s="47">
-        <f t="shared" si="3"/>
-        <v>1.1400000000000001</v>
-      </c>
-      <c r="F31" s="47">
-        <f t="shared" si="4"/>
-        <v>0.76000000000000012</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="5"/>
-        <v>544.37517501403943</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="6"/>
-        <v>0.72960000000000014</v>
-      </c>
-      <c r="I31">
-        <f>(100-A31) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.77679999999999993</v>
-      </c>
-      <c r="J31">
-        <f>I31 * $F$2 * $J$4</f>
         <v>2132.133029845505</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.25531951683778614</v>
       </c>
     </row>
@@ -16093,43 +16527,43 @@
         <v>25</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4750</v>
       </c>
       <c r="C32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>497.41883624999997</v>
       </c>
       <c r="E32" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.125</v>
       </c>
       <c r="F32" s="47">
-        <f t="shared" si="4"/>
-        <v>0.75</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="5"/>
-        <v>559.59619142068186</v>
-      </c>
-      <c r="H32">
         <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
+      <c r="G32">
+        <f t="shared" si="7"/>
+        <v>559.59619142068186</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
       <c r="I32">
-        <f>(100-A32) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="0"/>
         <v>0.76750000000000007</v>
       </c>
       <c r="J32">
-        <f>I32 * $F$2 * $J$4</f>
+        <f t="shared" si="1"/>
         <v>2106.6067203996204</v>
       </c>
       <c r="K32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26563866240516276</v>
       </c>
     </row>
@@ -16138,43 +16572,43 @@
         <v>26</v>
       </c>
       <c r="B33">
+        <f t="shared" si="2"/>
+        <v>4940</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>0.26</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>517.31558970000003</v>
+      </c>
+      <c r="E33" s="47">
+        <f t="shared" si="5"/>
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F33" s="47">
+        <f t="shared" si="6"/>
+        <v>0.7400000000000001</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="7"/>
+        <v>574.22030522314242</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="8"/>
+        <v>0.76960000000000017</v>
+      </c>
+      <c r="I33">
         <f t="shared" si="0"/>
-        <v>4940</v>
-      </c>
-      <c r="C33">
+        <v>0.75819999999999999</v>
+      </c>
+      <c r="J33">
         <f t="shared" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="2"/>
-        <v>517.31558970000003</v>
-      </c>
-      <c r="E33" s="47">
-        <f t="shared" si="3"/>
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F33" s="47">
-        <f t="shared" si="4"/>
-        <v>0.7400000000000001</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="5"/>
-        <v>574.22030522314242</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="6"/>
-        <v>0.76960000000000017</v>
-      </c>
-      <c r="I33">
-        <f>(100-A33) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.75819999999999999</v>
-      </c>
-      <c r="J33">
-        <f>I33 * $F$2 * $J$4</f>
         <v>2081.0804109537353</v>
       </c>
       <c r="K33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.27592413161968299</v>
       </c>
     </row>
@@ -16183,43 +16617,43 @@
         <v>27</v>
       </c>
       <c r="B34">
+        <f t="shared" si="2"/>
+        <v>5130</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>0.27</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="4"/>
+        <v>537.21234315000004</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" si="5"/>
+        <v>1.095</v>
+      </c>
+      <c r="F34" s="47">
+        <f t="shared" si="6"/>
+        <v>0.73</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="7"/>
+        <v>588.24751642142076</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="8"/>
+        <v>0.78839999999999999</v>
+      </c>
+      <c r="I34">
         <f t="shared" si="0"/>
-        <v>5130</v>
-      </c>
-      <c r="C34">
+        <v>0.7488999999999999</v>
+      </c>
+      <c r="J34">
         <f t="shared" si="1"/>
-        <v>0.27</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="2"/>
-        <v>537.21234315000004</v>
-      </c>
-      <c r="E34" s="47">
-        <f t="shared" si="3"/>
-        <v>1.095</v>
-      </c>
-      <c r="F34" s="47">
-        <f t="shared" si="4"/>
-        <v>0.73</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="5"/>
-        <v>588.24751642142076</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="6"/>
-        <v>0.78839999999999999</v>
-      </c>
-      <c r="I34">
-        <f>(100-A34) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.7488999999999999</v>
-      </c>
-      <c r="J34">
-        <f>I34 * $F$2 * $J$4</f>
         <v>2055.5541015078506</v>
       </c>
       <c r="K34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2861746698809397</v>
       </c>
     </row>
@@ -16228,43 +16662,43 @@
         <v>28</v>
       </c>
       <c r="B35">
+        <f t="shared" si="2"/>
+        <v>5320.0000000000009</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="4"/>
+        <v>557.10909660000004</v>
+      </c>
+      <c r="E35" s="47">
+        <f t="shared" si="5"/>
+        <v>1.08</v>
+      </c>
+      <c r="F35" s="47">
+        <f t="shared" si="6"/>
+        <v>0.72000000000000008</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="7"/>
+        <v>601.67782501551721</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="8"/>
+        <v>0.80640000000000012</v>
+      </c>
+      <c r="I35">
         <f t="shared" si="0"/>
-        <v>5320.0000000000009</v>
-      </c>
-      <c r="C35">
+        <v>0.73960000000000004</v>
+      </c>
+      <c r="J35">
         <f t="shared" si="1"/>
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="2"/>
-        <v>557.10909660000004</v>
-      </c>
-      <c r="E35" s="47">
-        <f t="shared" si="3"/>
-        <v>1.08</v>
-      </c>
-      <c r="F35" s="47">
-        <f t="shared" si="4"/>
-        <v>0.72000000000000008</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="5"/>
-        <v>601.67782501551721</v>
-      </c>
-      <c r="H35">
-        <f t="shared" si="6"/>
-        <v>0.80640000000000012</v>
-      </c>
-      <c r="I35">
-        <f>(100-A35) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.73960000000000004</v>
-      </c>
-      <c r="J35">
-        <f>I35 * $F$2 * $J$4</f>
         <v>2030.0277920619665</v>
       </c>
       <c r="K35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.2963889594853148</v>
       </c>
     </row>
@@ -16273,43 +16707,43 @@
         <v>29</v>
       </c>
       <c r="B36">
+        <f t="shared" si="2"/>
+        <v>5510</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="4"/>
+        <v>577.00585004999994</v>
+      </c>
+      <c r="E36" s="47">
+        <f t="shared" si="5"/>
+        <v>1.0649999999999999</v>
+      </c>
+      <c r="F36" s="47">
+        <f t="shared" si="6"/>
+        <v>0.71</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>614.51123100543145</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="8"/>
+        <v>0.82360000000000011</v>
+      </c>
+      <c r="I36">
         <f t="shared" si="0"/>
-        <v>5510</v>
-      </c>
-      <c r="C36">
+        <v>0.73029999999999995</v>
+      </c>
+      <c r="J36">
         <f t="shared" si="1"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="2"/>
-        <v>577.00585004999994</v>
-      </c>
-      <c r="E36" s="47">
-        <f t="shared" si="3"/>
-        <v>1.0649999999999999</v>
-      </c>
-      <c r="F36" s="47">
-        <f t="shared" si="4"/>
-        <v>0.71</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="5"/>
-        <v>614.51123100543145</v>
-      </c>
-      <c r="H36">
-        <f t="shared" si="6"/>
-        <v>0.82360000000000011</v>
-      </c>
-      <c r="I36">
-        <f>(100-A36) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.73029999999999995</v>
-      </c>
-      <c r="J36">
-        <f>I36 * $F$2 * $J$4</f>
         <v>2004.5014826160814</v>
       </c>
       <c r="K36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.3065656156080418</v>
       </c>
     </row>
@@ -16318,43 +16752,43 @@
         <v>30</v>
       </c>
       <c r="B37">
+        <f t="shared" si="2"/>
+        <v>5700</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>0.3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="4"/>
+        <v>596.90260349999994</v>
+      </c>
+      <c r="E37" s="47">
+        <f t="shared" si="5"/>
+        <v>1.05</v>
+      </c>
+      <c r="F37" s="47">
+        <f t="shared" si="6"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="7"/>
+        <v>626.7477343911637</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="I37">
         <f t="shared" si="0"/>
-        <v>5700</v>
-      </c>
-      <c r="C37">
+        <v>0.72100000000000009</v>
+      </c>
+      <c r="J37">
         <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="2"/>
-        <v>596.90260349999994</v>
-      </c>
-      <c r="E37" s="47">
-        <f t="shared" si="3"/>
-        <v>1.05</v>
-      </c>
-      <c r="F37" s="47">
-        <f t="shared" si="4"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="5"/>
-        <v>626.7477343911637</v>
-      </c>
-      <c r="H37">
-        <f t="shared" si="6"/>
-        <v>0.84000000000000008</v>
-      </c>
-      <c r="I37">
-        <f>(100-A37) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.72100000000000009</v>
-      </c>
-      <c r="J37">
-        <f>I37 * $F$2 * $J$4</f>
         <v>1978.9751731701972</v>
       </c>
       <c r="K37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.31670318197431058</v>
       </c>
     </row>
@@ -16363,43 +16797,43 @@
         <v>31</v>
       </c>
       <c r="B38">
+        <f t="shared" si="2"/>
+        <v>5890</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>0.31</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="4"/>
+        <v>616.79935694999995</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="5"/>
+        <v>1.0349999999999999</v>
+      </c>
+      <c r="F38" s="47">
+        <f t="shared" si="6"/>
+        <v>0.69</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="7"/>
+        <v>638.38733517271385</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="8"/>
+        <v>0.85560000000000003</v>
+      </c>
+      <c r="I38">
         <f t="shared" si="0"/>
-        <v>5890</v>
-      </c>
-      <c r="C38">
+        <v>0.7117</v>
+      </c>
+      <c r="J38">
         <f t="shared" si="1"/>
-        <v>0.31</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="2"/>
-        <v>616.79935694999995</v>
-      </c>
-      <c r="E38" s="47">
-        <f t="shared" si="3"/>
-        <v>1.0349999999999999</v>
-      </c>
-      <c r="F38" s="47">
-        <f t="shared" si="4"/>
-        <v>0.69</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
-        <v>638.38733517271385</v>
-      </c>
-      <c r="H38">
-        <f t="shared" si="6"/>
-        <v>0.85560000000000003</v>
-      </c>
-      <c r="I38">
-        <f>(100-A38) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.7117</v>
-      </c>
-      <c r="J38">
-        <f>I38 * $F$2 * $J$4</f>
         <v>1953.4488637243123</v>
       </c>
       <c r="K38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.32680012619097082</v>
       </c>
     </row>
@@ -16408,43 +16842,43 @@
         <v>32</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6080</v>
       </c>
       <c r="C39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.32</v>
       </c>
       <c r="D39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>636.69611039999995</v>
       </c>
       <c r="E39" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.02</v>
       </c>
       <c r="F39" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.68</v>
       </c>
       <c r="G39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>649.430033350082</v>
       </c>
       <c r="H39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.87040000000000006</v>
       </c>
       <c r="I39">
-        <f>(100-A39) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" ref="I39:I70" si="10">(100-A39) * 0.01 * (1 - $B$4) + $B$4</f>
         <v>0.70239999999999991</v>
       </c>
       <c r="J39">
-        <f>I39 * $F$2 * $J$4</f>
+        <f t="shared" ref="J39:J70" si="11">I39 * $F$2 * $J$4</f>
         <v>1927.9225542784277</v>
       </c>
       <c r="K39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33685483470737604</v>
       </c>
     </row>
@@ -16453,43 +16887,43 @@
         <v>33</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6270</v>
       </c>
       <c r="C40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.33</v>
       </c>
       <c r="D40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>656.59286384999996</v>
       </c>
       <c r="E40" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0050000000000001</v>
       </c>
       <c r="F40" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.67</v>
       </c>
       <c r="G40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>659.87582892326816</v>
       </c>
       <c r="H40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.88440000000000019</v>
       </c>
       <c r="I40">
-        <f>(100-A40) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.69310000000000005</v>
       </c>
       <c r="J40">
-        <f>I40 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1902.3962448325431</v>
       </c>
       <c r="K40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.34686560737053662</v>
       </c>
       <c r="N40" s="61" t="s">
@@ -16513,43 +16947,43 @@
         <v>34</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6460.0000000000009</v>
       </c>
       <c r="C41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.34</v>
       </c>
       <c r="D41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>676.48961730000008</v>
       </c>
       <c r="E41" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.99</v>
       </c>
       <c r="F41" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.66</v>
       </c>
       <c r="G41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>669.72472189227221</v>
       </c>
       <c r="H41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.89760000000000029</v>
       </c>
       <c r="I41">
-        <f>(100-A41) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.68379999999999996</v>
       </c>
       <c r="J41">
-        <f>I41 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1876.8699353866584</v>
       </c>
       <c r="K41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.35683065153595772</v>
       </c>
       <c r="N41" s="64">
@@ -16577,43 +17011,43 @@
         <v>35</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6650.0000000000009</v>
       </c>
       <c r="C42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="D42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>696.38637075000008</v>
       </c>
       <c r="E42" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.97499999999999998</v>
       </c>
       <c r="F42" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.65</v>
       </c>
       <c r="G42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>678.97671225709416</v>
       </c>
       <c r="H42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.91000000000000025</v>
       </c>
       <c r="I42">
-        <f>(100-A42) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.67449999999999988</v>
       </c>
       <c r="J42">
-        <f>I42 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1851.3436259407736</v>
       </c>
       <c r="K42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.36674807569127921</v>
       </c>
       <c r="N42" s="64">
@@ -16643,43 +17077,43 @@
         <v>36</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6840</v>
       </c>
       <c r="C43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.36</v>
       </c>
       <c r="D43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>716.28312419999997</v>
       </c>
       <c r="E43" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.96</v>
       </c>
       <c r="F43" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.64</v>
       </c>
       <c r="G43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>687.63180001773389</v>
       </c>
       <c r="H43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.92160000000000009</v>
       </c>
       <c r="I43">
-        <f>(100-A43) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.66520000000000001</v>
       </c>
       <c r="J43">
-        <f>I43 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1825.8173164948892</v>
       </c>
       <c r="K43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37661588254503703</v>
       </c>
       <c r="N43" s="64">
@@ -16689,7 +17123,7 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="P43" s="65">
-        <f t="shared" ref="P43:P51" si="8">O42-O43</f>
+        <f t="shared" ref="P43:P51" si="12">O42-O43</f>
         <v>0.36249999999999982</v>
       </c>
       <c r="Q43" s="65"/>
@@ -16700,7 +17134,7 @@
         <v>2.3090000000000002</v>
       </c>
       <c r="T43" s="66">
-        <f t="shared" ref="T43:T51" si="9">S42-S43</f>
+        <f t="shared" ref="T43:T51" si="13">S42-S43</f>
         <v>0.36249999999999982</v>
       </c>
     </row>
@@ -16709,43 +17143,43 @@
         <v>37</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7030</v>
       </c>
       <c r="C44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37</v>
       </c>
       <c r="D44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>736.17987764999998</v>
       </c>
       <c r="E44" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.94500000000000006</v>
       </c>
       <c r="F44" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.63</v>
       </c>
       <c r="G44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>695.68998517419175</v>
       </c>
       <c r="H44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.93240000000000012</v>
       </c>
       <c r="I44">
-        <f>(100-A44) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.65589999999999993</v>
       </c>
       <c r="J44">
-        <f>I44 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1800.2910070490043</v>
       </c>
       <c r="K44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.38643196152745929</v>
       </c>
       <c r="N44" s="64">
@@ -16755,7 +17189,7 @@
         <v>2.0783999999999998</v>
       </c>
       <c r="P44" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.23060000000000036</v>
       </c>
       <c r="Q44" s="65"/>
@@ -16766,7 +17200,7 @@
         <v>2.0783999999999998</v>
       </c>
       <c r="T44" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.23060000000000036</v>
       </c>
     </row>
@@ -16775,43 +17209,43 @@
         <v>38</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7220</v>
       </c>
       <c r="C45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.38</v>
       </c>
       <c r="D45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>756.07663109999999</v>
       </c>
       <c r="E45" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.93</v>
       </c>
       <c r="F45" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.62</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>703.15126772646749</v>
       </c>
       <c r="H45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.94240000000000013</v>
       </c>
       <c r="I45">
-        <f>(100-A45) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.64660000000000006</v>
       </c>
       <c r="J45">
-        <f>I45 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1774.7646976031201</v>
       </c>
       <c r="K45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.39619408064409728</v>
       </c>
       <c r="N45" s="64">
@@ -16821,7 +17255,7 @@
         <v>1.9097999999999999</v>
       </c>
       <c r="P45" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.16859999999999986</v>
       </c>
       <c r="Q45" s="65"/>
@@ -16832,7 +17266,7 @@
         <v>1.9097999999999999</v>
       </c>
       <c r="T45" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.16859999999999986</v>
       </c>
     </row>
@@ -16841,43 +17275,43 @@
         <v>39</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7410</v>
       </c>
       <c r="C46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.39</v>
       </c>
       <c r="D46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>775.97338454999999</v>
       </c>
       <c r="E46" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.91500000000000004</v>
       </c>
       <c r="F46" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.61</v>
       </c>
       <c r="G46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>710.01564767456125</v>
       </c>
       <c r="H46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.95160000000000022</v>
       </c>
       <c r="I46">
-        <f>(100-A46) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.63729999999999998</v>
       </c>
       <c r="J46">
-        <f>I46 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1749.2383881572352</v>
       </c>
       <c r="K46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.40589987761618884</v>
       </c>
       <c r="N46" s="64">
@@ -16887,7 +17321,7 @@
         <v>1.7776000000000001</v>
       </c>
       <c r="P46" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0.13219999999999987</v>
       </c>
       <c r="Q46" s="65"/>
@@ -16898,7 +17332,7 @@
         <v>1.7776000000000001</v>
       </c>
       <c r="T46" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.13219999999999987</v>
       </c>
     </row>
@@ -16907,43 +17341,43 @@
         <v>40</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7600</v>
       </c>
       <c r="C47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
       <c r="D47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>795.870138</v>
       </c>
       <c r="E47" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
       <c r="F47" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>716.2831250184729</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.96000000000000019</v>
       </c>
       <c r="I47">
-        <f>(100-A47) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.62799999999999989</v>
       </c>
       <c r="J47">
-        <f>I47 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1723.7120787113502</v>
       </c>
       <c r="K47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.41554685023380894</v>
       </c>
       <c r="N47" s="64">
@@ -16964,7 +17398,7 @@
         <v>1.6697</v>
       </c>
       <c r="T47" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>0.10790000000000011</v>
       </c>
     </row>
@@ -16973,43 +17407,43 @@
         <v>41</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7790.0000000000009</v>
       </c>
       <c r="C48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.41000000000000003</v>
       </c>
       <c r="D48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>815.76689145000012</v>
       </c>
       <c r="E48" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.88500000000000001</v>
       </c>
       <c r="F48" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.59</v>
       </c>
       <c r="G48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>721.95369975820245</v>
       </c>
       <c r="H48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.96760000000000013</v>
       </c>
       <c r="I48">
-        <f>(100-A48) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.61870000000000003</v>
       </c>
       <c r="J48">
-        <f>I48 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1698.185769265466</v>
       </c>
       <c r="K48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.42513234583898124</v>
       </c>
       <c r="N48" s="64">
@@ -17030,7 +17464,7 @@
         <v>1.579</v>
       </c>
       <c r="T48" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>9.0700000000000003E-2</v>
       </c>
     </row>
@@ -17039,43 +17473,43 @@
         <v>42</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7980</v>
       </c>
       <c r="C49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.42</v>
       </c>
       <c r="D49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>835.66364490000001</v>
       </c>
       <c r="E49" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.87</v>
       </c>
       <c r="F49" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="G49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>727.02737189374989</v>
       </c>
       <c r="H49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.97440000000000004</v>
       </c>
       <c r="I49">
-        <f>(100-A49) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.60939999999999994</v>
       </c>
       <c r="J49">
-        <f>I49 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1672.6594598195811</v>
       </c>
       <c r="K49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.4346535498458064</v>
       </c>
       <c r="N49" s="64">
@@ -17096,7 +17530,7 @@
         <v>1.5009999999999999</v>
       </c>
       <c r="T49" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>7.8000000000000069E-2</v>
       </c>
     </row>
@@ -17105,43 +17539,43 @@
         <v>43</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8170</v>
       </c>
       <c r="C50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.43</v>
       </c>
       <c r="D50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>855.56039835000001</v>
       </c>
       <c r="E50" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.85499999999999998</v>
       </c>
       <c r="F50" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.56999999999999995</v>
       </c>
       <c r="G50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>731.50414142511534</v>
       </c>
       <c r="H50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.98040000000000005</v>
       </c>
       <c r="I50">
-        <f>(100-A50) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.60010000000000008</v>
       </c>
       <c r="J50">
-        <f>I50 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1647.1331503736967</v>
       </c>
       <c r="K50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.44410747319313792</v>
       </c>
       <c r="N50" s="64">
@@ -17151,7 +17585,7 @@
         <v>1.4328000000000001</v>
       </c>
       <c r="P50" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.8199999999999816E-2</v>
       </c>
       <c r="Q50" s="65"/>
@@ -17162,7 +17596,7 @@
         <v>1.4328000000000001</v>
       </c>
       <c r="T50" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.8199999999999816E-2</v>
       </c>
     </row>
@@ -17171,43 +17605,43 @@
         <v>44</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8360</v>
       </c>
       <c r="C51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.44</v>
       </c>
       <c r="D51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>875.45715180000002</v>
       </c>
       <c r="E51" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.84</v>
       </c>
       <c r="F51" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.55999999999999994</v>
       </c>
       <c r="G51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>735.38400835229879</v>
       </c>
       <c r="H51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.98560000000000014</v>
       </c>
       <c r="I51">
-        <f>(100-A51) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.59079999999999999</v>
       </c>
       <c r="J51">
-        <f>I51 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1621.6068409278118</v>
       </c>
       <c r="K51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.4534909386121882</v>
       </c>
       <c r="N51" s="64">
@@ -17217,7 +17651,7 @@
         <v>1.3725000000000001</v>
       </c>
       <c r="P51" s="65">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6.030000000000002E-2</v>
       </c>
       <c r="Q51" s="65"/>
@@ -17228,7 +17662,7 @@
         <v>1.3725000000000001</v>
       </c>
       <c r="T51" s="66">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>6.030000000000002E-2</v>
       </c>
     </row>
@@ -17237,43 +17671,43 @@
         <v>45</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8550</v>
       </c>
       <c r="C52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
       <c r="D52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>895.35390525000003</v>
       </c>
       <c r="E52" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.82500000000000007</v>
       </c>
       <c r="F52" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="G52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>738.66697267530026</v>
       </c>
       <c r="H52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99000000000000032</v>
       </c>
       <c r="I52">
-        <f>(100-A52) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.58149999999999991</v>
       </c>
       <c r="J52">
-        <f>I52 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1596.0805314819272</v>
       </c>
       <c r="K52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.46280056557638949</v>
       </c>
       <c r="N52" s="64"/>
@@ -17289,43 +17723,43 @@
         <v>46</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8740</v>
       </c>
       <c r="C53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.46</v>
       </c>
       <c r="D53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>915.25065870000003</v>
       </c>
       <c r="E53" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81</v>
       </c>
       <c r="F53" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.54</v>
       </c>
       <c r="G53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>741.3530343941195</v>
       </c>
       <c r="H53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99360000000000026</v>
       </c>
       <c r="I53">
-        <f>(100-A53) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.57220000000000004</v>
       </c>
       <c r="J53">
-        <f>I53 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1570.5542220360428</v>
       </c>
       <c r="K53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.4720327537835915</v>
       </c>
       <c r="N53" s="64"/>
@@ -17343,43 +17777,43 @@
         <v>47</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8930</v>
       </c>
       <c r="C54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.47</v>
       </c>
       <c r="D54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>935.14741214999992</v>
       </c>
       <c r="E54" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.79500000000000004</v>
       </c>
       <c r="F54" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.53</v>
       </c>
       <c r="G54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>743.44219350875653</v>
       </c>
       <c r="H54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99640000000000006</v>
       </c>
       <c r="I54">
-        <f>(100-A54) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.56289999999999996</v>
       </c>
       <c r="J54">
-        <f>I54 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1545.0279125901579</v>
       </c>
       <c r="K54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.48118366500085741</v>
       </c>
       <c r="N54" s="64"/>
@@ -17397,43 +17831,43 @@
         <v>48</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9120</v>
       </c>
       <c r="C55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
       <c r="D55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>955.04416559999993</v>
       </c>
       <c r="E55" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.78</v>
       </c>
       <c r="F55" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.52</v>
       </c>
       <c r="G55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>744.93445001921168</v>
       </c>
       <c r="H55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99840000000000007</v>
       </c>
       <c r="I55">
-        <f>(100-A55) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.55359999999999998</v>
       </c>
       <c r="J55">
-        <f>I55 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1519.5016031442733</v>
       </c>
       <c r="K55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.49024920307930853</v>
       </c>
       <c r="N55" s="64"/>
@@ -17449,43 +17883,43 @@
         <v>49</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9310</v>
       </c>
       <c r="C56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.49</v>
       </c>
       <c r="D56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>974.94091904999993</v>
       </c>
       <c r="E56" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76500000000000001</v>
       </c>
       <c r="F56" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.51</v>
       </c>
       <c r="G56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>745.82980392548484</v>
       </c>
       <c r="H56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99960000000000016</v>
       </c>
       <c r="I56">
-        <f>(100-A56) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.54430000000000001</v>
       </c>
       <c r="J56">
-        <f>I56 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1493.9752936983889</v>
       </c>
       <c r="K56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.49922499192015196</v>
       </c>
       <c r="N56" s="64"/>
@@ -17501,43 +17935,43 @@
         <v>50</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9500</v>
       </c>
       <c r="C57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>994.83767249999994</v>
       </c>
       <c r="E57" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="F57" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="G57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>746.12825522757578</v>
       </c>
       <c r="H57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I57">
-        <f>(100-A57) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.53499999999999992</v>
       </c>
       <c r="J57">
-        <f>I57 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1468.4489842525038</v>
       </c>
       <c r="K57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.50810635114258551</v>
       </c>
       <c r="N57" s="64"/>
@@ -17553,43 +17987,43 @@
         <v>51</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9690</v>
       </c>
       <c r="C58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.51</v>
       </c>
       <c r="D58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1014.7344259499999</v>
       </c>
       <c r="E58" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.73499999999999999</v>
       </c>
       <c r="F58" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.49</v>
       </c>
       <c r="G58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>745.82980392548473</v>
       </c>
       <c r="H58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99959999999999993</v>
       </c>
       <c r="I58">
-        <f>(100-A58) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.52569999999999995</v>
       </c>
       <c r="J58">
-        <f>I58 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1442.9226748066192</v>
       </c>
       <c r="K58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.51688826916899133</v>
       </c>
       <c r="N58" s="64"/>
@@ -17605,43 +18039,43 @@
         <v>52</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9880</v>
       </c>
       <c r="C59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.52</v>
       </c>
       <c r="D59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1034.6311794000001</v>
       </c>
       <c r="E59" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.72</v>
       </c>
       <c r="F59" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.48</v>
       </c>
       <c r="G59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>744.93445001921168</v>
       </c>
       <c r="H59">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99840000000000007</v>
       </c>
       <c r="I59">
-        <f>(100-A59) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.51639999999999997</v>
       </c>
       <c r="J59">
-        <f>I59 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1417.3963653607348</v>
       </c>
       <c r="K59">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.52556537340183029</v>
       </c>
       <c r="N59" s="64"/>
@@ -17657,43 +18091,43 @@
         <v>53</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10070</v>
       </c>
       <c r="C60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.53</v>
       </c>
       <c r="D60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1054.5279328500001</v>
       </c>
       <c r="E60" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.70499999999999996</v>
       </c>
       <c r="F60" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.47</v>
       </c>
       <c r="G60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>743.44219350875653</v>
       </c>
       <c r="H60">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99640000000000006</v>
       </c>
       <c r="I60">
-        <f>(100-A60) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.5071</v>
       </c>
       <c r="J60">
-        <f>I60 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1391.8700559148499</v>
       </c>
       <c r="K60">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.53413189711887721</v>
       </c>
       <c r="N60" s="64"/>
@@ -17709,43 +18143,43 @@
         <v>54</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10260</v>
       </c>
       <c r="C61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.54</v>
       </c>
       <c r="D61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1074.4246863000001</v>
       </c>
       <c r="E61" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.69000000000000006</v>
       </c>
       <c r="F61" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.46</v>
       </c>
       <c r="G61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>741.3530343941195</v>
       </c>
       <c r="H61">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99360000000000026</v>
       </c>
       <c r="I61">
-        <f>(100-A61) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.49780000000000002</v>
       </c>
       <c r="J61">
-        <f>I61 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1366.3437464689655</v>
       </c>
       <c r="K61">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.54258164265763575</v>
       </c>
       <c r="N61" s="64"/>
@@ -17761,43 +18195,43 @@
         <v>55</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10450</v>
       </c>
       <c r="C62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="D62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1094.3214397500001</v>
       </c>
       <c r="E62" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.67500000000000004</v>
       </c>
       <c r="F62" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.45</v>
       </c>
       <c r="G62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>738.66697267530026</v>
       </c>
       <c r="H62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.99000000000000032</v>
       </c>
       <c r="I62">
-        <f>(100-A62) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.48849999999999999</v>
       </c>
       <c r="J62">
-        <f>I62 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1340.8174370230806</v>
       </c>
       <c r="K62">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.55090794039441249</v>
       </c>
       <c r="N62" s="67"/>
@@ -17813,43 +18247,43 @@
         <v>56</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10640.000000000002</v>
       </c>
       <c r="C63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="D63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1114.2181932000001</v>
       </c>
       <c r="E63" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.66</v>
       </c>
       <c r="F63" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.44</v>
       </c>
       <c r="G63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>735.38400835229891</v>
       </c>
       <c r="H63">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.98560000000000025</v>
       </c>
       <c r="I63">
-        <f>(100-A63) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.47919999999999996</v>
       </c>
       <c r="J63">
-        <f>I63 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1315.2911275771962</v>
       </c>
       <c r="K63">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.55910360294674621</v>
       </c>
     </row>
@@ -17858,43 +18292,43 @@
         <v>57</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10830.000000000002</v>
       </c>
       <c r="C64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="D64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1134.1149466500001</v>
       </c>
       <c r="E64" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.64500000000000002</v>
       </c>
       <c r="F64" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.43</v>
       </c>
       <c r="G64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>731.50414142511556</v>
       </c>
       <c r="H64">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.98040000000000038</v>
       </c>
       <c r="I64">
-        <f>(100-A64) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.46989999999999998</v>
       </c>
       <c r="J64">
-        <f>I64 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1289.7648181313114</v>
       </c>
       <c r="K64">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.56716087393743819</v>
       </c>
     </row>
@@ -17903,43 +18337,43 @@
         <v>58</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11020</v>
       </c>
       <c r="C65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.57999999999999996</v>
       </c>
       <c r="D65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1154.0117000999999</v>
       </c>
       <c r="E65" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.63</v>
       </c>
       <c r="F65" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.42</v>
       </c>
       <c r="G65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>727.02737189374989</v>
       </c>
       <c r="H65">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.97440000000000004</v>
       </c>
       <c r="I65">
-        <f>(100-A65) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.46059999999999995</v>
       </c>
       <c r="J65">
-        <f>I65 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1264.2385086854267</v>
       </c>
       <c r="K65">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.57507137055152935</v>
       </c>
     </row>
@@ -17948,43 +18382,43 @@
         <v>59</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11210</v>
       </c>
       <c r="C66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.59</v>
       </c>
       <c r="D66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1173.9084535499999</v>
       </c>
       <c r="E66" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.61499999999999999</v>
       </c>
       <c r="F66" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.41</v>
       </c>
       <c r="G66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>721.95369975820233</v>
       </c>
       <c r="H66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.96760000000000002</v>
       </c>
       <c r="I66">
-        <f>(100-A66) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.45130000000000003</v>
       </c>
       <c r="J66">
-        <f>I66 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1238.7121992395423</v>
       </c>
       <c r="K66">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.58282601899086561</v>
       </c>
     </row>
@@ -17993,43 +18427,43 @@
         <v>60</v>
       </c>
       <c r="B67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11400</v>
       </c>
       <c r="C67">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="D67">
-        <f t="shared" si="2"/>
-        <v>1193.8052069999999</v>
-      </c>
-      <c r="E67" s="47">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
+      <c r="D67">
+        <f t="shared" si="4"/>
+        <v>1193.8052069999999</v>
+      </c>
+      <c r="E67" s="47">
+        <f t="shared" si="5"/>
+        <v>0.6</v>
+      </c>
       <c r="F67" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="G67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>716.2831250184729</v>
       </c>
       <c r="H67">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.96000000000000019</v>
       </c>
       <c r="I67">
-        <f>(100-A67) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.442</v>
       </c>
       <c r="J67">
-        <f>I67 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1213.1858897936577</v>
       </c>
       <c r="K67">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.59041498178016272</v>
       </c>
     </row>
@@ -18038,43 +18472,43 @@
         <v>61</v>
       </c>
       <c r="B68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11590</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.61</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1213.7019604499999</v>
       </c>
       <c r="E68" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.58499999999999996</v>
       </c>
       <c r="F68" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38999999999999996</v>
       </c>
       <c r="G68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>710.01564767456114</v>
       </c>
       <c r="H68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.9516</v>
       </c>
       <c r="I68">
-        <f>(100-A68) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.43269999999999997</v>
       </c>
       <c r="J68">
-        <f>I68 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1187.6595803477728</v>
       </c>
       <c r="K68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.59782757569862988</v>
       </c>
     </row>
@@ -18083,43 +18517,43 @@
         <v>62</v>
       </c>
       <c r="B69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11780</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.62</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1233.5987138999999</v>
       </c>
       <c r="E69" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.57000000000000006</v>
       </c>
       <c r="F69" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.38000000000000006</v>
       </c>
       <c r="G69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>703.15126772646749</v>
       </c>
       <c r="H69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.94240000000000013</v>
       </c>
       <c r="I69">
-        <f>(100-A69) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.4234</v>
       </c>
       <c r="J69">
-        <f>I69 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1162.1332709018884</v>
       </c>
       <c r="K69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.60505217889578011</v>
       </c>
     </row>
@@ -18128,43 +18562,43 @@
         <v>63</v>
       </c>
       <c r="B70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11970</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.63</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1253.4954673499999</v>
       </c>
       <c r="E70" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.55500000000000005</v>
       </c>
       <c r="F70" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.37000000000000005</v>
       </c>
       <c r="G70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>695.68998517419175</v>
       </c>
       <c r="H70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.93240000000000012</v>
       </c>
       <c r="I70">
-        <f>(100-A70) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="10"/>
         <v>0.41409999999999997</v>
       </c>
       <c r="J70">
-        <f>I70 * $F$2 * $J$4</f>
+        <f t="shared" si="11"/>
         <v>1136.6069614560035</v>
       </c>
       <c r="K70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.61207612549109036</v>
       </c>
     </row>
@@ -18173,43 +18607,43 @@
         <v>64</v>
       </c>
       <c r="B71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12160</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.64</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1273.3922207999999</v>
       </c>
       <c r="E71" s="47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.54</v>
       </c>
       <c r="F71" s="47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="G71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>687.63180001773401</v>
       </c>
       <c r="H71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.9216000000000002</v>
       </c>
       <c r="I71">
-        <f>(100-A71) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" ref="I71:I107" si="14">(100-A71) * 0.01 * (1 - $B$4) + $B$4</f>
         <v>0.40479999999999999</v>
       </c>
       <c r="J71">
-        <f>I71 * $F$2 * $J$4</f>
+        <f t="shared" ref="J71:J102" si="15">I71 * $F$2 * $J$4</f>
         <v>1111.0806520101189</v>
       </c>
       <c r="K71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.61888558564466079</v>
       </c>
     </row>
@@ -18218,43 +18652,43 @@
         <v>65</v>
       </c>
       <c r="B72">
-        <f t="shared" ref="B72:B107" si="10">A72*0.01*$B$5</f>
+        <f t="shared" ref="B72:B107" si="16">A72*0.01*$B$5</f>
         <v>12350</v>
       </c>
       <c r="C72">
-        <f t="shared" ref="C72:C107" si="11">B72/$B$5</f>
+        <f t="shared" ref="C72:C107" si="17">B72/$B$5</f>
         <v>0.65</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D107" si="12">B72*0.104719755</f>
+        <f t="shared" ref="D72:D107" si="18">B72*0.104719755</f>
         <v>1293.2889742499999</v>
       </c>
       <c r="E72" s="47">
-        <f t="shared" ref="E72:E107" si="13">(100-A72)*$B$3*0.01</f>
+        <f t="shared" ref="E72:E107" si="19">(100-A72)*$B$3*0.01</f>
         <v>0.52500000000000002</v>
       </c>
       <c r="F72" s="47">
-        <f t="shared" ref="F72:F107" si="14">E72/$B$3</f>
+        <f t="shared" ref="F72:F107" si="20">E72/$B$3</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="G72">
-        <f t="shared" ref="G72:G107" si="15">E72*B72*2*PI()/60</f>
+        <f t="shared" ref="G72:G107" si="21">E72*B72*2*PI()/60</f>
         <v>678.97671225709405</v>
       </c>
       <c r="H72">
-        <f t="shared" ref="H72:H108" si="16">G72/$G$108</f>
+        <f t="shared" ref="H72:H108" si="22">G72/$G$108</f>
         <v>0.91000000000000014</v>
       </c>
       <c r="I72">
-        <f>(100-A72) * 0.01 * (1 - $B$4) + $B$4</f>
+        <f t="shared" si="14"/>
         <v>0.39550000000000002</v>
       </c>
       <c r="J72">
-        <f>I72 * $F$2 * $J$4</f>
+        <f t="shared" si="15"/>
         <v>1085.5543425642343</v>
       </c>
       <c r="K72">
-        <f t="shared" ref="K72:K107" si="17">IFERROR(G72/J72,1)</f>
+        <f t="shared" ref="K72:K107" si="23">IFERROR(G72/J72,1)</f>
         <v>0.62546542870737742</v>
       </c>
     </row>
@@ -18263,43 +18697,43 @@
         <v>66</v>
       </c>
       <c r="B73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>12540</v>
       </c>
       <c r="C73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.66</v>
       </c>
       <c r="D73">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1313.1857276999999</v>
       </c>
       <c r="E73" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.51</v>
       </c>
       <c r="F73" s="47">
+        <f t="shared" si="20"/>
+        <v>0.34</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="21"/>
+        <v>669.72472189227221</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="22"/>
+        <v>0.89760000000000029</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="14"/>
-        <v>0.34</v>
-      </c>
-      <c r="G73">
+        <v>0.38619999999999999</v>
+      </c>
+      <c r="J73">
         <f t="shared" si="15"/>
-        <v>669.72472189227221</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="16"/>
-        <v>0.89760000000000029</v>
-      </c>
-      <c r="I73">
-        <f>(100-A73) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.38619999999999999</v>
-      </c>
-      <c r="J73">
-        <f>I73 * $F$2 * $J$4</f>
         <v>1060.0280331183496</v>
       </c>
       <c r="K73">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.63179906659836327</v>
       </c>
     </row>
@@ -18308,43 +18742,43 @@
         <v>67</v>
       </c>
       <c r="B74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>12730</v>
       </c>
       <c r="C74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.67</v>
       </c>
       <c r="D74">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1333.0824811499999</v>
       </c>
       <c r="E74" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.495</v>
       </c>
       <c r="F74" s="47">
+        <f t="shared" si="20"/>
+        <v>0.33</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="21"/>
+        <v>659.87582892326816</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="22"/>
+        <v>0.88440000000000019</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="14"/>
-        <v>0.33</v>
-      </c>
-      <c r="G74">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="J74">
         <f t="shared" si="15"/>
-        <v>659.87582892326816</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="16"/>
-        <v>0.88440000000000019</v>
-      </c>
-      <c r="I74">
-        <f>(100-A74) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.37690000000000001</v>
-      </c>
-      <c r="J74">
-        <f>I74 * $F$2 * $J$4</f>
         <v>1034.501723672465</v>
       </c>
       <c r="K74">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.63786827399447843</v>
       </c>
     </row>
@@ -18353,43 +18787,43 @@
         <v>68</v>
       </c>
       <c r="B75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>12920.000000000002</v>
       </c>
       <c r="C75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.68</v>
       </c>
       <c r="D75">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1352.9792346000002</v>
       </c>
       <c r="E75" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.48</v>
       </c>
       <c r="F75" s="47">
+        <f t="shared" si="20"/>
+        <v>0.32</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="21"/>
+        <v>649.430033350082</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="22"/>
+        <v>0.87040000000000006</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="14"/>
-        <v>0.32</v>
-      </c>
-      <c r="G75">
+        <v>0.36759999999999998</v>
+      </c>
+      <c r="J75">
         <f t="shared" si="15"/>
-        <v>649.430033350082</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="16"/>
-        <v>0.87040000000000006</v>
-      </c>
-      <c r="I75">
-        <f>(100-A75) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.36759999999999998</v>
-      </c>
-      <c r="J75">
-        <f>I75 * $F$2 * $J$4</f>
         <v>1008.9754142265803</v>
       </c>
       <c r="K75">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.6436529812254107</v>
       </c>
     </row>
@@ -18398,43 +18832,43 @@
         <v>69</v>
       </c>
       <c r="B76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13110.000000000002</v>
       </c>
       <c r="C76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.69000000000000006</v>
       </c>
       <c r="D76">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1372.8759880500002</v>
       </c>
       <c r="E76" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.46500000000000002</v>
       </c>
       <c r="F76" s="47">
+        <f t="shared" si="20"/>
+        <v>0.31</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="21"/>
+        <v>638.38733517271407</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="22"/>
+        <v>0.85560000000000036</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="14"/>
-        <v>0.31</v>
-      </c>
-      <c r="G76">
+        <v>0.35830000000000001</v>
+      </c>
+      <c r="J76">
         <f t="shared" si="15"/>
-        <v>638.38733517271407</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="16"/>
-        <v>0.85560000000000036</v>
-      </c>
-      <c r="I76">
-        <f>(100-A76) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.35830000000000001</v>
-      </c>
-      <c r="J76">
-        <f>I76 * $F$2 * $J$4</f>
         <v>983.44910478069562</v>
       </c>
       <c r="K76">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.64913103491519408</v>
       </c>
     </row>
@@ -18443,43 +18877,43 @@
         <v>70</v>
       </c>
       <c r="B77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13300.000000000002</v>
       </c>
       <c r="C77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="D77">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1392.7727415000002</v>
       </c>
       <c r="E77" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.45</v>
       </c>
       <c r="F77" s="47">
+        <f t="shared" si="20"/>
+        <v>0.3</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="21"/>
+        <v>626.74773439116382</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="22"/>
+        <v>0.84000000000000019</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="14"/>
-        <v>0.3</v>
-      </c>
-      <c r="G77">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="15"/>
-        <v>626.74773439116382</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="16"/>
-        <v>0.84000000000000019</v>
-      </c>
-      <c r="I77">
-        <f>(100-A77) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.34899999999999998</v>
-      </c>
-      <c r="J77">
-        <f>I77 * $F$2 * $J$4</f>
         <v>957.92279533481098</v>
       </c>
       <c r="K77">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.65427792035380516</v>
       </c>
     </row>
@@ -18488,43 +18922,43 @@
         <v>71</v>
       </c>
       <c r="B78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13490</v>
       </c>
       <c r="C78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.71</v>
       </c>
       <c r="D78">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1412.6694949499999</v>
       </c>
       <c r="E78" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.435</v>
       </c>
       <c r="F78" s="47">
+        <f t="shared" si="20"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="21"/>
+        <v>614.51123100543145</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="22"/>
+        <v>0.82360000000000011</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="14"/>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G78">
+        <v>0.33969999999999995</v>
+      </c>
+      <c r="J78">
         <f t="shared" si="15"/>
-        <v>614.51123100543145</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="16"/>
-        <v>0.82360000000000011</v>
-      </c>
-      <c r="I78">
-        <f>(100-A78) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.33969999999999995</v>
-      </c>
-      <c r="J78">
-        <f>I78 * $F$2 * $J$4</f>
         <v>932.39648588892624</v>
       </c>
       <c r="K78">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.65906643826480105</v>
       </c>
     </row>
@@ -18533,43 +18967,43 @@
         <v>72</v>
       </c>
       <c r="B79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13680</v>
       </c>
       <c r="C79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.72</v>
       </c>
       <c r="D79">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1432.5662483999999</v>
       </c>
       <c r="E79" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.42</v>
       </c>
       <c r="F79" s="47">
+        <f t="shared" si="20"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="21"/>
+        <v>601.6778250155171</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="22"/>
+        <v>0.80640000000000001</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="14"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="G79">
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="J79">
         <f t="shared" si="15"/>
-        <v>601.6778250155171</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="16"/>
-        <v>0.80640000000000001</v>
-      </c>
-      <c r="I79">
-        <f>(100-A79) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.33040000000000003</v>
-      </c>
-      <c r="J79">
-        <f>I79 * $F$2 * $J$4</f>
         <v>906.87017644304183</v>
       </c>
       <c r="K79">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.66346632698347086</v>
       </c>
     </row>
@@ -18578,43 +19012,43 @@
         <v>73</v>
       </c>
       <c r="B80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>13870</v>
       </c>
       <c r="C80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.73</v>
       </c>
       <c r="D80">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1452.46300185</v>
       </c>
       <c r="E80" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.40500000000000003</v>
       </c>
       <c r="F80" s="47">
+        <f t="shared" si="20"/>
+        <v>0.27</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="21"/>
+        <v>588.24751642142087</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="22"/>
+        <v>0.78840000000000021</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="14"/>
-        <v>0.27</v>
-      </c>
-      <c r="G80">
+        <v>0.3211</v>
+      </c>
+      <c r="J80">
         <f t="shared" si="15"/>
-        <v>588.24751642142087</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="16"/>
-        <v>0.78840000000000021</v>
-      </c>
-      <c r="I80">
-        <f>(100-A80) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.3211</v>
-      </c>
-      <c r="J80">
-        <f>I80 * $F$2 * $J$4</f>
         <v>881.34386699715708</v>
       </c>
       <c r="K80">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.66744381897799987</v>
       </c>
     </row>
@@ -18623,43 +19057,43 @@
         <v>74</v>
       </c>
       <c r="B81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14060</v>
       </c>
       <c r="C81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.74</v>
       </c>
       <c r="D81">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1472.3597553</v>
       </c>
       <c r="E81" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.39</v>
       </c>
       <c r="F81" s="47">
+        <f t="shared" si="20"/>
+        <v>0.26</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="21"/>
+        <v>574.22030522314242</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="22"/>
+        <v>0.76960000000000017</v>
+      </c>
+      <c r="I81">
         <f t="shared" si="14"/>
-        <v>0.26</v>
-      </c>
-      <c r="G81">
+        <v>0.31179999999999997</v>
+      </c>
+      <c r="J81">
         <f t="shared" si="15"/>
-        <v>574.22030522314242</v>
-      </c>
-      <c r="H81">
-        <f t="shared" si="16"/>
-        <v>0.76960000000000017</v>
-      </c>
-      <c r="I81">
-        <f>(100-A81) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.31179999999999997</v>
-      </c>
-      <c r="J81">
-        <f>I81 * $F$2 * $J$4</f>
         <v>855.81755755127233</v>
       </c>
       <c r="K81">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67096111800527147</v>
       </c>
     </row>
@@ -18668,43 +19102,43 @@
         <v>75</v>
       </c>
       <c r="B82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14250</v>
       </c>
       <c r="C82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="D82">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1492.25650875</v>
       </c>
       <c r="E82" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.375</v>
       </c>
       <c r="F82" s="47">
+        <f t="shared" si="20"/>
+        <v>0.25</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="21"/>
+        <v>559.59619142068186</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="22"/>
+        <v>0.75</v>
+      </c>
+      <c r="I82">
         <f t="shared" si="14"/>
-        <v>0.25</v>
-      </c>
-      <c r="G82">
+        <v>0.30249999999999999</v>
+      </c>
+      <c r="J82">
         <f t="shared" si="15"/>
-        <v>559.59619142068186</v>
-      </c>
-      <c r="H82">
-        <f t="shared" si="16"/>
-        <v>0.75</v>
-      </c>
-      <c r="I82">
-        <f>(100-A82) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.30249999999999999</v>
-      </c>
-      <c r="J82">
-        <f>I82 * $F$2 * $J$4</f>
         <v>830.29124810538781</v>
       </c>
       <c r="K82">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67397577982136336</v>
       </c>
     </row>
@@ -18713,43 +19147,43 @@
         <v>76</v>
       </c>
       <c r="B83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14440</v>
       </c>
       <c r="C83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.76</v>
       </c>
       <c r="D83">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1512.1532622</v>
       </c>
       <c r="E83" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.36</v>
       </c>
       <c r="F83" s="47">
+        <f t="shared" si="20"/>
+        <v>0.24</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="21"/>
+        <v>544.37517501403931</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="22"/>
+        <v>0.72960000000000003</v>
+      </c>
+      <c r="I83">
         <f t="shared" si="14"/>
-        <v>0.24</v>
-      </c>
-      <c r="G83">
+        <v>0.29320000000000002</v>
+      </c>
+      <c r="J83">
         <f t="shared" si="15"/>
-        <v>544.37517501403931</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="16"/>
-        <v>0.72960000000000003</v>
-      </c>
-      <c r="I83">
-        <f>(100-A83) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.29320000000000002</v>
-      </c>
-      <c r="J83">
-        <f>I83 * $F$2 * $J$4</f>
         <v>804.76493865950317</v>
       </c>
       <c r="K83">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67643997503271569</v>
       </c>
     </row>
@@ -18758,43 +19192,43 @@
         <v>77</v>
       </c>
       <c r="B84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14630</v>
       </c>
       <c r="C84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.77</v>
       </c>
       <c r="D84">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1532.05001565</v>
       </c>
       <c r="E84" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.34500000000000003</v>
       </c>
       <c r="F84" s="47">
+        <f t="shared" si="20"/>
+        <v>0.23</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="21"/>
+        <v>528.55725600321477</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="22"/>
+        <v>0.70840000000000014</v>
+      </c>
+      <c r="I84">
         <f t="shared" si="14"/>
-        <v>0.23</v>
-      </c>
-      <c r="G84">
+        <v>0.28390000000000004</v>
+      </c>
+      <c r="J84">
         <f t="shared" si="15"/>
-        <v>528.55725600321477</v>
-      </c>
-      <c r="H84">
-        <f t="shared" si="16"/>
-        <v>0.70840000000000014</v>
-      </c>
-      <c r="I84">
-        <f>(100-A84) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.28390000000000004</v>
-      </c>
-      <c r="J84">
-        <f>I84 * $F$2 * $J$4</f>
         <v>779.23862921361865</v>
       </c>
       <c r="K84">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67829960706211001</v>
       </c>
     </row>
@@ -18803,43 +19237,43 @@
         <v>78</v>
       </c>
       <c r="B85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>14820</v>
       </c>
       <c r="C85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.78</v>
       </c>
       <c r="D85">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1551.9467691</v>
       </c>
       <c r="E85" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.33</v>
       </c>
       <c r="F85" s="47">
+        <f t="shared" si="20"/>
+        <v>0.22</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="21"/>
+        <v>512.14243438820813</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="22"/>
+        <v>0.68640000000000012</v>
+      </c>
+      <c r="I85">
         <f t="shared" si="14"/>
-        <v>0.22</v>
-      </c>
-      <c r="G85">
+        <v>0.27459999999999996</v>
+      </c>
+      <c r="J85">
         <f t="shared" si="15"/>
-        <v>512.14243438820813</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="16"/>
-        <v>0.68640000000000012</v>
-      </c>
-      <c r="I85">
-        <f>(100-A85) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.27459999999999996</v>
-      </c>
-      <c r="J85">
-        <f>I85 * $F$2 * $J$4</f>
         <v>753.71231976773367</v>
       </c>
       <c r="K85">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67949325088122681</v>
       </c>
     </row>
@@ -18848,43 +19282,43 @@
         <v>79</v>
       </c>
       <c r="B86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15010</v>
       </c>
       <c r="C86">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.79</v>
       </c>
       <c r="D86">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1571.84352255</v>
       </c>
       <c r="E86" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.315</v>
       </c>
       <c r="F86" s="47">
+        <f t="shared" si="20"/>
+        <v>0.21</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="21"/>
+        <v>495.13071016901927</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="22"/>
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="I86">
         <f t="shared" si="14"/>
-        <v>0.21</v>
-      </c>
-      <c r="G86">
+        <v>0.26529999999999998</v>
+      </c>
+      <c r="J86">
         <f t="shared" si="15"/>
-        <v>495.13071016901927</v>
-      </c>
-      <c r="H86">
-        <f t="shared" si="16"/>
-        <v>0.66359999999999997</v>
-      </c>
-      <c r="I86">
-        <f>(100-A86) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.26529999999999998</v>
-      </c>
-      <c r="J86">
-        <f>I86 * $F$2 * $J$4</f>
         <v>728.18601032184927</v>
       </c>
       <c r="K86">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67995086852901443</v>
       </c>
     </row>
@@ -18893,43 +19327,43 @@
         <v>80</v>
       </c>
       <c r="B87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15200</v>
       </c>
       <c r="C87">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.8</v>
       </c>
       <c r="D87">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1591.740276</v>
       </c>
       <c r="E87" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="F87" s="47">
+        <f t="shared" si="20"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="21"/>
+        <v>477.52208334564858</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="22"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="I87">
         <f t="shared" si="14"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="G87">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="J87">
         <f t="shared" si="15"/>
-        <v>477.52208334564858</v>
-      </c>
-      <c r="H87">
-        <f t="shared" si="16"/>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="I87">
-        <f>(100-A87) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="J87">
-        <f>I87 * $F$2 * $J$4</f>
         <v>702.65970087596452</v>
       </c>
       <c r="K87">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67959224465320822</v>
       </c>
     </row>
@@ -18938,43 +19372,43 @@
         <v>81</v>
       </c>
       <c r="B88">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15390.000000000002</v>
       </c>
       <c r="C88">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.81</v>
       </c>
       <c r="D88">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1611.6370294500002</v>
       </c>
       <c r="E88" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.28500000000000003</v>
       </c>
       <c r="F88" s="47">
+        <f t="shared" si="20"/>
+        <v>0.19000000000000003</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="21"/>
+        <v>459.31655391809574</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="22"/>
+        <v>0.61560000000000015</v>
+      </c>
+      <c r="I88">
         <f t="shared" si="14"/>
-        <v>0.19000000000000003</v>
-      </c>
-      <c r="G88">
+        <v>0.2467</v>
+      </c>
+      <c r="J88">
         <f t="shared" si="15"/>
-        <v>459.31655391809574</v>
-      </c>
-      <c r="H88">
-        <f t="shared" si="16"/>
-        <v>0.61560000000000015</v>
-      </c>
-      <c r="I88">
-        <f>(100-A88) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.2467</v>
-      </c>
-      <c r="J88">
-        <f>I88 * $F$2 * $J$4</f>
         <v>677.13339143007988</v>
       </c>
       <c r="K88">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67832506819378191</v>
       </c>
     </row>
@@ -18983,43 +19417,43 @@
         <v>82</v>
       </c>
       <c r="B89">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15580.000000000002</v>
       </c>
       <c r="C89">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.82000000000000006</v>
       </c>
       <c r="D89">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1631.5337829000002</v>
       </c>
       <c r="E89" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.27</v>
       </c>
       <c r="F89" s="47">
+        <f t="shared" si="20"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="21"/>
+        <v>440.51412188636084</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="22"/>
+        <v>0.59040000000000015</v>
+      </c>
+      <c r="I89">
         <f t="shared" si="14"/>
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="G89">
+        <v>0.2374</v>
+      </c>
+      <c r="J89">
         <f t="shared" si="15"/>
-        <v>440.51412188636084</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="16"/>
-        <v>0.59040000000000015</v>
-      </c>
-      <c r="I89">
-        <f>(100-A89) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.2374</v>
-      </c>
-      <c r="J89">
-        <f>I89 * $F$2 * $J$4</f>
         <v>651.60708198419525</v>
       </c>
       <c r="K89">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67604256317313249</v>
       </c>
     </row>
@@ -19028,43 +19462,43 @@
         <v>83</v>
       </c>
       <c r="B90">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15770.000000000002</v>
       </c>
       <c r="C90">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="D90">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1651.4305363500002</v>
       </c>
       <c r="E90" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.255</v>
       </c>
       <c r="F90" s="47">
+        <f t="shared" si="20"/>
+        <v>0.17</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="21"/>
+        <v>421.11478725044384</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="22"/>
+        <v>0.56440000000000012</v>
+      </c>
+      <c r="I90">
         <f t="shared" si="14"/>
-        <v>0.17</v>
-      </c>
-      <c r="G90">
+        <v>0.2281</v>
+      </c>
+      <c r="J90">
         <f t="shared" si="15"/>
-        <v>421.11478725044384</v>
-      </c>
-      <c r="H90">
-        <f t="shared" si="16"/>
-        <v>0.56440000000000012</v>
-      </c>
-      <c r="I90">
-        <f>(100-A90) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.2281</v>
-      </c>
-      <c r="J90">
-        <f>I90 * $F$2 * $J$4</f>
         <v>626.08077253831061</v>
       </c>
       <c r="K90">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.67262053990753301</v>
       </c>
     </row>
@@ -19073,43 +19507,43 @@
         <v>84</v>
       </c>
       <c r="B91">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>15960</v>
       </c>
       <c r="C91">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.84</v>
       </c>
       <c r="D91">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1671.3272898</v>
       </c>
       <c r="E91" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.24</v>
       </c>
       <c r="F91" s="47">
+        <f t="shared" si="20"/>
+        <v>0.16</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="21"/>
+        <v>401.11855001034473</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="22"/>
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="I91">
         <f t="shared" si="14"/>
-        <v>0.16</v>
-      </c>
-      <c r="G91">
+        <v>0.21879999999999999</v>
+      </c>
+      <c r="J91">
         <f t="shared" si="15"/>
-        <v>401.11855001034473</v>
-      </c>
-      <c r="H91">
-        <f t="shared" si="16"/>
-        <v>0.53759999999999997</v>
-      </c>
-      <c r="I91">
-        <f>(100-A91) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.21879999999999999</v>
-      </c>
-      <c r="J91">
-        <f>I91 * $F$2 * $J$4</f>
         <v>600.55446309242598</v>
       </c>
       <c r="K91">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.6679136941966447</v>
       </c>
     </row>
@@ -19118,43 +19552,43 @@
         <v>85</v>
       </c>
       <c r="B92">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16150</v>
       </c>
       <c r="C92">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.85</v>
       </c>
       <c r="D92">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1691.22404325</v>
       </c>
       <c r="E92" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="F92" s="47">
+        <f t="shared" si="20"/>
+        <v>0.15</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="21"/>
+        <v>380.52541016606369</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="22"/>
+        <v>0.51</v>
+      </c>
+      <c r="I92">
         <f t="shared" si="14"/>
-        <v>0.15</v>
-      </c>
-      <c r="G92">
+        <v>0.20949999999999999</v>
+      </c>
+      <c r="J92">
         <f t="shared" si="15"/>
-        <v>380.52541016606369</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="16"/>
-        <v>0.51</v>
-      </c>
-      <c r="I92">
-        <f>(100-A92) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.20949999999999999</v>
-      </c>
-      <c r="J92">
-        <f>I92 * $F$2 * $J$4</f>
         <v>575.02815364654123</v>
       </c>
       <c r="K92">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.66175092080789732</v>
       </c>
     </row>
@@ -19163,43 +19597,43 @@
         <v>86</v>
       </c>
       <c r="B93">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16340</v>
       </c>
       <c r="C93">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.86</v>
       </c>
       <c r="D93">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1711.1207967</v>
       </c>
       <c r="E93" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.21</v>
       </c>
       <c r="F93" s="47">
+        <f t="shared" si="20"/>
+        <v>0.13999999999999999</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="21"/>
+        <v>359.33536771760049</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="22"/>
+        <v>0.48159999999999997</v>
+      </c>
+      <c r="I93">
         <f t="shared" si="14"/>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="G93">
+        <v>0.20020000000000002</v>
+      </c>
+      <c r="J93">
         <f t="shared" si="15"/>
-        <v>359.33536771760049</v>
-      </c>
-      <c r="H93">
-        <f t="shared" si="16"/>
-        <v>0.48159999999999997</v>
-      </c>
-      <c r="I93">
-        <f>(100-A93) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.20020000000000002</v>
-      </c>
-      <c r="J93">
-        <f>I93 * $F$2 * $J$4</f>
         <v>549.50184420065671</v>
       </c>
       <c r="K93">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.6539293207292407</v>
       </c>
     </row>
@@ -19208,43 +19642,43 @@
         <v>87</v>
       </c>
       <c r="B94">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16530</v>
       </c>
       <c r="C94">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.87</v>
       </c>
       <c r="D94">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1731.01755015</v>
       </c>
       <c r="E94" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.19500000000000001</v>
       </c>
       <c r="F94" s="47">
+        <f t="shared" si="20"/>
+        <v>0.13</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="21"/>
+        <v>337.5484226649553</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="22"/>
+        <v>0.45240000000000002</v>
+      </c>
+      <c r="I94">
         <f t="shared" si="14"/>
-        <v>0.13</v>
-      </c>
-      <c r="G94">
+        <v>0.19090000000000001</v>
+      </c>
+      <c r="J94">
         <f t="shared" si="15"/>
-        <v>337.5484226649553</v>
-      </c>
-      <c r="H94">
-        <f t="shared" si="16"/>
-        <v>0.45240000000000002</v>
-      </c>
-      <c r="I94">
-        <f>(100-A94) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.19090000000000001</v>
-      </c>
-      <c r="J94">
-        <f>I94 * $F$2 * $J$4</f>
         <v>523.97553475477207</v>
       </c>
       <c r="K94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.64420645674407817</v>
       </c>
     </row>
@@ -19253,43 +19687,43 @@
         <v>88</v>
       </c>
       <c r="B95">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16720</v>
       </c>
       <c r="C95">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.88</v>
       </c>
       <c r="D95">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1750.9143036</v>
       </c>
       <c r="E95" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.18</v>
       </c>
       <c r="F95" s="47">
+        <f t="shared" si="20"/>
+        <v>0.12</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="21"/>
+        <v>315.16457500812805</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="22"/>
+        <v>0.42240000000000005</v>
+      </c>
+      <c r="I95">
         <f t="shared" si="14"/>
-        <v>0.12</v>
-      </c>
-      <c r="G95">
+        <v>0.18159999999999998</v>
+      </c>
+      <c r="J95">
         <f t="shared" si="15"/>
-        <v>315.16457500812805</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="16"/>
-        <v>0.42240000000000005</v>
-      </c>
-      <c r="I95">
-        <f>(100-A95) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.18159999999999998</v>
-      </c>
-      <c r="J95">
-        <f>I95 * $F$2 * $J$4</f>
         <v>498.44922530888726</v>
       </c>
       <c r="K95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.63229022938659729</v>
       </c>
     </row>
@@ -19298,43 +19732,43 @@
         <v>89</v>
       </c>
       <c r="B96">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>16910</v>
       </c>
       <c r="C96">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.89</v>
       </c>
       <c r="D96">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1770.81105705</v>
       </c>
       <c r="E96" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="F96" s="47">
+        <f t="shared" si="20"/>
+        <v>0.11</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="21"/>
+        <v>292.18382474711871</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="22"/>
+        <v>0.39160000000000006</v>
+      </c>
+      <c r="I96">
         <f t="shared" si="14"/>
-        <v>0.11</v>
-      </c>
-      <c r="G96">
+        <v>0.17230000000000001</v>
+      </c>
+      <c r="J96">
         <f t="shared" si="15"/>
-        <v>292.18382474711871</v>
-      </c>
-      <c r="H96">
-        <f t="shared" si="16"/>
-        <v>0.39160000000000006</v>
-      </c>
-      <c r="I96">
-        <f>(100-A96) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.17230000000000001</v>
-      </c>
-      <c r="J96">
-        <f>I96 * $F$2 * $J$4</f>
         <v>472.92291586300269</v>
       </c>
       <c r="K96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.61782547418733913</v>
       </c>
     </row>
@@ -19343,43 +19777,43 @@
         <v>90</v>
       </c>
       <c r="B97">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17100</v>
       </c>
       <c r="C97">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.9</v>
       </c>
       <c r="D97">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1790.7078105000001</v>
       </c>
       <c r="E97" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.15</v>
       </c>
       <c r="F97" s="47">
+        <f t="shared" si="20"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="21"/>
+        <v>268.60617188192731</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="22"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="I97">
         <f t="shared" si="14"/>
-        <v>9.9999999999999992E-2</v>
-      </c>
-      <c r="G97">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="J97">
         <f t="shared" si="15"/>
-        <v>268.60617188192731</v>
-      </c>
-      <c r="H97">
-        <f t="shared" si="16"/>
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="I97">
-        <f>(100-A97) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="J97">
-        <f>I97 * $F$2 * $J$4</f>
         <v>447.39660641711805</v>
       </c>
       <c r="K97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.60037597073657656</v>
       </c>
     </row>
@@ -19388,43 +19822,43 @@
         <v>91</v>
       </c>
       <c r="B98">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17290</v>
       </c>
       <c r="C98">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.91</v>
       </c>
       <c r="D98">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1810.6045639500001</v>
       </c>
       <c r="E98" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.13500000000000001</v>
       </c>
       <c r="F98" s="47">
+        <f t="shared" si="20"/>
+        <v>9.0000000000000011E-2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="21"/>
+        <v>244.43161641255386</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="22"/>
+        <v>0.32760000000000006</v>
+      </c>
+      <c r="I98">
         <f t="shared" si="14"/>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="G98">
+        <v>0.1537</v>
+      </c>
+      <c r="J98">
         <f t="shared" si="15"/>
-        <v>244.43161641255386</v>
-      </c>
-      <c r="H98">
-        <f t="shared" si="16"/>
-        <v>0.32760000000000006</v>
-      </c>
-      <c r="I98">
-        <f>(100-A98) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.1537</v>
-      </c>
-      <c r="J98">
-        <f>I98 * $F$2 * $J$4</f>
         <v>421.87029697123342</v>
       </c>
       <c r="K98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.57939992023003506</v>
       </c>
     </row>
@@ -19433,43 +19867,43 @@
         <v>92</v>
       </c>
       <c r="B99">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17480</v>
       </c>
       <c r="C99">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.92</v>
       </c>
       <c r="D99">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1830.5013174000001</v>
       </c>
       <c r="E99" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.12</v>
       </c>
       <c r="F99" s="47">
+        <f t="shared" si="20"/>
+        <v>0.08</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="21"/>
+        <v>219.66015833899831</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="22"/>
+        <v>0.2944</v>
+      </c>
+      <c r="I99">
         <f t="shared" si="14"/>
-        <v>0.08</v>
-      </c>
-      <c r="G99">
+        <v>0.1444</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="15"/>
-        <v>219.66015833899831</v>
-      </c>
-      <c r="H99">
-        <f t="shared" si="16"/>
-        <v>0.2944</v>
-      </c>
-      <c r="I99">
-        <f>(100-A99) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.1444</v>
-      </c>
-      <c r="J99">
-        <f>I99 * $F$2 * $J$4</f>
         <v>396.34398752534878</v>
       </c>
       <c r="K99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.55421594688616194</v>
       </c>
     </row>
@@ -19478,43 +19912,43 @@
         <v>93</v>
       </c>
       <c r="B100">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17670</v>
       </c>
       <c r="C100">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.93</v>
       </c>
       <c r="D100">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1850.3980708500001</v>
       </c>
       <c r="E100" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.105</v>
       </c>
       <c r="F100" s="47">
+        <f t="shared" si="20"/>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="21"/>
+        <v>194.29179766126074</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="22"/>
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="I100">
         <f t="shared" si="14"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="G100">
+        <v>0.1351</v>
+      </c>
+      <c r="J100">
         <f t="shared" si="15"/>
-        <v>194.29179766126074</v>
-      </c>
-      <c r="H100">
-        <f t="shared" si="16"/>
-        <v>0.26040000000000002</v>
-      </c>
-      <c r="I100">
-        <f>(100-A100) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.1351</v>
-      </c>
-      <c r="J100">
-        <f>I100 * $F$2 * $J$4</f>
         <v>370.81767807946414</v>
       </c>
       <c r="K100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.52395505701760292</v>
       </c>
     </row>
@@ -19523,43 +19957,43 @@
         <v>94</v>
       </c>
       <c r="B101">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>17860</v>
       </c>
       <c r="C101">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.94</v>
       </c>
       <c r="D101">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1870.2948242999998</v>
       </c>
       <c r="E101" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.09</v>
       </c>
       <c r="F101" s="47">
+        <f t="shared" si="20"/>
+        <v>0.06</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="21"/>
+        <v>168.3265343793411</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="22"/>
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="I101">
         <f t="shared" si="14"/>
-        <v>0.06</v>
-      </c>
-      <c r="G101">
+        <v>0.1258</v>
+      </c>
+      <c r="J101">
         <f t="shared" si="15"/>
-        <v>168.3265343793411</v>
-      </c>
-      <c r="H101">
-        <f t="shared" si="16"/>
-        <v>0.22559999999999999</v>
-      </c>
-      <c r="I101">
-        <f>(100-A101) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.1258</v>
-      </c>
-      <c r="J101">
-        <f>I101 * $F$2 * $J$4</f>
         <v>345.2913686335794</v>
       </c>
       <c r="K101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.48749128901037764</v>
       </c>
     </row>
@@ -19568,43 +20002,43 @@
         <v>95</v>
       </c>
       <c r="B102">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18050</v>
       </c>
       <c r="C102">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.95</v>
       </c>
       <c r="D102">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1890.1915777499999</v>
       </c>
       <c r="E102" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F102" s="47">
+        <f t="shared" si="20"/>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="21"/>
+        <v>141.76436849323943</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="22"/>
+        <v>0.19000000000000006</v>
+      </c>
+      <c r="I102">
         <f t="shared" si="14"/>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="G102">
+        <v>0.11650000000000001</v>
+      </c>
+      <c r="J102">
         <f t="shared" si="15"/>
-        <v>141.76436849323943</v>
-      </c>
-      <c r="H102">
-        <f t="shared" si="16"/>
-        <v>0.19000000000000006</v>
-      </c>
-      <c r="I102">
-        <f>(100-A102) * 0.01 * (1 - $B$4) + $B$4</f>
-        <v>0.11650000000000001</v>
-      </c>
-      <c r="J102">
-        <f>I102 * $F$2 * $J$4</f>
         <v>319.76505918769482</v>
       </c>
       <c r="K102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.44333914672655644</v>
       </c>
     </row>
@@ -19613,43 +20047,43 @@
         <v>96</v>
       </c>
       <c r="B103">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18240</v>
       </c>
       <c r="C103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.96</v>
       </c>
       <c r="D103">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1910.0883311999999</v>
       </c>
       <c r="E103" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.06</v>
       </c>
       <c r="F103" s="47">
+        <f t="shared" si="20"/>
+        <v>0.04</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="21"/>
+        <v>114.60530000295563</v>
+      </c>
+      <c r="H103">
+        <f t="shared" si="22"/>
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="I103">
         <f t="shared" si="14"/>
-        <v>0.04</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="15"/>
-        <v>114.60530000295563</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="16"/>
-        <v>0.15359999999999999</v>
-      </c>
-      <c r="I103">
-        <f>(100-A103) * 0.01 * (1 - $B$4) + $B$4</f>
         <v>0.1072</v>
       </c>
       <c r="J103">
-        <f>I103 * $F$2 * $J$4</f>
+        <f t="shared" ref="J103:J134" si="24">I103 * $F$2 * $J$4</f>
         <v>294.23874974181018</v>
       </c>
       <c r="K103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.38949764469676396</v>
       </c>
     </row>
@@ -19658,43 +20092,43 @@
         <v>97</v>
       </c>
       <c r="B104">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18430</v>
       </c>
       <c r="C104">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.97</v>
       </c>
       <c r="D104">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1929.9850846499999</v>
       </c>
       <c r="E104" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="F104" s="47">
+        <f t="shared" si="20"/>
+        <v>0.03</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="21"/>
+        <v>86.849328908489824</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="22"/>
+        <v>0.1164</v>
+      </c>
+      <c r="I104">
         <f t="shared" si="14"/>
-        <v>0.03</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="15"/>
-        <v>86.849328908489824</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="16"/>
-        <v>0.1164</v>
-      </c>
-      <c r="I104">
-        <f>(100-A104) * 0.01 * (1 - $B$4) + $B$4</f>
         <v>9.7900000000000001E-2</v>
       </c>
       <c r="J104">
-        <f>I104 * $F$2 * $J$4</f>
+        <f t="shared" si="24"/>
         <v>268.71244029592549</v>
       </c>
       <c r="K104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.32320546385141341</v>
       </c>
     </row>
@@ -19703,43 +20137,43 @@
         <v>98</v>
       </c>
       <c r="B105">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18620</v>
       </c>
       <c r="C105">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.98</v>
       </c>
       <c r="D105">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1949.8818380999999</v>
       </c>
       <c r="E105" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.03</v>
       </c>
       <c r="F105" s="47">
+        <f t="shared" si="20"/>
+        <v>0.02</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="21"/>
+        <v>58.496455209841955</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="22"/>
+        <v>7.8400000000000011E-2</v>
+      </c>
+      <c r="I105">
         <f t="shared" si="14"/>
-        <v>0.02</v>
-      </c>
-      <c r="G105">
-        <f t="shared" si="15"/>
-        <v>58.496455209841955</v>
-      </c>
-      <c r="H105">
-        <f t="shared" si="16"/>
-        <v>7.8400000000000011E-2</v>
-      </c>
-      <c r="I105">
-        <f>(100-A105) * 0.01 * (1 - $B$4) + $B$4</f>
         <v>8.8600000000000012E-2</v>
       </c>
       <c r="J105">
-        <f>I105 * $F$2 * $J$4</f>
+        <f t="shared" si="24"/>
         <v>243.18613085004091</v>
       </c>
       <c r="K105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.24054190510524384</v>
       </c>
     </row>
@@ -19748,43 +20182,43 @@
         <v>99</v>
       </c>
       <c r="B106">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>18810</v>
       </c>
       <c r="C106">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.99</v>
       </c>
       <c r="D106">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1969.7785915499999</v>
       </c>
       <c r="E106" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F106" s="47">
+        <f t="shared" si="20"/>
+        <v>0.01</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="21"/>
+        <v>29.546678907012002</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="22"/>
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="I106">
         <f t="shared" si="14"/>
-        <v>0.01</v>
-      </c>
-      <c r="G106">
-        <f t="shared" si="15"/>
-        <v>29.546678907012002</v>
-      </c>
-      <c r="H106">
-        <f t="shared" si="16"/>
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="I106">
-        <f>(100-A106) * 0.01 * (1 - $B$4) + $B$4</f>
         <v>7.9300000000000009E-2</v>
       </c>
       <c r="J106">
-        <f>I106 * $F$2 * $J$4</f>
+        <f t="shared" si="24"/>
         <v>217.65982140415622</v>
       </c>
       <c r="K106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.1357470511387997</v>
       </c>
     </row>
@@ -19793,43 +20227,43 @@
         <v>100</v>
       </c>
       <c r="B107">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>19000</v>
       </c>
       <c r="C107">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="D107">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1989.6753449999999</v>
       </c>
       <c r="E107" s="47">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="F107" s="47">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I107">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I107">
-        <f>(100-A107) * 0.01 * (1 - $B$4) + $B$4</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J107">
-        <f>I107 * $F$2 * $J$4</f>
+        <f t="shared" si="24"/>
         <v>192.13351195827158</v>
       </c>
       <c r="K107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -19839,7 +20273,7 @@
         <v>746.12825522757578</v>
       </c>
       <c r="H108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="J108">
@@ -19857,7 +20291,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:V41"/>
   <sheetViews>
@@ -20517,51 +20951,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>